--- a/outputs/ML_Results/mode_MNLR_new/Wien.xlsx
+++ b/outputs/ML_Results/mode_MNLR_new/Wien.xlsx
@@ -7,12 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ38012741" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ42831422" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ45128800" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ49734939" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ54595542" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ56912555" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ29480716" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ31867575" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ34367573" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ36987466" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ39622406" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ42394446" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ47481057" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ50250168" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,22 +485,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.67527627851381</v>
+        <v>-2.184014242325094</v>
       </c>
       <c r="C2" t="n">
-        <v>2.60516409970842</v>
+        <v>3.287758921202793</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7617614294197089</v>
+        <v>0.1666905442929007</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3629416739911988</v>
+        <v>0.02989053665828828</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001455227666564569</v>
+        <v>1.589118271279486e-12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1073031381562037</v>
+        <v>0.4445078473111964</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +510,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.06381817116115789</v>
+        <v>-0.09157131749224051</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03584697564321893</v>
+        <v>-0.03392845170938524</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2136072729808659</v>
+        <v>-0.2150978089473346</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7418067864426576</v>
+        <v>0.5174811928114564</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7515375212788028</v>
+        <v>0.7682720634907768</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02155313549907264</v>
+        <v>0.00958809426476873</v>
       </c>
     </row>
     <row r="4">
@@ -533,21 +535,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1740287352884674</v>
+        <v>-0.1597857087321746</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.08538332845502872</v>
+        <v>-0.07057907561381362</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.457440276395945</v>
+        <v>-0.4443828115420119</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.7464563041996254</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.03216013544710464</v>
-      </c>
+        <v>0.6787893607185574</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -556,20 +556,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09610443413984669</v>
+        <v>-0.0808348764710695</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.007793066323555805</v>
+        <v>-0.004555455330802041</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3016768457463816</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>-0.2902472549335947</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7634196884801591</v>
+      </c>
       <c r="F5" t="n">
-        <v>0.9667837557449075</v>
+        <v>0.9805761386890774</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02087946657685802</v>
+        <v>0.05940467961547275</v>
       </c>
     </row>
     <row r="6">
@@ -579,22 +581,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4847409786310549</v>
+        <v>0.491097983273401</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.08237479917496097</v>
+        <v>-0.07820305517073055</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09327019903845693</v>
+        <v>0.09844569609777382</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1153256297025679</v>
+        <v>0.1159123763711241</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7962557382782701</v>
+        <v>0.8337312151126771</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5945166216444192</v>
+        <v>0.5283200547201369</v>
       </c>
     </row>
     <row r="7">
@@ -604,20 +606,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6366325935555053</v>
+        <v>-0.6129825934587181</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5346520388294453</v>
+        <v>-0.5365195057182137</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5957773234575146</v>
+        <v>-0.5937530594233086</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.0006835881757297469</v>
+        <v>4.093753049611902e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>4.73059141510272e-06</v>
+        <v>1.349565390998309e-23</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +629,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5031423591950309</v>
+        <v>0.4391823657312275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1379804767618098</v>
+        <v>0.1521088392233985</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0529117221793016</v>
+        <v>0.03197916253831105</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08159653312604004</v>
+        <v>0.1463380527167008</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4365475159982103</v>
+        <v>0.381557244033387</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6756663806129332</v>
+        <v>0.8056653359963379</v>
       </c>
     </row>
     <row r="9">
@@ -652,22 +654,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3494077172165616</v>
+        <v>0.3072166317266672</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1707672149230489</v>
+        <v>0.1875967556891987</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1464885395577559</v>
+        <v>-0.1587373539942613</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2147984536258182</v>
+        <v>0.09425320980763609</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2742414926364718</v>
+        <v>0.2158335384656852</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2028488435901907</v>
+        <v>0.1896552266494084</v>
       </c>
     </row>
     <row r="10">
@@ -677,20 +679,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3044580825091472</v>
+        <v>-0.3292001381888536</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1273445595099172</v>
+        <v>0.1315564447113344</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1657807221085116</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>0.1582201189682456</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01817355322737241</v>
+      </c>
       <c r="F10" t="n">
-        <v>0.2183526786577806</v>
+        <v>0.2153195558318339</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02930669171360595</v>
+        <v>0.04987363084176494</v>
       </c>
     </row>
     <row r="11">
@@ -700,20 +704,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.342051628864964</v>
+        <v>1.34687867929932</v>
       </c>
       <c r="C11" t="n">
-        <v>1.576723087468559</v>
+        <v>1.574019963109534</v>
       </c>
       <c r="D11" t="n">
-        <v>1.466430003938082</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>1.464776428513647</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.000223674814146613</v>
+      </c>
       <c r="F11" t="n">
-        <v>7.955085659942185e-21</v>
+        <v>3.076420313311287e-15</v>
       </c>
       <c r="G11" t="n">
-        <v>2.857825262926229e-14</v>
+        <v>1.71437866464423e-09</v>
       </c>
     </row>
     <row r="12">
@@ -723,20 +729,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7832183772462925</v>
+        <v>0.8212557600855082</v>
       </c>
       <c r="C12" t="n">
-        <v>1.338688927659322</v>
+        <v>1.339331937283871</v>
       </c>
       <c r="D12" t="n">
-        <v>2.121465429424675</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>2.12360663711447</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01077570848875801</v>
+      </c>
       <c r="F12" t="n">
-        <v>1.196393878819034e-08</v>
+        <v>6.727570688410908e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>4.218820049797879e-38</v>
+        <v>6.076710777019235e-43</v>
       </c>
     </row>
     <row r="13">
@@ -746,22 +754,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9230848346686356</v>
+        <v>0.9518061998065082</v>
       </c>
       <c r="C13" t="n">
-        <v>1.087669203549708</v>
+        <v>1.085843307961333</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7080331029601579</v>
+        <v>0.7133799009471774</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01825724705468762</v>
+        <v>0.003560597856067233</v>
       </c>
       <c r="F13" t="n">
-        <v>2.126147480372369e-09</v>
+        <v>2.133600639457218e-08</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003431795940981486</v>
+        <v>0.001911759577918457</v>
       </c>
     </row>
     <row r="14">
@@ -771,20 +779,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.759239200191598</v>
+        <v>1.77110793759168</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6675462184545182</v>
+        <v>0.6797748622638586</v>
       </c>
       <c r="D14" t="n">
-        <v>1.948895675705735</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
+        <v>1.951121048470398</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.69764970703261e-14</v>
+      </c>
       <c r="F14" t="n">
-        <v>0.002502624425679223</v>
+        <v>0.0001637082989547352</v>
       </c>
       <c r="G14" t="n">
-        <v>7.256920249178538e-21</v>
+        <v>7.041055455465391e-57</v>
       </c>
     </row>
     <row r="15">
@@ -794,22 +804,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.094612846154205</v>
+        <v>1.201270843265863</v>
       </c>
       <c r="C15" t="n">
-        <v>1.058455901556695</v>
+        <v>1.033471930917436</v>
       </c>
       <c r="D15" t="n">
-        <v>1.163008286687413</v>
+        <v>1.184748523531704</v>
       </c>
       <c r="E15" t="n">
-        <v>0.377714983666764</v>
+        <v>0.0907679151766923</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0428420101518552</v>
+        <v>0.03791499246128621</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02127637025334033</v>
+        <v>0.004222359732961518</v>
       </c>
     </row>
     <row r="16">
@@ -819,22 +829,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2250865475944711</v>
+        <v>0.2286822875644546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6407788117338954</v>
+        <v>0.6419466696105046</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4581544073343442</v>
+        <v>0.463444409717249</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5738485773058057</v>
+        <v>0.3721568774784739</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0001147268836201572</v>
+        <v>6.145732772039961e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003248269564730665</v>
+        <v>0.0003380767496382032</v>
       </c>
     </row>
     <row r="17">
@@ -844,18 +854,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.883194474402929</v>
+        <v>0.8303488703748416</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1029382024843497</v>
+        <v>-0.09496196153112028</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3082950614572032</v>
+        <v>-0.3210816524281091</v>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0.9999999982594993</v>
+      </c>
       <c r="G17" t="n">
-        <v>0.9999999991155513</v>
+        <v>0.9999999903783549</v>
       </c>
     </row>
     <row r="18">
@@ -865,21 +877,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1667028653848002</v>
+        <v>-0.1128230586050612</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1977886948140258</v>
+        <v>0.1952728080533816</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5802982298442587</v>
+        <v>0.5864109344445452</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5277207309511281</v>
+        <v>0.7324911087085469</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1670032363258031</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>0.3197144646024567</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0006471999338621387</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -888,22 +902,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.237846989782698</v>
+        <v>1.198465930207588</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3880141826142096</v>
+        <v>0.3862993923565619</v>
       </c>
       <c r="D19" t="n">
-        <v>0.929653695115687</v>
+        <v>0.9319040530309868</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0001627384983308454</v>
+        <v>0.0006173391937928608</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1339347655522889</v>
+        <v>0.1500264837078436</v>
       </c>
       <c r="G19" t="n">
-        <v>2.9078529585658e-07</v>
+        <v>1.821380891712103e-06</v>
       </c>
     </row>
     <row r="20">
@@ -913,20 +927,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.375639128583431</v>
+        <v>1.305866267234219</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3969137632870784</v>
+        <v>0.4130523933081536</v>
       </c>
       <c r="D20" t="n">
-        <v>1.034848107716706</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
+        <v>1.034361921880246</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.004160928136079553</v>
+      </c>
       <c r="F20" t="n">
-        <v>0.2143984102562693</v>
+        <v>0.1996117756261387</v>
       </c>
       <c r="G20" t="n">
-        <v>5.347271808268942e-06</v>
+        <v>6.218739940829976e-06</v>
       </c>
     </row>
     <row r="21">
@@ -936,22 +952,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8259555003952338</v>
+        <v>0.8758466903663307</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2317435164391231</v>
+        <v>0.2324916773642578</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5201596368456876</v>
+        <v>0.5119209732733061</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05969794741782816</v>
+        <v>0.08640305258570216</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5795734008258342</v>
+        <v>0.5784296275919129</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08138951566692379</v>
+        <v>0.0825533510555818</v>
       </c>
     </row>
     <row r="22">
@@ -961,22 +977,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.472198375381081</v>
+        <v>-1.463746328488581</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.805846843574538</v>
+        <v>-0.8089929120307268</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.245450015452388</v>
+        <v>-1.248330476394643</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003529726756379844</v>
+        <v>0.005164153785585129</v>
       </c>
       <c r="F22" t="n">
-        <v>0.008387074260002653</v>
+        <v>0.00788486422020724</v>
       </c>
       <c r="G22" t="n">
-        <v>2.779819121212759e-07</v>
+        <v>2.226556791685133e-07</v>
       </c>
     </row>
     <row r="23">
@@ -986,18 +1002,20 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8831693165254491</v>
+        <v>0.830348574572807</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1029395883770228</v>
+        <v>-0.09496029756604278</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3082944880732245</v>
+        <v>-0.3210805292478772</v>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.9999999982595298</v>
+      </c>
       <c r="G23" t="n">
-        <v>0.9999999991112091</v>
+        <v>0.9999999903783885</v>
       </c>
     </row>
     <row r="24">
@@ -1007,22 +1025,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2321254204534274</v>
+        <v>0.2516277262266172</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01516574814150717</v>
+        <v>-0.02140599871261063</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3902899783873057</v>
+        <v>0.3918041875767846</v>
       </c>
       <c r="E24" t="n">
-        <v>1.848773692422673e-05</v>
+        <v>0.2778989780466722</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9069204110692551</v>
+        <v>0.8728135504351293</v>
       </c>
       <c r="G24" t="n">
-        <v>5.943253699955367e-05</v>
+        <v>0.0002223531987927257</v>
       </c>
     </row>
     <row r="25">
@@ -1032,22 +1050,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9930954156117728</v>
+        <v>0.9994592725499752</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0554455043782855</v>
+        <v>0.05034424558866189</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4410378335532047</v>
+        <v>0.4325914455431755</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0001095614369566441</v>
+        <v>9.462462988402368e-07</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6687350659016871</v>
+        <v>0.6993175411433408</v>
       </c>
       <c r="G25" t="n">
-        <v>6.399149450402667e-06</v>
+        <v>3.445042857713236e-05</v>
       </c>
     </row>
     <row r="26">
@@ -1057,22 +1075,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.4705836112055161</v>
+        <v>-0.4819036211738701</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2618486618017178</v>
+        <v>-0.2713937086433904</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2507301451795599</v>
+        <v>-0.237323617528207</v>
       </c>
       <c r="E26" t="n">
-        <v>0.571835699743928</v>
+        <v>0.525554649945935</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5105861931358133</v>
+        <v>0.4940800843087408</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4100254823902857</v>
+        <v>0.4358895028262422</v>
       </c>
     </row>
     <row r="27">
@@ -1082,22 +1100,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1742043026516924</v>
+        <v>-0.1655330493768964</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2416301960215954</v>
+        <v>0.2416031563352925</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5082564152282184</v>
+        <v>0.5081773828952504</v>
       </c>
       <c r="E27" t="n">
-        <v>9.359829613433417e-05</v>
+        <v>0.2029491884769974</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01013919311961094</v>
+        <v>0.009296672003993461</v>
       </c>
       <c r="G27" t="n">
-        <v>3.725649011528077e-13</v>
+        <v>7.618688085950293e-14</v>
       </c>
     </row>
     <row r="28">
@@ -1107,22 +1125,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.002035007768986099</v>
+        <v>-0.002643260955379712</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.006537070022033675</v>
+        <v>-0.006164242438617991</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01526659471263338</v>
+        <v>-0.01534331067532292</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8242575426150263</v>
+        <v>0.642037053475176</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1686049630979242</v>
+        <v>0.1783742328842582</v>
       </c>
       <c r="G28" t="n">
-        <v>3.508358973976455e-06</v>
+        <v>1.323792150454168e-09</v>
       </c>
     </row>
     <row r="29">
@@ -1132,22 +1150,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0002288870006695187</v>
+        <v>-0.0002285108123855281</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.001021966520860829</v>
+        <v>-0.00102272165335775</v>
       </c>
       <c r="D29" t="n">
-        <v>-5.549215524392207e-06</v>
+        <v>-5.229449183845364e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>6.418019213855326e-30</v>
+        <v>1.971297051300134e-28</v>
       </c>
       <c r="F29" t="n">
-        <v>7.567765647329032e-188</v>
+        <v>1.625214535969981e-188</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2229477806559448</v>
+        <v>0.318735423061565</v>
       </c>
     </row>
     <row r="30">
@@ -1157,22 +1175,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.664539216349374</v>
+        <v>-1.69672686674695</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.84655602443083</v>
+        <v>-1.840619360327569</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.144305170238982</v>
+        <v>-2.152854051544021</v>
       </c>
       <c r="E30" t="n">
-        <v>7.181801902250304e-16</v>
+        <v>4.10391094366879e-21</v>
       </c>
       <c r="F30" t="n">
-        <v>5.547837373482152e-35</v>
+        <v>1.108365478579112e-35</v>
       </c>
       <c r="G30" t="n">
-        <v>8.024343928502959e-67</v>
+        <v>1.976616781455783e-69</v>
       </c>
     </row>
     <row r="31">
@@ -1182,22 +1200,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.107273809880122</v>
+        <v>0.1171710528308467</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.04550892864662919</v>
+        <v>-0.04191526001820696</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.002266654288434094</v>
+        <v>-0.001715935240014246</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1609632001441059</v>
+        <v>0.05497171394173355</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3083469452656694</v>
+        <v>0.3654654828929096</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9444997903504077</v>
+        <v>0.9607790284301962</v>
       </c>
     </row>
     <row r="32">
@@ -1207,22 +1225,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.822195466986868e-05</v>
+        <v>6.533495784045024e-06</v>
       </c>
       <c r="C32" t="n">
-        <v>2.114985417895802e-05</v>
+        <v>3.030772180448367e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>4.480479362790521e-05</v>
+        <v>3.95622973096186e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5715491591959381</v>
+        <v>0.7623655065218296</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3022719674790656</v>
+        <v>0.03919851584344839</v>
       </c>
       <c r="G32" t="n">
-        <v>0.004022600510187726</v>
+        <v>0.001041227255994747</v>
       </c>
     </row>
     <row r="33">
@@ -1232,22 +1250,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.03575729854782576</v>
+        <v>0.005149044405676685</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.01291689294404781</v>
+        <v>-0.01209948230036148</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.03938838215678137</v>
+        <v>-0.01126058808625644</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4754998212333762</v>
+        <v>0.9008907393024042</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6181277478425817</v>
+        <v>0.657900781937748</v>
       </c>
       <c r="G33" t="n">
-        <v>0.005705677587140478</v>
+        <v>0.5944148704750358</v>
       </c>
     </row>
     <row r="34">
@@ -1257,193 +1275,97 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.06144052460116671</v>
+        <v>-0.09064855923160978</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1257861310135369</v>
+        <v>-0.1272634301491912</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1301088107630546</v>
+        <v>-0.1546628427012139</v>
       </c>
       <c r="E34" t="n">
-        <v>0.235157289862137</v>
+        <v>0.005989341983363938</v>
       </c>
       <c r="F34" t="n">
-        <v>7.624383208599827e-07</v>
+        <v>2.259398338795249e-08</v>
       </c>
       <c r="G34" t="n">
-        <v>7.573227794615338e-13</v>
+        <v>3.452328245601811e-17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-7.377607138737234e-09</v>
+        <v>0.01550795167452204</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.247228158480875e-09</v>
+        <v>0.002394327072714071</v>
       </c>
       <c r="D35" t="n">
-        <v>4.337119316395426e-09</v>
+        <v>0.003186170309356613</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6581284218415964</v>
+        <v>0.0003853401271255055</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8117260305284671</v>
+        <v>0.4249097573980556</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5618106927929056</v>
+        <v>0.1775524710909754</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.02558218645472674</v>
+        <v>2.311316847748921</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004257998267120716</v>
+        <v>0.01470470550654631</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.003430863464370885</v>
+        <v>-0.274937074878477</v>
       </c>
       <c r="E36" t="n">
-        <v>5.173994572274075e-52</v>
+        <v>0.0283538052679947</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3793613861552124</v>
+        <v>0.984374802538125</v>
       </c>
       <c r="G36" t="n">
-        <v>0.31845330265615</v>
+        <v>0.6401335496430349</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.007616116846809521</v>
+        <v>-2.733035280076939</v>
       </c>
       <c r="C37" t="n">
-        <v>0.006630812015241867</v>
+        <v>-0.4023327025244007</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.366345420324046e-05</v>
+        <v>0.5562117567527448</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5488379310050839</v>
+        <v>0.002803558219416117</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1990845642059637</v>
+        <v>0.4753852005539133</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9769953379709562</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2.79023292487575</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-0.1780068596129872</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.8542837136411605</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.04405346277019101</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.8601345580903813</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.2851637719175318</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.5120812265364035</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.1176516419989936</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.6633234468653139</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.8353827020810143</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.861524563533033</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.1088824640506233</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-3.708388431778463</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-0.2498887409883559</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.1683985902807074</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
-        <v>0.7083543932216376</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.7623672692079468</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>transit_accessibility_res</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.0001815197926864349</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2.88708328441464e-05</v>
-      </c>
-      <c r="D41" t="n">
-        <v>8.948396329165373e-05</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>0.6600568420754691</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.0645328462798329</v>
+        <v>0.2150723306904534</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,22 +1431,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.324808657030617</v>
+        <v>-2.354983540624414</v>
       </c>
       <c r="C2" t="n">
-        <v>2.249367360294201</v>
+        <v>3.21781223670927</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4842192974081386</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2852152779413406</v>
-      </c>
+        <v>0.4588715301873027</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>0.0183958641458314</v>
+        <v>0.0001550751366703186</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1284859614932048</v>
+        <v>0.3188483823003977</v>
       </c>
     </row>
     <row r="3">
@@ -1534,20 +1454,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1397286457835414</v>
+        <v>0.05970858721652338</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.058367825680307</v>
+        <v>0.02087300658869912</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2107243535594273</v>
+        <v>-0.1970143535225041</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0.6293173131457803</v>
+        <v>0.8644360682514655</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04832638418287196</v>
+        <v>0.05493880018866317</v>
       </c>
     </row>
     <row r="4">
@@ -1557,22 +1477,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1906245696285958</v>
+        <v>-0.02921702334568786</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0754092932286459</v>
+        <v>0.2321377611977075</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5509800427488045</v>
+        <v>-0.5056547306817928</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7509472489139675</v>
+        <v>0.923531608611923</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7677112255286114</v>
+        <v>0.3463099996464053</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01214360648436666</v>
+        <v>0.01155570061260272</v>
       </c>
     </row>
     <row r="5">
@@ -1582,22 +1502,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02838758794087639</v>
+        <v>-0.0465759708696289</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2544496140107901</v>
+        <v>-0.05605754681929492</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3337886976228784</v>
+        <v>-0.210108574562744</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9146797032194439</v>
+        <v>0.86217842758027</v>
       </c>
       <c r="F5" t="n">
-        <v>0.177462067961516</v>
+        <v>0.7593635594111519</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02377363807183507</v>
+        <v>0.1365011892852852</v>
       </c>
     </row>
     <row r="6">
@@ -1607,22 +1527,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7969287109850312</v>
+        <v>0.5209565592744654</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02145080210047079</v>
+        <v>0.04047932421839522</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06233824986146332</v>
+        <v>0.08713564112036551</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01598916362681367</v>
+        <v>0.3690209396370213</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9563726433032477</v>
+        <v>0.9152075182323208</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7233421014204409</v>
+        <v>0.6328079329878322</v>
       </c>
     </row>
     <row r="7">
@@ -1632,22 +1552,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5046769687958963</v>
+        <v>-0.5110822420728469</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5887311544794175</v>
+        <v>-0.4517371543165891</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5926653259193585</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.118723285228986</v>
-      </c>
+        <v>-0.4616713166172439</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.0001127677686465154</v>
+        <v>0.001715516876098067</v>
       </c>
       <c r="G7" t="n">
-        <v>5.842004210488157e-06</v>
+        <v>0.0001253556846145869</v>
       </c>
     </row>
     <row r="8">
@@ -1657,22 +1575,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6156028595973688</v>
+        <v>0.5980114650825855</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1311664577620318</v>
+        <v>0.1960335254719981</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05762162112383758</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.006225152186369276</v>
-      </c>
+        <v>0.03759819740163491</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.4561481683812517</v>
+        <v>0.2314956457622247</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6626541827502357</v>
+        <v>0.6803362732723996</v>
       </c>
     </row>
     <row r="9">
@@ -1682,22 +1598,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5857419799042834</v>
+        <v>0.461962366032213</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3008368109758647</v>
+        <v>0.1294876976225053</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1021139412972045</v>
+        <v>-0.1137239704475052</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004127988549242848</v>
+        <v>0.001209682364810867</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05248299559694757</v>
+        <v>0.3135321089183301</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4059188206172887</v>
+        <v>0.1391867779307906</v>
       </c>
     </row>
     <row r="10">
@@ -1707,22 +1623,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.4448811225179447</v>
+        <v>-0.2712702654918785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07414548902900174</v>
+        <v>0.1017760157460947</v>
       </c>
       <c r="D10" t="n">
-        <v>0.121890602384296</v>
+        <v>0.1315488589299176</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0152052628617644</v>
+        <v>0.04548545036969329</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4939376699816103</v>
+        <v>0.3321120129803743</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1254386522601827</v>
+        <v>0.0996074350732211</v>
       </c>
     </row>
     <row r="11">
@@ -1732,22 +1648,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.769385078268345</v>
+        <v>1.472450362487014</v>
       </c>
       <c r="C11" t="n">
-        <v>1.773628037948614</v>
+        <v>1.598140012665935</v>
       </c>
       <c r="D11" t="n">
-        <v>1.527687942405727</v>
+        <v>1.3836465437025</v>
       </c>
       <c r="E11" t="n">
-        <v>1.605981481659912e-15</v>
+        <v>2.249797814700276e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>1.680917832572239e-33</v>
+        <v>2.977059852745858e-15</v>
       </c>
       <c r="G11" t="n">
-        <v>6.714679918601122e-42</v>
+        <v>2.81367130185375e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1757,22 +1673,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9962184046167781</v>
+        <v>0.8530687938796507</v>
       </c>
       <c r="C12" t="n">
-        <v>1.487058954979739</v>
+        <v>1.461605187303208</v>
       </c>
       <c r="D12" t="n">
-        <v>2.225509521012844</v>
+        <v>2.207372047606732</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07623298339335229</v>
+        <v>0.4143508135138059</v>
       </c>
       <c r="F12" t="n">
-        <v>5.369344056025312e-08</v>
+        <v>3.820918817468973e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>4.378431696292184e-31</v>
+        <v>1.732014427405122e-09</v>
       </c>
     </row>
     <row r="13">
@@ -1782,20 +1698,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.196835148248157</v>
+        <v>1.021719707516042</v>
       </c>
       <c r="C13" t="n">
-        <v>1.312771793762886</v>
+        <v>1.172844181285329</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7585091161526161</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>0.6111732819334689</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001327814796002038</v>
+      </c>
       <c r="F13" t="n">
-        <v>7.027436983323973e-30</v>
+        <v>8.411744605914206e-11</v>
       </c>
       <c r="G13" t="n">
-        <v>5.708061115349362e-14</v>
+        <v>0.01648610266493118</v>
       </c>
     </row>
     <row r="14">
@@ -1805,22 +1723,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.97563663409896</v>
+        <v>1.78105018852438</v>
       </c>
       <c r="C14" t="n">
-        <v>0.918624447687924</v>
+        <v>0.8660422825900304</v>
       </c>
       <c r="D14" t="n">
-        <v>1.981901474875098</v>
+        <v>1.872198477111553</v>
       </c>
       <c r="E14" t="n">
-        <v>7.459749272095086e-08</v>
+        <v>0.0003113391528868876</v>
       </c>
       <c r="F14" t="n">
-        <v>1.332032341629308e-07</v>
+        <v>1.784639939049969e-36</v>
       </c>
       <c r="G14" t="n">
-        <v>4.048465848714621e-54</v>
+        <v>3.999522306122082e-15</v>
       </c>
     </row>
     <row r="15">
@@ -1830,22 +1748,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.362017048280742</v>
+        <v>1.253528750443881</v>
       </c>
       <c r="C15" t="n">
-        <v>1.262373142302312</v>
+        <v>0.8071741139880046</v>
       </c>
       <c r="D15" t="n">
-        <v>1.233561125735598</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.05203466398697659</v>
-      </c>
+        <v>0.8450939577336188</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>0.005187982541959</v>
+        <v>0.1149936510002778</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0003123409801047931</v>
+        <v>0.04040831815774729</v>
       </c>
     </row>
     <row r="16">
@@ -1855,22 +1771,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1185431389171574</v>
+        <v>-0.02193772014020849</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6172175830510687</v>
+        <v>0.6648917437262535</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4116351257495419</v>
+        <v>0.456039909730899</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7097238374804098</v>
+        <v>0.9364040616830853</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0002184666048528905</v>
+        <v>3.183209160679051e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003830152032554623</v>
+        <v>0.001128486993991585</v>
       </c>
     </row>
     <row r="17">
@@ -1880,19 +1796,21 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9005269274319805</v>
+        <v>0.6247285301779429</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1516670271982665</v>
+        <v>-0.3054495522539414</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4782987750950333</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>0.9999999999999991</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>-0.6284533008260097</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9999999999999982</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1901,22 +1819,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1790945690343532</v>
+        <v>-0.2862856193521368</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1713307555892542</v>
+        <v>0.2283731244172042</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4894093464491091</v>
+        <v>0.5689185811591931</v>
       </c>
       <c r="E18" t="n">
-        <v>0.412115214053504</v>
+        <v>0.3150728007283555</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3298993312714754</v>
+        <v>0.2109366352065255</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0004610621014432553</v>
+        <v>9.207878168248523e-05</v>
       </c>
     </row>
     <row r="19">
@@ -1926,22 +1844,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.858976631362338</v>
+        <v>0.8275347394595812</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3276762925554241</v>
+        <v>0.3072263054548185</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9090205051389141</v>
+        <v>0.7931632030743495</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01636402059665448</v>
+        <v>0.001933285168514326</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2457573583035934</v>
+        <v>0.2438663407890614</v>
       </c>
       <c r="G19" t="n">
-        <v>2.804534299629188e-06</v>
+        <v>3.92038732425629e-06</v>
       </c>
     </row>
     <row r="20">
@@ -1951,21 +1869,21 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.132808220118494</v>
+        <v>1.199398683738901</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3338988424917207</v>
+        <v>0.4696203479534812</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9701379755704345</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
+        <v>1.073419679058809</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.003631847328708438</v>
+      </c>
       <c r="F20" t="n">
-        <v>0.3300577412463039</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3.579012092883129e-05</v>
-      </c>
+        <v>0.1227942199815132</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1974,20 +1892,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.173942249553274</v>
+        <v>0.8226187167828165</v>
       </c>
       <c r="C21" t="n">
-        <v>0.230139018508032</v>
+        <v>-0.09391683395569922</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4921949600673517</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+        <v>0.2869602570354987</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1007541456257604</v>
+      </c>
       <c r="F21" t="n">
-        <v>0.584651276512705</v>
+        <v>0.8202066136745187</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1018462214719121</v>
+        <v>0.3077687211147977</v>
       </c>
     </row>
     <row r="22">
@@ -1997,22 +1917,20 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.084654406719954</v>
+        <v>-1.403009051482597</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.7113736848328478</v>
+        <v>-0.929197694967168</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.252654010125446</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.0131229831687694</v>
-      </c>
+        <v>-1.51640002220045</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.01765314113719997</v>
+        <v>0.003153418806775235</v>
       </c>
       <c r="G22" t="n">
-        <v>1.085419904593875e-07</v>
+        <v>2.990349643040898e-10</v>
       </c>
     </row>
     <row r="23">
@@ -2022,19 +1940,21 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9005231313147201</v>
+        <v>0.6247269010555716</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1516654724213657</v>
+        <v>-0.3054498185872022</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.4782990798059795</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.9999999999999991</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>-0.6284533170449413</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9999999999999987</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2043,22 +1963,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5069707652672502</v>
+        <v>0.2830134805577286</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001672976229485376</v>
+        <v>-0.04257516609253949</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4241908904503401</v>
+        <v>0.3820647721215699</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006394357727844598</v>
+        <v>0.1479398280224527</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9894201811382303</v>
+        <v>0.7215164754634291</v>
       </c>
       <c r="G24" t="n">
-        <v>4.858562768701719e-06</v>
+        <v>7.869232123955858e-05</v>
       </c>
     </row>
     <row r="25">
@@ -2068,22 +1988,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.210156553543277</v>
+        <v>1.004764429368223</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01364919322204317</v>
+        <v>0.09146321770024975</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4359817390460047</v>
+        <v>0.4881382265225475</v>
       </c>
       <c r="E25" t="n">
-        <v>4.107549521700497e-10</v>
+        <v>1.226055625356907e-07</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9141599542491307</v>
+        <v>0.4646979706563295</v>
       </c>
       <c r="G25" t="n">
-        <v>3.524103790419202e-06</v>
+        <v>6.13779814717761e-07</v>
       </c>
     </row>
     <row r="26">
@@ -2093,22 +2013,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.2265441114779005</v>
+        <v>-0.3362059998048931</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3456904129960237</v>
+        <v>-0.3034961525637495</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1272866978842361</v>
+        <v>0.1170006008712935</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7656955516612769</v>
+        <v>0.8544903381696028</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3646322151605045</v>
+        <v>0.4227857462351419</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6589976355487981</v>
+        <v>0.6945072338907079</v>
       </c>
     </row>
     <row r="27">
@@ -2118,22 +2038,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1371442705544486</v>
+        <v>-0.218535465407428</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2335817990248825</v>
+        <v>0.2185710289773312</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5427290244017127</v>
+        <v>0.4715752375309157</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2994048121126291</v>
+        <v>0.03549354747208149</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01339126683248264</v>
+        <v>0.02120050245638701</v>
       </c>
       <c r="G27" t="n">
-        <v>1.286285319113199e-14</v>
+        <v>3.797409828069891e-12</v>
       </c>
     </row>
     <row r="28">
@@ -2143,22 +2063,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.00316460522085776</v>
+        <v>-0.003591722258803897</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.006981466655050275</v>
+        <v>-0.00810536380061145</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01568477462014106</v>
+        <v>-0.01689773872492477</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6827504766076788</v>
+        <v>0.8307230802840355</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1735110410738714</v>
+        <v>0.05530900000567091</v>
       </c>
       <c r="G28" t="n">
-        <v>2.439223874416407e-06</v>
+        <v>2.936829995040511e-13</v>
       </c>
     </row>
     <row r="29">
@@ -2168,22 +2088,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0002124851504427716</v>
+        <v>-0.000219588341751354</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.001010022606531183</v>
+        <v>-0.001004656616588508</v>
       </c>
       <c r="D29" t="n">
-        <v>-9.490934434979586e-06</v>
+        <v>-6.464168220143319e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>8.380254022912995e-27</v>
+        <v>1.082779872268214e-24</v>
       </c>
       <c r="F29" t="n">
-        <v>1.315995399814873e-187</v>
+        <v>8.65687728182571e-188</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03832371113338891</v>
+        <v>0.03450416153578703</v>
       </c>
     </row>
     <row r="30">
@@ -2193,23 +2113,21 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.882883939545512</v>
+        <v>-1.705513673562771</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.926763126558966</v>
+        <v>-1.894335907394199</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.1462000272861</v>
+        <v>-2.236250569860202</v>
       </c>
       <c r="E30" t="n">
-        <v>1.204523965326959e-23</v>
+        <v>1.842410037935556e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>2.578373785570856e-36</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.525148106896213e-63</v>
-      </c>
+        <v>4.371105298201666e-63</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2218,22 +2136,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1833626069966827</v>
+        <v>0.1280418606105595</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.03420195531237481</v>
+        <v>-0.01319302819595303</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.003352866127109571</v>
+        <v>0.01334788250343555</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003003882426781454</v>
+        <v>0.01933586441719376</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4654611395414483</v>
+        <v>0.7814420811507676</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9241689758055236</v>
+        <v>0.7592554052615061</v>
       </c>
     </row>
     <row r="32">
@@ -2243,22 +2161,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.080089553131803e-06</v>
+        <v>1.118437332635406e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>2.016889636907722e-05</v>
+        <v>2.513319062683049e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>3.428056993183743e-05</v>
+        <v>3.962153402951625e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7078155843021379</v>
+        <v>0.7607780212588229</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2890354241512096</v>
+        <v>0.1746560375331767</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02503022710398674</v>
+        <v>0.004727097823112389</v>
       </c>
     </row>
     <row r="33">
@@ -2268,22 +2186,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.03918137089997208</v>
+        <v>0.02905543730155204</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.006606815501215656</v>
+        <v>0.004692038051402071</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01549392564694282</v>
+        <v>-0.01980799635686754</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4765885591277997</v>
+        <v>0.3051648478226345</v>
       </c>
       <c r="F33" t="n">
-        <v>0.842643662965994</v>
+        <v>0.8575835713774468</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5588653656809686</v>
+        <v>0.1697270771543508</v>
       </c>
     </row>
     <row r="34">
@@ -2293,193 +2211,95 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.07854851082442259</v>
+        <v>-0.06833779867440726</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1284013234494325</v>
+        <v>-0.1183458917058234</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1324175437681874</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.02721020898582712</v>
-      </c>
+        <v>-0.1429783159191781</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>2.288647326992448e-07</v>
+        <v>6.269828288196017e-08</v>
       </c>
       <c r="G34" t="n">
-        <v>6.645037544483664e-14</v>
+        <v>1.00727180191069e-24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-2.041644405698039e-08</v>
+        <v>0.01267830494687433</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.21714994755324e-09</v>
+        <v>0.001437532417215737</v>
       </c>
       <c r="D35" t="n">
-        <v>3.054898001345978e-09</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
+        <v>0.001676185250547091</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.004913127771218949</v>
+      </c>
       <c r="F35" t="n">
-        <v>0.7995067099969664</v>
+        <v>0.6378511787943035</v>
       </c>
       <c r="G35" t="n">
-        <v>0.665081785749319</v>
+        <v>0.456344905282702</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.0241354292016864</v>
+        <v>2.498163545495941</v>
       </c>
       <c r="C36" t="n">
-        <v>0.007811099361832264</v>
+        <v>0.257496731080623</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.001777795958116058</v>
+        <v>-0.3385870175024437</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001074429308842752</v>
+        <v>0.06727603000197414</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1240566647856241</v>
+        <v>0.7742564259861208</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5163412662607992</v>
+        <v>0.6490419698429071</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.01252325357514783</v>
+        <v>-1.241215256972556</v>
       </c>
       <c r="C37" t="n">
-        <v>0.007931108745233813</v>
+        <v>-0.07938655078146194</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000342066468196347</v>
+        <v>0.9299536954695051</v>
       </c>
       <c r="E37" t="n">
-        <v>0.04965392458848971</v>
+        <v>0.2084280747838269</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1445173211044937</v>
+        <v>0.8809374466536712</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9010659966862792</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2.970715928016167</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.2132711016343166</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.723520122774133</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
-        <v>0.8216485530285905</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.2801989882325161</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.77629619785804</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.09643593552523054</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.3881879396525921</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.6633316479098006</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.9009773914953222</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.516928621592895</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-1.080585682370958</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.01821807847522507</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.3560934369086708</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.2294991200947211</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.9795381392161744</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.522811176134137</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>transit_accessibility_res</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.0002351037684680547</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-8.761209673225971e-06</v>
-      </c>
-      <c r="D41" t="n">
-        <v>8.581966060861974e-05</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.3359157938558267</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.9133255215769607</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.184231700966169</v>
+        <v>0.03620333798635803</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2545,22 +2365,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.079328980753124</v>
+        <v>-2.520928308231221</v>
       </c>
       <c r="C2" t="n">
-        <v>2.238727472332739</v>
+        <v>3.326592304526989</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3151435553775468</v>
+        <v>0.1929257795702281</v>
       </c>
       <c r="E2" t="n">
-        <v>0.405798543607274</v>
+        <v>0.003301172146564692</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01906503424984662</v>
+        <v>2.760477860189227e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6161401869560009</v>
+        <v>0.6834234004595737</v>
       </c>
     </row>
     <row r="3">
@@ -2570,22 +2390,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1337742220067833</v>
+        <v>0.1140297293920606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02623247756277464</v>
+        <v>-0.0540566054009437</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1825320124506477</v>
+        <v>-0.2086701471186173</v>
       </c>
       <c r="E3" t="n">
-        <v>0.475825927003421</v>
+        <v>0.6084887595393267</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8320125253632</v>
+        <v>0.6675082292986969</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07712671648798176</v>
+        <v>0.05158576986181697</v>
       </c>
     </row>
     <row r="4">
@@ -2595,22 +2415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0401486956751635</v>
+        <v>-0.1543307137007014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1029148539049535</v>
+        <v>-0.07207038513583487</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.391102031840131</v>
+        <v>-0.5332557311712411</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9018212439064155</v>
+        <v>0.6583884881321661</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6826765901124253</v>
+        <v>0.7715238832912654</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06814461537226923</v>
+        <v>0.0120195549860461</v>
       </c>
     </row>
     <row r="5">
@@ -2620,22 +2440,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06888113818169006</v>
+        <v>-0.02691805747608759</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1612692841158759</v>
+        <v>-0.2515000676276583</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3223447115037765</v>
+        <v>-0.3263944985492173</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8159828884755651</v>
+        <v>0.9315993311484796</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3846939244175075</v>
+        <v>0.18694078433259</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03944687835961609</v>
+        <v>0.04088567411928659</v>
       </c>
     </row>
     <row r="6">
@@ -2645,22 +2465,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5130092096420389</v>
+        <v>0.7965862180018581</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.005497219262109729</v>
+        <v>0.01066003403588381</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1570919239074574</v>
+        <v>0.06588819978938858</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1826742809149657</v>
+        <v>0.02492088417736384</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9890230311180114</v>
+        <v>0.978288533163298</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3844783847099297</v>
+        <v>0.7124578566339945</v>
       </c>
     </row>
     <row r="7">
@@ -2670,22 +2490,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4412560911184564</v>
+        <v>-0.4730641974517622</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5086895828178208</v>
+        <v>-0.5885523607926331</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5154284504086333</v>
+        <v>-0.59178397388367</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04027112913467665</v>
+        <v>0.05734188150533401</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0005587257007702468</v>
+        <v>7.618336924525832e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>3.797255623010491e-05</v>
+        <v>2.503120868735005e-06</v>
       </c>
     </row>
     <row r="8">
@@ -2695,22 +2515,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5568525078491304</v>
+        <v>0.5581357792367364</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08104645871427243</v>
+        <v>0.1693915155131453</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00277768271188648</v>
+        <v>0.04594263157617735</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04194589370710716</v>
+        <v>0.01166469158804339</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6420129759601013</v>
+        <v>0.3267048675110209</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9827809562197216</v>
+        <v>0.7251135211705725</v>
       </c>
     </row>
     <row r="9">
@@ -2720,22 +2540,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3935384225518712</v>
+        <v>0.5363505154397294</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2306689751986764</v>
+        <v>0.3328839877239881</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1499516662727539</v>
+        <v>-0.1094723659316666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05135212727608269</v>
+        <v>0.007037237914500692</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1456235778113305</v>
+        <v>0.03058841218300905</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2322310429525529</v>
+        <v>0.3708563823964236</v>
       </c>
     </row>
     <row r="10">
@@ -2745,22 +2565,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2331712639892151</v>
+        <v>-0.4787712442732003</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1475463229470801</v>
+        <v>0.08553846752194502</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1587288688701172</v>
+        <v>0.1139117697051131</v>
       </c>
       <c r="E10" t="n">
-        <v>0.082704416136843</v>
+        <v>0.00691332371950807</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1687194812948764</v>
+        <v>0.4207299452324444</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05377268331236013</v>
+        <v>0.1562079529988888</v>
       </c>
     </row>
     <row r="11">
@@ -2770,23 +2590,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.306074810883073</v>
+        <v>1.762128904097868</v>
       </c>
       <c r="C11" t="n">
-        <v>1.599683742854246</v>
+        <v>1.773011863705405</v>
       </c>
       <c r="D11" t="n">
-        <v>1.570257198139841</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.871610994938063e-06</v>
-      </c>
+        <v>1.5304516151564</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>4.784637551205664e-20</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.481187574487238e-19</v>
-      </c>
+        <v>2.407490337868575e-41</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2795,22 +2611,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8442214571896932</v>
+        <v>1.046374433289018</v>
       </c>
       <c r="C12" t="n">
-        <v>1.420948489970275</v>
+        <v>1.490900263860429</v>
       </c>
       <c r="D12" t="n">
-        <v>2.387579053689661</v>
+        <v>2.233035497021412</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04035210895037084</v>
+        <v>1.022232498286324e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>1.74075286484421e-07</v>
+        <v>1.863336948890547e-09</v>
       </c>
       <c r="G12" t="n">
-        <v>2.327928646963072e-26</v>
+        <v>1.618059189399452e-64</v>
       </c>
     </row>
     <row r="13">
@@ -2820,22 +2636,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9452121564608382</v>
+        <v>1.224708319333895</v>
       </c>
       <c r="C13" t="n">
-        <v>1.258792535246471</v>
+        <v>1.311109407172851</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9308868727128671</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0035069886376888</v>
-      </c>
+        <v>0.7675955394386215</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>8.610151388144592e-12</v>
+        <v>3.836003998561453e-18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.288611094413272e-06</v>
+        <v>6.520280592173734e-12</v>
       </c>
     </row>
     <row r="14">
@@ -2845,22 +2659,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.687047351044139</v>
+        <v>1.994752124744503</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8285701748395826</v>
+        <v>0.9195590232503629</v>
       </c>
       <c r="D14" t="n">
-        <v>2.061064643786744</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.465494791879953e-09</v>
-      </c>
+        <v>1.989957884511947</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>3.925051093867975e-05</v>
+        <v>4.538239814560184e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>2.695195505557124e-29</v>
+        <v>5.875353781024558e-189</v>
       </c>
     </row>
     <row r="15">
@@ -2870,23 +2682,21 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8475914359055318</v>
+        <v>1.415001044386192</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8561993819520733</v>
+        <v>1.248179996161457</v>
       </c>
       <c r="D15" t="n">
-        <v>0.740746505904304</v>
+        <v>1.244191601842933</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2120005153032907</v>
+        <v>0.008608514230555524</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06776480543977934</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.05724932740701035</v>
-      </c>
+        <v>0.001330895828093797</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2895,22 +2705,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03232919483921949</v>
+        <v>-0.1036611265501646</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6412377732548606</v>
+        <v>0.6124597984122621</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4666070016251698</v>
+        <v>0.4171750868120029</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9031548162774348</v>
+        <v>0.7076716061328152</v>
       </c>
       <c r="F16" t="n">
-        <v>9.686194862992698e-05</v>
+        <v>0.0002117120519772314</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0008899109130606954</v>
+        <v>0.002744800266832598</v>
       </c>
     </row>
     <row r="17">
@@ -2920,21 +2730,23 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8350417700948189</v>
+        <v>0.8307846515505437</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2063064039548462</v>
+        <v>-0.1556951692631216</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4403734887895599</v>
+        <v>-0.4890673316969453</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999961988468</v>
+        <v>0.9999999999999979</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999999938172749</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>0.9999999977460949</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9999999926716554</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2943,22 +2755,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.321472181953748</v>
+        <v>-0.114962643259334</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1065995924827985</v>
+        <v>0.1663000545501314</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5864649255393443</v>
+        <v>0.4938933306605813</v>
       </c>
       <c r="E18" t="n">
-        <v>0.23399200216172</v>
+        <v>0.685697577463745</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5416231055262455</v>
+        <v>0.3616455455625425</v>
       </c>
       <c r="G18" t="n">
-        <v>1.95133875358183e-05</v>
+        <v>0.0006698405417537544</v>
       </c>
     </row>
     <row r="19">
@@ -2968,22 +2780,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.137078646895886</v>
+        <v>0.8073493909576163</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2450257179907452</v>
+        <v>0.331054462439602</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8796839000938057</v>
+        <v>0.9137720644682241</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0004515417124294851</v>
+        <v>0.02107519635382849</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3538126225142789</v>
+        <v>0.227583378224014</v>
       </c>
       <c r="G19" t="n">
-        <v>2.752260781558107e-06</v>
+        <v>1.652968503098062e-06</v>
       </c>
     </row>
     <row r="20">
@@ -2993,22 +2805,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.33062762362529</v>
+        <v>1.071178207505149</v>
       </c>
       <c r="C20" t="n">
-        <v>0.299115762439037</v>
+        <v>0.3365871421554702</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9286830975896757</v>
+        <v>0.9735203195803408</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001747529309102759</v>
+        <v>0.01688977700523193</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3561326400690424</v>
+        <v>0.3118714923436245</v>
       </c>
       <c r="G20" t="n">
-        <v>4.982016441401871e-05</v>
+        <v>2.137087953247259e-05</v>
       </c>
     </row>
     <row r="21">
@@ -3018,22 +2830,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9769642618903277</v>
+        <v>1.216778610044416</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3024175763025023</v>
+        <v>0.2261063628689594</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5326616282364527</v>
+        <v>0.486137069569612</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05274256302576283</v>
+        <v>0.01283127328763008</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4661099073950133</v>
+        <v>0.585075488762445</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07614522806830422</v>
+        <v>0.08468210844263131</v>
       </c>
     </row>
     <row r="22">
@@ -3043,22 +2855,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.316669097782174</v>
+        <v>-1.094636652785151</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6911808576398556</v>
+        <v>-0.709306278830112</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.17867760823767</v>
+        <v>-1.251623919880366</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01210539265823087</v>
+        <v>0.02851895468995069</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02479844154625118</v>
+        <v>0.0192184812559934</v>
       </c>
       <c r="G22" t="n">
-        <v>1.757953130530818e-06</v>
+        <v>7.254583013962159e-08</v>
       </c>
     </row>
     <row r="23">
@@ -3068,21 +2880,23 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8350373164979752</v>
+        <v>0.8307730187875566</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2063080856252704</v>
+        <v>-0.1556945636276698</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.4403736697318794</v>
+        <v>-0.4890675108447977</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999962280243</v>
+        <v>0.9999999999999979</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999999938172245</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>0.9999999977461037</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9999999926716527</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3091,22 +2905,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3285657003926497</v>
+        <v>0.5208327975482271</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003712579255679848</v>
+        <v>0.001089993240956029</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4700079098687783</v>
+        <v>0.4241798046564811</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1217318291198512</v>
+        <v>0.01991948479823085</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9770212816015086</v>
+        <v>0.9932596448719946</v>
       </c>
       <c r="G24" t="n">
-        <v>9.212109973682208e-07</v>
+        <v>9.524175558388933e-06</v>
       </c>
     </row>
     <row r="25">
@@ -3116,22 +2930,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9752947472738449</v>
+        <v>1.204868733628579</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01587870223558953</v>
+        <v>0.008892162272501647</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5133781519230953</v>
+        <v>0.4320299209716159</v>
       </c>
       <c r="E25" t="n">
-        <v>1.947547271005712e-07</v>
+        <v>1.949751551050467e-09</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9002552870136949</v>
+        <v>0.944152404579321</v>
       </c>
       <c r="G25" t="n">
-        <v>6.038390745952245e-08</v>
+        <v>5.307602428370574e-06</v>
       </c>
     </row>
     <row r="26">
@@ -3141,22 +2955,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.04349575960544808</v>
+        <v>-0.2668513440443926</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3215253496813205</v>
+        <v>-0.3532607930513052</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0607803988702515</v>
+        <v>0.127634749116695</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9452106751433161</v>
+        <v>0.7246618797372268</v>
       </c>
       <c r="F26" t="n">
-        <v>0.384319408090621</v>
+        <v>0.3534981804271786</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8340140282077176</v>
+        <v>0.6584132457285335</v>
       </c>
     </row>
     <row r="27">
@@ -3166,22 +2980,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1684864429230434</v>
+        <v>-0.1192308302367982</v>
       </c>
       <c r="C27" t="n">
-        <v>0.202042966813827</v>
+        <v>0.2332317611944174</v>
       </c>
       <c r="D27" t="n">
-        <v>0.484514854668022</v>
+        <v>0.5433775247420606</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2133305420662598</v>
+        <v>0.3785623702614485</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03218286042300962</v>
+        <v>0.01312765926796085</v>
       </c>
       <c r="G27" t="n">
-        <v>6.852606887715167e-12</v>
+        <v>3.604903853663176e-15</v>
       </c>
     </row>
     <row r="28">
@@ -3191,22 +3005,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.001038450581485794</v>
+        <v>-0.003762154670410309</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.007813341444649928</v>
+        <v>-0.006700359647860831</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01659345440823851</v>
+        <v>-0.01566061903883555</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8831598706427037</v>
+        <v>0.5999047456898612</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1372840296878396</v>
+        <v>0.1917267659965729</v>
       </c>
       <c r="G28" t="n">
-        <v>6.227751649137717e-06</v>
+        <v>1.394927108711817e-05</v>
       </c>
     </row>
     <row r="29">
@@ -3216,22 +3030,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0002086076590358427</v>
+        <v>-0.0002117236266719557</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.001012313073278253</v>
+        <v>-0.001008978384736193</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.727614550448297e-06</v>
+        <v>-9.216553416461389e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>2.209780302733117e-28</v>
+        <v>2.86127767095812e-28</v>
       </c>
       <c r="F29" t="n">
-        <v>2.192403534593884e-185</v>
+        <v>3.800329502078265e-189</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4052419205924301</v>
+        <v>0.02912454430644196</v>
       </c>
     </row>
     <row r="30">
@@ -3241,22 +3055,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.666951157208032</v>
+        <v>-1.917296135085569</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.825861528296967</v>
+        <v>-1.925886729665497</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.073629312044803</v>
+        <v>-2.151693090913073</v>
       </c>
       <c r="E30" t="n">
-        <v>4.496604777563684e-18</v>
+        <v>1.462519430683698e-22</v>
       </c>
       <c r="F30" t="n">
-        <v>2.775309496910161e-35</v>
+        <v>5.325436988115923e-37</v>
       </c>
       <c r="G30" t="n">
-        <v>3.148904054534414e-63</v>
+        <v>2.827148101916881e-67</v>
       </c>
     </row>
     <row r="31">
@@ -3266,22 +3080,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1264983969315251</v>
+        <v>0.1941076478123946</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.02369311595039058</v>
+        <v>-0.02984672199667068</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003295957566609505</v>
+        <v>-0.001822898117251167</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03928945780048389</v>
+        <v>0.0005479225622043182</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6083326716305273</v>
+        <v>0.5129849708869494</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9254163211814262</v>
+        <v>0.9559178080412181</v>
       </c>
     </row>
     <row r="32">
@@ -3291,22 +3105,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.037136831897948e-06</v>
+        <v>-5.753450317811316e-06</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.315892228988599e-06</v>
+        <v>2.361876527684146e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>3.313937448193767e-05</v>
+        <v>3.600371218378633e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9441871661709793</v>
+        <v>0.8019498723694178</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9509672459031946</v>
+        <v>0.1107341652297924</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03940019286059963</v>
+        <v>0.002668977263166618</v>
       </c>
     </row>
     <row r="33">
@@ -3316,22 +3130,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02587278298467538</v>
+        <v>0.07990525123207069</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02731322750532918</v>
+        <v>-0.006491425119246437</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01534677816338251</v>
+        <v>0.002558525368011939</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6091160019043559</v>
+        <v>0.05476765052717508</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4096343536388958</v>
+        <v>0.8151520993244963</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5610082452405474</v>
+        <v>0.9057948065313123</v>
       </c>
     </row>
     <row r="34">
@@ -3341,197 +3155,97 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.07984104567794675</v>
+        <v>-0.1026390730062515</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1417617200679215</v>
+        <v>-0.126891235205129</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1427871167087337</v>
+        <v>-0.1504871313602853</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05000269127856588</v>
+        <v>0.002323351515361254</v>
       </c>
       <c r="F34" t="n">
-        <v>3.052395035729161e-07</v>
+        <v>2.272077282735532e-08</v>
       </c>
       <c r="G34" t="n">
-        <v>1.040259134202734e-10</v>
+        <v>1.177872672670735e-16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.564524618761612e-08</v>
+        <v>0.01055647687740078</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.87997256073472e-10</v>
+        <v>0.001304463601005539</v>
       </c>
       <c r="D35" t="n">
-        <v>1.960310559159198e-09</v>
+        <v>0.001756279251960701</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2737497707739636</v>
+        <v>0.02573452316202545</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9609190977080878</v>
+        <v>0.6759140622260644</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7081867757215964</v>
+        <v>0.4930696651412622</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.02020754785730391</v>
+        <v>1.961426987181837</v>
       </c>
       <c r="C36" t="n">
-        <v>0.005210247401849754</v>
+        <v>0.2422059694142908</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.001975346375551577</v>
+        <v>-0.1225454788328549</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0003593827214191408</v>
+        <v>0.07647379496503488</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3434304645928703</v>
+        <v>0.750091295024927</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3519451859660877</v>
+        <v>0.8376285955015014</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.008179196343694349</v>
+        <v>-0.712323103558175</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00842981899149383</v>
+        <v>-0.3080976850960822</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001328693039191698</v>
+        <v>0.9353996863351302</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1956182514731469</v>
+        <v>0.4085455815398503</v>
       </c>
       <c r="F37" t="n">
-        <v>0.142637276331796</v>
+        <v>0.5861529502705114</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6386238917596833</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3.634588682855802</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.1933408917383964</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.7698303254274788</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.01731252244188233</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.846011690415121</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.3579889089908574</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-1.047687757624322</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.4569394167633767</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.4762677324273136</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.4026458871521371</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.491468729448776</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.3606550280565126</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-2.02545080958207</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-0.2562573905910215</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.1677858763074924</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.07869892616646744</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.7261328674750441</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.7713389843942442</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>transit_accessibility_res</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.0002061232850422059</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3.263875356053999e-05</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.0001019498600378993</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.08965520527661305</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.6068790061480512</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.0745243798076901</v>
+        <v>0.04219723764297764</v>
       </c>
     </row>
   </sheetData>
@@ -3545,7 +3259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3597,21 +3311,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.656444963352038</v>
+        <v>-2.264100188588673</v>
       </c>
       <c r="C2" t="n">
-        <v>2.492964851204817</v>
+        <v>3.176983596179499</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4834698362925324</v>
+        <v>-0.03347534398096512</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6183957630105572</v>
+        <v>0.06727923792785902</v>
       </c>
       <c r="F2" t="n">
-        <v>0.151085443113704</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>3.994293372723669e-06</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9543688033987539</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3620,18 +3336,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0425636918332848</v>
+        <v>0.1039270926635764</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.02606527269763882</v>
+        <v>0.03005120198773131</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1915576754053483</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+        <v>-0.182902285470023</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4453230752819174</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8062760773502562</v>
+      </c>
       <c r="G3" t="n">
-        <v>0.1931871149439393</v>
+        <v>0.07887857986794646</v>
       </c>
     </row>
     <row r="4">
@@ -3641,18 +3361,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1795356706341304</v>
+        <v>0.05815003122449573</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.115612400340557</v>
+        <v>0.1115595295410275</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4983234833289497</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+        <v>-0.3787480175036408</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.849493895192124</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6541513632082616</v>
+      </c>
       <c r="G4" t="n">
-        <v>0.1392536761659975</v>
+        <v>0.07313351966367988</v>
       </c>
     </row>
     <row r="5">
@@ -3662,20 +3386,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1905001355656153</v>
+        <v>-0.06479003029154369</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03302171959429249</v>
+        <v>-0.1585976830517546</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2557412178951279</v>
+        <v>-0.3157708993826282</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7099513991034249</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>0.8325038878726486</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3979406956416407</v>
+      </c>
       <c r="G5" t="n">
-        <v>0.1710905749691218</v>
+        <v>0.06626608154694892</v>
       </c>
     </row>
     <row r="6">
@@ -3685,19 +3411,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5183731435612833</v>
+        <v>0.5361268302097396</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01240285462587925</v>
+        <v>-0.00381870088817149</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1165546799294376</v>
+        <v>0.1627688074743201</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7214538678539906</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+        <v>0.07907488883576365</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9924047296196329</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3898446520297848</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3706,22 +3436,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5418010664433289</v>
+        <v>-0.4194394725746204</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5541951514698372</v>
+        <v>-0.5109459532997065</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5622027336844156</v>
+        <v>-0.5146043174169599</v>
       </c>
       <c r="E7" t="n">
-        <v>0.369899758473513</v>
+        <v>0.07137398589015526</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09497525645255475</v>
+        <v>0.0003307763705828977</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0823039115284732</v>
+        <v>1.277905729688439e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3731,17 +3461,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5451771506774159</v>
+        <v>0.521002565182166</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01773211418132541</v>
+        <v>0.09106566899354578</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0868510447444738</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+        <v>-0.009970237295882416</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06325509236575491</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5977770437714494</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9348898115241495</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3750,19 +3486,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3827380302923971</v>
+        <v>0.3633063448478128</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1822726997579736</v>
+        <v>0.245189835913409</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1854636397789882</v>
+        <v>-0.1559622888633217</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4639738620519079</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+        <v>0.03960474569923762</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.06836068035285782</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03441236680336198</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3771,20 +3511,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3146961145591976</v>
+        <v>-0.2529124342927899</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1052640860018495</v>
+        <v>0.1425426445808395</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1328951860516991</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>0.1506166218231699</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1197397537587835</v>
+      </c>
       <c r="F10" t="n">
-        <v>0.1022507641056823</v>
+        <v>0.1677236645129436</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0143476941837141</v>
+        <v>0.0407388911140311</v>
       </c>
     </row>
     <row r="11">
@@ -3794,17 +3536,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.381295775649699</v>
+        <v>1.303009491554394</v>
       </c>
       <c r="C11" t="n">
-        <v>1.620121803901594</v>
+        <v>1.592419109150812</v>
       </c>
       <c r="D11" t="n">
-        <v>1.57974809255587</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+        <v>1.568191385789979</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.02286416888755e-05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.026221069803914e-20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.020551275568063e-19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3813,22 +3561,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7680042125237905</v>
+        <v>0.8674622262823972</v>
       </c>
       <c r="C12" t="n">
-        <v>1.443037392232896</v>
+        <v>1.416784255156243</v>
       </c>
       <c r="D12" t="n">
-        <v>2.418382670727515</v>
+        <v>2.388539390918122</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05504011678106403</v>
+        <v>0.06837011007510586</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004515671756391454</v>
+        <v>2.826069491358391e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>3.978768785205213e-16</v>
+        <v>1.344370039772509e-25</v>
       </c>
     </row>
     <row r="13">
@@ -3838,19 +3586,23 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8282751329966465</v>
+        <v>0.9582831299171508</v>
       </c>
       <c r="C13" t="n">
-        <v>1.199515324715377</v>
+        <v>1.25022810350458</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8253856887667429</v>
+        <v>0.9341519514553048</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008789823350597329</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+        <v>0.01036960079916591</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8.09648496832085e-12</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.862521661630952e-06</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3859,22 +3611,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.702018180426918</v>
+        <v>1.684581241026798</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7600469079114457</v>
+        <v>0.8339692965344317</v>
       </c>
       <c r="D14" t="n">
-        <v>2.098252601140526</v>
+        <v>2.062685379439212</v>
       </c>
       <c r="E14" t="n">
-        <v>6.493314873303852e-26</v>
+        <v>7.271031678832236e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02189846348180892</v>
+        <v>0.0001281784311856513</v>
       </c>
       <c r="G14" t="n">
-        <v>1.463127861092952e-18</v>
+        <v>9.788456534501906e-26</v>
       </c>
     </row>
     <row r="15">
@@ -3884,21 +3636,23 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8627903397554346</v>
+        <v>0.8968960531924381</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6089698701981416</v>
+        <v>0.830474236740494</v>
       </c>
       <c r="D15" t="n">
-        <v>1.206175663165742</v>
+        <v>0.7528750623506412</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5165263470234929</v>
+        <v>0.1949579529052189</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06227348581387355</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>0.07525105261279441</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.052966674031438</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3907,22 +3661,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00222678841503589</v>
+        <v>0.04624487189958618</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6531531659267217</v>
+        <v>0.6402206393679912</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5149208703323588</v>
+        <v>0.4702348676094952</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9956434218554027</v>
+        <v>0.8610740804301008</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03162841815068736</v>
+        <v>9.748350629094747e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0002828464986586491</v>
+        <v>0.0008114701236383974</v>
       </c>
     </row>
     <row r="17">
@@ -3932,17 +3686,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7134229152883119</v>
+        <v>0.7783779407076948</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2783036917149732</v>
+        <v>-0.1912426758334267</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.486838444145613</v>
+        <v>-0.4518206233871794</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.9999999997099611</v>
+        <v>0.9999999962125261</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -3953,20 +3707,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1473265156953807</v>
+        <v>-0.2839798429707724</v>
       </c>
       <c r="C18" t="n">
-        <v>0.243989606693389</v>
+        <v>0.1050654368382856</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6669481235194342</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+        <v>0.5942144797752282</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1885953630866726</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.2064214487762536</v>
+        <v>0.5210757600522576</v>
       </c>
       <c r="G18" t="n">
-        <v>2.898267640558669e-07</v>
+        <v>4.734336559080846e-07</v>
       </c>
     </row>
     <row r="19">
@@ -3976,19 +3732,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8979074413560193</v>
+        <v>1.086660868854717</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3259450515102294</v>
+        <v>0.2633515698344483</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9169125611450413</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
+        <v>0.8742012654081875</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.001142769588385931</v>
+      </c>
       <c r="F19" t="n">
-        <v>0.412629893638077</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>0.3045822850152359</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.448414974473668e-07</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3997,19 +3757,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.371384351879011</v>
+        <v>1.275038898714827</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4558780901180959</v>
+        <v>0.3159031457387848</v>
       </c>
       <c r="D20" t="n">
-        <v>1.04603862791124</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
+        <v>0.9280528545604196</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.002656537508946935</v>
+      </c>
       <c r="F20" t="n">
-        <v>0.003626665647516758</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>0.3197528164448534</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.597553677144503e-06</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4018,20 +3782,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6025757861937492</v>
+        <v>1.020872138045927</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002304632939239716</v>
+        <v>0.3153622246123656</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3618885143785996</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+        <v>0.529429701760291</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.04270867074709373</v>
+      </c>
       <c r="F21" t="n">
-        <v>0.99481825440581</v>
+        <v>0.4473347483052692</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2654060499724282</v>
+        <v>0.07966700922180638</v>
       </c>
     </row>
     <row r="22">
@@ -4041,20 +3807,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.880326075393375</v>
+        <v>-1.296015133167217</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.811743061325459</v>
+        <v>-0.687659620336542</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.156108169285485</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>-1.176972784014924</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01275144542923302</v>
+      </c>
       <c r="F22" t="n">
-        <v>0.004700650579724074</v>
+        <v>0.02451953716834664</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001706017843014659</v>
+        <v>1.468432268976584e-06</v>
       </c>
     </row>
     <row r="23">
@@ -4064,17 +3832,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7134206067664365</v>
+        <v>0.7783698395800411</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2783031867916167</v>
+        <v>-0.1912427084102732</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.486838452245108</v>
+        <v>-0.4518209850753797</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>0.9999999997094758</v>
+        <v>0.9999999962125254</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -4085,21 +3853,23 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2853960746249092</v>
+        <v>0.3436280145398711</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.07200203890531047</v>
+        <v>0.003044476061287929</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3534213866692801</v>
+        <v>0.4731124300923857</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2296211890719905</v>
+        <v>0.08934589596234971</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3811411742008184</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>0.9807736740178173</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.731459589017356e-07</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4108,21 +3878,23 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.02839626909955</v>
+        <v>0.9762948869494752</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07528389591169471</v>
+        <v>0.01580975902103984</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4596773573694</v>
+        <v>0.5112062933274034</v>
       </c>
       <c r="E25" t="n">
-        <v>1.540001183110262e-07</v>
+        <v>7.335261637382162e-08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6672700662316143</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+        <v>0.898482289661452</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.667583944461238e-08</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4131,22 +3903,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.004713280658928021</v>
+        <v>-0.06655382769868344</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3884998153230502</v>
+        <v>-0.3291338968708616</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.07530853802633571</v>
+        <v>0.05947099485258601</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9592309279386063</v>
+        <v>0.9166971150541403</v>
       </c>
       <c r="F26" t="n">
-        <v>0.358346706690149</v>
+        <v>0.3703933172996372</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7882201971651444</v>
+        <v>0.8379037302405608</v>
       </c>
     </row>
     <row r="27">
@@ -4156,19 +3928,23 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1424799217362039</v>
+        <v>-0.1608318072398966</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2299429891162199</v>
+        <v>0.202596615508257</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4669215195128257</v>
+        <v>0.4823679342485226</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7588539835616286</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>0.2328822739532661</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.03159699203082982</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.587407593181677e-12</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4177,17 +3953,23 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.004076595704084503</v>
+        <v>0.0006932443894491265</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.008186385427966543</v>
+        <v>-0.00737105588726107</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01640068643632138</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+        <v>-0.01669186213008535</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9049408395338289</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1028240452892769</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.584555957270262e-10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4196,22 +3978,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0002085135326123593</v>
+        <v>-0.0002078209393583528</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.001012824737450813</v>
+        <v>-0.0010127587561354</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.384131670483657e-06</v>
+        <v>-3.485291946213945e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2.096736038486674e-30</v>
       </c>
       <c r="F29" t="n">
-        <v>9.855454398615495e-146</v>
+        <v>8.722763431483949e-185</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4847377956740005</v>
+        <v>0.4077930563549215</v>
       </c>
     </row>
     <row r="30">
@@ -4221,19 +4003,23 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.879204154624029</v>
+        <v>-1.698786952093622</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.906062910648285</v>
+        <v>-1.81875051710521</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.211135075571446</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
+        <v>-2.07896915248537</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.131556619171802e-15</v>
+      </c>
       <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+        <v>5.198107420926916e-30</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9.08019138981994e-49</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4242,22 +4028,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.09666918710248361</v>
+        <v>0.1312327787772128</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.05095336230554379</v>
+        <v>-0.0208952445211304</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.004763809190760629</v>
+        <v>0.004465470262482695</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1593789090419666</v>
+        <v>0.02993014368898946</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3493272655285588</v>
+        <v>0.6470693265884389</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8216058540305162</v>
+        <v>0.8997617144571534</v>
       </c>
     </row>
     <row r="32">
@@ -4267,22 +4053,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.474110094637168e-05</v>
+        <v>-1.20143201109511e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>1.389768546939656e-05</v>
+        <v>1.657348097013906e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>3.639144745756685e-05</v>
+        <v>3.552005623483822e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7669230669641445</v>
+        <v>0.5748277502710186</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3437982778720114</v>
+        <v>0.247826900566544</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00101885645634538</v>
+        <v>0.001166548522696074</v>
       </c>
     </row>
     <row r="33">
@@ -4292,18 +4078,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-8.438755236661084e-05</v>
+        <v>0.0707282095350308</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006232841715839999</v>
+        <v>0.01967608650817184</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02989583376876361</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+        <v>0.006048833630423679</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.03539454374916792</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4496154961774657</v>
+      </c>
       <c r="G33" t="n">
-        <v>0.04999630055812346</v>
+        <v>0.6413629740058095</v>
       </c>
     </row>
     <row r="34">
@@ -4313,175 +4103,97 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.05718542452210737</v>
+        <v>-0.1098640407625333</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1374886287625566</v>
+        <v>-0.1384583223842627</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1392210443093119</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+        <v>-0.1627641430874294</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001055057812677577</v>
+      </c>
       <c r="F34" t="n">
-        <v>5.184383208350489e-05</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+        <v>1.350092430698338e-09</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.045722249696125e-16</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.730310514798214e-08</v>
+        <v>0.01211959272193468</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.709278629598204e-09</v>
+        <v>0.002574334504782089</v>
       </c>
       <c r="D35" t="n">
-        <v>3.132433187576631e-09</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+        <v>0.003144320915855495</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.003532827209325232</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.3598117603502585</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03959173793931232</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.02203496757467338</v>
+        <v>2.81952885419016</v>
       </c>
       <c r="C36" t="n">
-        <v>0.007310193433271149</v>
+        <v>0.7157703076680778</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.001972439036647559</v>
+        <v>-0.203585766994968</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3455783649310212</v>
+        <v>0.02067137491996477</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4397438937173409</v>
+        <v>0.357167514781871</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8064798315525452</v>
+        <v>0.7648870093603096</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.009588611064998831</v>
+        <v>-1.612833275173636</v>
       </c>
       <c r="C37" t="n">
-        <v>0.008037639068967907</v>
+        <v>-0.2978999060689873</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001525243076477511</v>
+        <v>0.792437164545968</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6062221199246466</v>
+        <v>0.05621432739223304</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4829114221423739</v>
+        <v>0.6034789139636224</v>
       </c>
       <c r="G37" t="n">
-        <v>0.817539624516566</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3.493131740698554</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.005650557068941449</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.6882747983893129</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.6491725259012776</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.6633734891061891</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.1139066335798171</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.3524300587967055</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.9499957722304651</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="n">
-        <v>0.7855117800475087</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-1.928059682703735</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-0.007680706554008182</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.1269341113951938</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>0.7724042485423182</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>transit_accessibility_res</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.0001738216550189314</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-1.276662520150288e-05</v>
-      </c>
-      <c r="D41" t="n">
-        <v>7.822397877202916e-05</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>0.9123480819582623</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.440345118389966</v>
+        <v>0.07353055805373275</v>
       </c>
     </row>
   </sheetData>
@@ -4495,7 +4207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4547,22 +4259,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.424172841815742</v>
+        <v>-2.452894742433999</v>
       </c>
       <c r="C2" t="n">
-        <v>1.860817977970307</v>
+        <v>2.720804571573349</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6186890402603809</v>
+        <v>0.1076941304877837</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3058812931600128</v>
+        <v>0.01061919946257044</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02303882908554658</v>
+        <v>3.663211454707524e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3098898273113497</v>
+        <v>0.7977965688729467</v>
       </c>
     </row>
     <row r="3">
@@ -4572,22 +4284,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.03750343568187565</v>
+        <v>0.130783818946105</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.04220295988356578</v>
+        <v>0.05626481057927552</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2544714818527998</v>
+        <v>-0.2124979315254399</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7815452822649129</v>
+        <v>0.6121765438658817</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7335690323112005</v>
+        <v>0.6481955541558879</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01362894115891605</v>
+        <v>0.03304542501762887</v>
       </c>
     </row>
     <row r="4">
@@ -4597,22 +4309,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03360028790464218</v>
+        <v>-0.05530538019807188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1004086009619455</v>
+        <v>0.08390986773882421</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.394251596224468</v>
+        <v>-0.5417212078474161</v>
       </c>
       <c r="E4" t="n">
-        <v>0.920640278001303</v>
+        <v>0.8637285442440138</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6972555323160894</v>
+        <v>0.7320339629815575</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07267859583779086</v>
+        <v>0.009122572264050367</v>
       </c>
     </row>
     <row r="5">
@@ -4622,20 +4334,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2107489241500099</v>
+        <v>0.05237143458146829</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1109161436744136</v>
+        <v>0.03224958994313846</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3032828011387732</v>
+        <v>-0.2111471463981985</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.5388038377403197</v>
+        <v>0.8600555654504535</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03630929998092743</v>
+        <v>0.1435892154714145</v>
       </c>
     </row>
     <row r="6">
@@ -4645,22 +4357,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5176167974432819</v>
+        <v>0.8266353203977055</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2122753090532553</v>
+        <v>0.3089384860827957</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1729871471725211</v>
+        <v>0.111317537494281</v>
       </c>
       <c r="E6" t="n">
-        <v>0.153778148736799</v>
+        <v>0.008402565086235726</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5634995334193592</v>
+        <v>0.4279441216677071</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3380120528333934</v>
+        <v>0.5324964818156752</v>
       </c>
     </row>
     <row r="7">
@@ -4670,22 +4382,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.508741977840149</v>
+        <v>-0.4173838643632264</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.470381140068145</v>
+        <v>-0.4789641034010264</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5889965336706871</v>
+        <v>-0.4894278211570088</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02137814694281877</v>
+        <v>0.2671502337448912</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002135807779218118</v>
+        <v>8.040228343545461e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>1.030543704218965e-07</v>
+        <v>7.907814503657468e-11</v>
       </c>
     </row>
     <row r="8">
@@ -4695,22 +4407,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5697660054073852</v>
+        <v>0.4882982756491173</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2023425617432139</v>
+        <v>0.1104393700898776</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1051721671101537</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.01693950503169718</v>
-      </c>
+        <v>-0.02976381264699107</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.2567227102491415</v>
+        <v>0.5201608293784857</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4348119997436877</v>
+        <v>0.8208494463832707</v>
       </c>
     </row>
     <row r="9">
@@ -4720,22 +4430,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4320335256186095</v>
+        <v>0.4000824118863132</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1987963332148502</v>
+        <v>0.1892168652521627</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08095429013481817</v>
+        <v>-0.1705424086413713</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02693956251264566</v>
+        <v>0.1095627677566657</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1816958591291458</v>
+        <v>0.2088024127593956</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4994943815298231</v>
+        <v>0.1585101717701535</v>
       </c>
     </row>
     <row r="10">
@@ -4745,22 +4455,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2938551764112868</v>
+        <v>-0.3655207559214572</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06548618662714621</v>
+        <v>0.1890003595724185</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1011713016569805</v>
+        <v>0.1097948381669196</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07088380037682029</v>
+        <v>0.06363633771663207</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5425350229268784</v>
+        <v>0.07682696566591338</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2083641379912707</v>
+        <v>0.1521303206702641</v>
       </c>
     </row>
     <row r="11">
@@ -4770,22 +4480,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.422963090997307</v>
+        <v>1.251937380653102</v>
       </c>
       <c r="C11" t="n">
-        <v>1.651588690226483</v>
+        <v>1.670732847086736</v>
       </c>
       <c r="D11" t="n">
-        <v>1.433236137547608</v>
+        <v>1.498577351947397</v>
       </c>
       <c r="E11" t="n">
-        <v>5.93436541829599e-05</v>
+        <v>3.996909689243722e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>8.739924782771752e-22</v>
+        <v>2.060408337107658e-19</v>
       </c>
       <c r="G11" t="n">
-        <v>1.552049080576506e-14</v>
+        <v>5.50603653363414e-14</v>
       </c>
     </row>
     <row r="12">
@@ -4795,22 +4505,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.015930134402102</v>
+        <v>0.8471219387389071</v>
       </c>
       <c r="C12" t="n">
-        <v>1.500704136456865</v>
+        <v>1.439437897339499</v>
       </c>
       <c r="D12" t="n">
-        <v>2.237269271863125</v>
+        <v>2.299367662658502</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01525682797041535</v>
+        <v>7.26843761893922e-08</v>
       </c>
       <c r="F12" t="n">
-        <v>1.547347056594107e-08</v>
+        <v>2.481896692540357e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>3.810482079069627e-26</v>
+        <v>5.062231962905398e-61</v>
       </c>
     </row>
     <row r="13">
@@ -4820,22 +4530,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.968301007927352</v>
+        <v>0.7700302838088819</v>
       </c>
       <c r="C13" t="n">
-        <v>1.195447894058387</v>
+        <v>1.234855354591951</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7783962434345318</v>
+        <v>0.8331852585936731</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008887535760095181</v>
+        <v>0.02167309303742553</v>
       </c>
       <c r="F13" t="n">
-        <v>5.78778424973312e-11</v>
+        <v>2.802336496150615e-10</v>
       </c>
       <c r="G13" t="n">
-        <v>2.149393589222464e-05</v>
+        <v>2.923943075186593e-05</v>
       </c>
     </row>
     <row r="14">
@@ -4845,22 +4555,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.696914701512882</v>
+        <v>1.59475818458993</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8259728519799754</v>
+        <v>0.8907087948944371</v>
       </c>
       <c r="D14" t="n">
-        <v>1.949475080461679</v>
+        <v>2.083822608863847</v>
       </c>
       <c r="E14" t="n">
-        <v>3.574671668005277e-09</v>
+        <v>2.069851930952494e-28</v>
       </c>
       <c r="F14" t="n">
-        <v>1.617237093880713e-05</v>
+        <v>2.206683818910164e-06</v>
       </c>
       <c r="G14" t="n">
-        <v>4.047168451153198e-28</v>
+        <v>1.973721675877127e-70</v>
       </c>
     </row>
     <row r="15">
@@ -4870,22 +4580,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9676276284845695</v>
+        <v>0.9393239628348383</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9976266178186866</v>
+        <v>1.075374264217606</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9130143861928431</v>
+        <v>1.298412233496392</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1879685888804384</v>
+        <v>0.02933836264188532</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03034942419746258</v>
+        <v>0.02593846723095591</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01256071771137894</v>
+        <v>0.0008341588060705587</v>
       </c>
     </row>
     <row r="16">
@@ -4895,22 +4605,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05117272344192807</v>
+        <v>0.09384452769192556</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5569842144109522</v>
+        <v>0.6304366874385451</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4923886917789705</v>
+        <v>0.4936282060786797</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8507258308002523</v>
+        <v>0.6694356427481969</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0007193465261071736</v>
+        <v>0.0001070839711887642</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000425762577675964</v>
+        <v>0.0002598546203204037</v>
       </c>
     </row>
     <row r="17">
@@ -4920,15 +4630,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2282784023635106</v>
+        <v>0.7682085382511732</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.08660961710645672</v>
+        <v>-0.448644977676772</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2768755002132357</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
+        <v>-0.7639252314135011</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9999999999999969</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -4939,22 +4651,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2160054268877686</v>
+        <v>-0.3239771400765564</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1470474437251795</v>
+        <v>0.342134839558432</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5269925297890693</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.4247287782764666</v>
-      </c>
+        <v>0.5778023405102134</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.3889163037183899</v>
+        <v>0.07279531739800935</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001392198165754469</v>
+        <v>0.0003310990463651678</v>
       </c>
     </row>
     <row r="19">
@@ -4964,22 +4674,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.115819879382516</v>
+        <v>1.045769885107278</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4010173427245027</v>
+        <v>0.2161535106145358</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9554786272737348</v>
+        <v>0.8749794758919277</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0008180617275311572</v>
+        <v>0.1624478880571382</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1078175514403083</v>
+        <v>0.4127773125399222</v>
       </c>
       <c r="G19" t="n">
-        <v>1.020114661532236e-07</v>
+        <v>5.303049841576469e-06</v>
       </c>
     </row>
     <row r="20">
@@ -4989,23 +4699,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.469850405620097</v>
+        <v>1.387075896901073</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3648277875044995</v>
+        <v>0.4306553916007483</v>
       </c>
       <c r="D20" t="n">
-        <v>1.133873647335192</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.000823578532487387</v>
-      </c>
+        <v>1.067994744883898</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.2766191242220757</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.26739264258833e-07</v>
-      </c>
+        <v>0.07891842412947442</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5014,22 +4720,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7141114273033518</v>
+        <v>0.6336299346315575</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2506168993509926</v>
+        <v>-0.01396154511689895</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4851916544466314</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.1629477455110471</v>
-      </c>
+        <v>0.3742749453661647</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.5554776044390746</v>
+        <v>0.9733059568693258</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1161812196302208</v>
+        <v>0.1965753838694719</v>
       </c>
     </row>
     <row r="22">
@@ -5039,22 +4743,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2.143629259799346</v>
+        <v>-1.356955352224232</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6612588386208275</v>
+        <v>-0.6381193602384959</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.363912689536968</v>
+        <v>-1.175620238000197</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00111839815142964</v>
+        <v>0.3139742514111944</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03977636403769226</v>
+        <v>0.04137634492250792</v>
       </c>
       <c r="G22" t="n">
-        <v>5.769882081735018e-08</v>
+        <v>1.174893662620268e-06</v>
       </c>
     </row>
     <row r="23">
@@ -5064,15 +4768,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.228281801620358</v>
+        <v>0.7682145517800241</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.08661090464315956</v>
+        <v>-0.4486440398994632</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2768746280332235</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+        <v>-0.7639254667968942</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9999999999999969</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -5083,22 +4789,20 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2058405626827824</v>
+        <v>0.3216713923272846</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.08161134050844202</v>
+        <v>0.03791204194268739</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3653701214920885</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.336102561442831</v>
-      </c>
+        <v>0.4192330110786318</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.5242389513764061</v>
+        <v>0.7684747424900009</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00016398329557446</v>
+        <v>2.53373093676368e-05</v>
       </c>
     </row>
     <row r="25">
@@ -5108,22 +4812,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9253534467429347</v>
+        <v>1.043336508046184</v>
       </c>
       <c r="C25" t="n">
-        <v>0.005833501506215734</v>
+        <v>0.1186914101506652</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4381329331433311</v>
+        <v>0.4724572903754595</v>
       </c>
       <c r="E25" t="n">
-        <v>1.885713263569895e-05</v>
+        <v>4.206092888726979e-64</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9627365633433772</v>
+        <v>0.3489310899545101</v>
       </c>
       <c r="G25" t="n">
-        <v>3.971907388832769e-06</v>
+        <v>1.63838222807558e-06</v>
       </c>
     </row>
     <row r="26">
@@ -5133,22 +4837,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1446358964478466</v>
+        <v>0.08274644655475587</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.4536225740749238</v>
+        <v>-0.2761607131508871</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.04013372002999893</v>
+        <v>0.005593015865875173</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8095284363636893</v>
+        <v>0.8817859797252041</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2202983840648369</v>
+        <v>0.4790627709504133</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8891041254448308</v>
+        <v>0.9847513220374705</v>
       </c>
     </row>
     <row r="27">
@@ -5158,22 +4862,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1304482685341068</v>
+        <v>-0.2218084430390584</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2684925698934775</v>
+        <v>0.2594227457830882</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5367504650828983</v>
+        <v>0.4648775088465068</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3438687936214192</v>
+        <v>0.1049084368533775</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00455974063611229</v>
+        <v>0.005782105942381759</v>
       </c>
       <c r="G27" t="n">
-        <v>4.323470556893007e-14</v>
+        <v>1.802572837459958e-11</v>
       </c>
     </row>
     <row r="28">
@@ -5183,22 +4887,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0005767715348856188</v>
+        <v>-0.0006603351877230863</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.005011457829113184</v>
+        <v>-0.00954826661036506</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01415357569385201</v>
+        <v>-0.01625156598815368</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9403063980669685</v>
+        <v>0.9750899470284261</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2804154841843062</v>
+        <v>0.0232320011697159</v>
       </c>
       <c r="G28" t="n">
-        <v>1.434054603776871e-05</v>
+        <v>5.074060680451783e-26</v>
       </c>
     </row>
     <row r="29">
@@ -5208,22 +4912,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0002056028813897161</v>
+        <v>-0.0002068789127239226</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.001009329242678445</v>
+        <v>-0.001004556575575122</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.536360162289757e-06</v>
+        <v>-6.387496423699994e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>1.320085693143967e-27</v>
+        <v>8.372409225265722e-26</v>
       </c>
       <c r="F29" t="n">
-        <v>2.984560395145998e-189</v>
+        <v>9.859486556371296e-190</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2929164770194066</v>
+        <v>0.1369621570031216</v>
       </c>
     </row>
     <row r="30">
@@ -5233,22 +4937,20 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.727956895808343</v>
+        <v>-1.809598987282684</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.865573418581691</v>
+        <v>-1.794866459098036</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.197923148864315</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2.738157374389765e-17</v>
-      </c>
+        <v>-2.164884813945391</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>9.50373388852491e-34</v>
+        <v>8.766354315279693e-36</v>
       </c>
       <c r="G30" t="n">
-        <v>1.804434113726204e-64</v>
+        <v>1.898565978459292e-73</v>
       </c>
     </row>
     <row r="31">
@@ -5258,22 +4960,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1099816782341354</v>
+        <v>0.1089575980211489</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.03971972585999847</v>
+        <v>-0.02269062861719792</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.01187434656794331</v>
+        <v>-0.01559060923932998</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0826056413039124</v>
+        <v>0.2572504534288668</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3911075959308618</v>
+        <v>0.6209564908264837</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7411735314450472</v>
+        <v>0.664854085052726</v>
       </c>
     </row>
     <row r="32">
@@ -5283,20 +4985,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.634375224976116e-05</v>
+        <v>1.508448476139308e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>1.354072747562405e-05</v>
+        <v>3.413718493535451e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>5.261315555192349e-05</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
+        <v>4.289617745916052e-05</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6780558996775795</v>
+      </c>
       <c r="F32" t="n">
-        <v>0.4518782925069451</v>
+        <v>0.02592639011645614</v>
       </c>
       <c r="G32" t="n">
-        <v>3.194107988378953e-06</v>
+        <v>7.985645466401846e-05</v>
       </c>
     </row>
     <row r="33">
@@ -5306,22 +5010,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.002588589713340945</v>
+        <v>0.04315305973297474</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02261731529794434</v>
+        <v>0.01640814066262831</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0361824125576039</v>
+        <v>-0.008857051961578016</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9541139948015391</v>
+        <v>0.1271288970029119</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3773957010676992</v>
+        <v>0.5344756567029261</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02372962360498383</v>
+        <v>0.6497087532974168</v>
       </c>
     </row>
     <row r="34">
@@ -5331,191 +5035,93 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.06621118883556555</v>
+        <v>-0.08583269238847928</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1413627814679462</v>
+        <v>-0.1239335661049352</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1280029927937107</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+        <v>-0.1512167624294699</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1987881752019783</v>
+      </c>
       <c r="F34" t="n">
-        <v>3.113601440086064e-12</v>
+        <v>2.390332117503155e-07</v>
       </c>
       <c r="G34" t="n">
-        <v>6.124328550782896e-25</v>
+        <v>1.259836706233463e-13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.568647513755857e-08</v>
+        <v>0.01494638979535717</v>
       </c>
       <c r="C35" t="n">
-        <v>1.681187480420081e-09</v>
+        <v>0.003843910800266553</v>
       </c>
       <c r="D35" t="n">
-        <v>5.051562244354099e-09</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5454035024345942</v>
-      </c>
+        <v>0.003925352987991812</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>0.8688085302777548</v>
+        <v>0.2077651707415034</v>
       </c>
       <c r="G35" t="n">
-        <v>0.565519881851583</v>
+        <v>0.09485453355340169</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.02086749564301594</v>
+        <v>2.559489928321689</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006993003516835398</v>
+        <v>0.2499543032838731</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.002444880134816456</v>
+        <v>-0.2242682838958195</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001659388107519692</v>
+        <v>0.2023783541085691</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06781900731463479</v>
+        <v>0.7318623513741049</v>
       </c>
       <c r="G36" t="n">
-        <v>0.449607574049152</v>
+        <v>0.644582434525571</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.01008649079416668</v>
+        <v>-1.469075806032647</v>
       </c>
       <c r="C37" t="n">
-        <v>0.009829223377366591</v>
+        <v>-0.408871856920961</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0003560895883685592</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.2178727944990829</v>
-      </c>
+        <v>0.4489489325152345</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0.04060797402790921</v>
+        <v>0.4981348003737807</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9238845974110363</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3.029737247978138</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.2844895755477354</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.8957158613711959</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.2423116482536666</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.8141131763700324</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.3728079395078909</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-1.016779171557323</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.3434070961947847</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.6171535388161185</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
-        <v>0.5728413072369065</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-1.983202406915736</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-0.05771140916411095</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.4431221157383409</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.06646178609805793</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.9276446886784704</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.4951109711570164</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>transit_accessibility_res</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.0002035023784494264</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-1.567925441322707e-05</v>
-      </c>
-      <c r="D41" t="n">
-        <v>5.560926412290301e-05</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.03183559426693482</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.8080409367517155</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.2186860030614574</v>
+        <v>0.4071451600487158</v>
       </c>
     </row>
   </sheetData>
@@ -5529,7 +5135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5581,17 +5187,1879 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.356685609402073</v>
+        <v>-1.830048514722243</v>
       </c>
       <c r="C2" t="n">
-        <v>2.221726762263332</v>
+        <v>3.544051567773329</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8646479832747833</v>
+        <v>0.1841629688276959</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01433581864478601</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.736039084229732e-09</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7247051234234583</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Daytime Off-Peak]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01854347206328524</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.02130913847048523</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1895369084292791</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.940756729826974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8636656048046327</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.07084613008518799</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Evening]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.1630449615682418</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.1042555425200236</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.4849947934676949</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7501216552046153</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6453024595321288</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02175395554871189</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Lunch]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1847855576469509</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.03369258792847923</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.2484971555547306</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6337999133485546</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8529345974078923</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.08497561221437389</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Nighttime Off-Peak]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5307105032649352</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02070563585200188</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1194797393782275</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1117409021342179</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9564520227411403</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4853726302711292</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.PM Rush]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.5143409719300064</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.5571656592570785</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.560925658367186</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.003241372298349525</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0001761001045099092</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.826909350028832e-06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Season[T.Spring]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4981096668105541</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05332389446276926</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07163758697251278</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.064693323071392e-65</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7649000078780492</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5794670723232915</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Season[T.Summer]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3479529599083295</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2125150802187122</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.1971508785260083</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.003363401686973e-29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1191977955931533</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0295696267816156</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Season[T.Winter]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3391956781662805</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1174438834358202</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1219723069347341</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.00303402976225893</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2772923699218862</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1603283757181267</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.380514683680752</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.615505650752972</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.575288449590759</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.840904689070814e-06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.30397104129308e-20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.348935809523581e-26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔School]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7989098809545299</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.444116231399505</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.41704035009265</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.06501520943796976</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.19855458099113e-07</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9.454084138751136e-27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8524871827236514</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.195324443752637</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8240039266411101</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01331402402224565</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.859005213710046e-11</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.923434809164672e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Work]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.700313702465058</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7632199402686505</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.096778192907866</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.771140812207464e-10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.705105078439624e-05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.014052763716619e-80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Other]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9244304111694098</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5799351914330843</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.202515256543021</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1035397706286711</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2134510151089434</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0003094850593089733</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Occupation[T.Other]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.02232195830167541</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6454290296216456</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5185937365835802</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.955864471084457</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0001314203073025544</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8.618824981748789e-05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Occupation[T.Pre-School]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6718698019284212</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.2714444534780141</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.4934270965926881</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Occupation[T.Retired]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.1203516362927574</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2413480596139982</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6672821600857055</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6616879300920402</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1786954110031104</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.083639525993526e-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Occupation[T.Student_3rdLevel]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8551990692976248</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3286192522864944</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9194219729440628</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.04672805336903554</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1789716637875468</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.440825754640361e-06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Occupation[T.Student_School]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.336944105576875</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4634993063819671</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.048623161959449</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.002625711372094816</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1614579303162702</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8.910200373876829e-06</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Education[T.Elementary]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6217887190454989</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.001684384998797488</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3605635190154373</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2581176531861519</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9968697680365068</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2405845000902106</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Education[T.No diploma yet]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.888804442438471</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.8161038607853852</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.155913194990414</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.003128002484748977</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.008026951062803883</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.243919425447258e-06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Education[T.Pre-School]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6718702665918482</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.2714422222717299</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.4934268961680705</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Education[T.Secondary]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2945573208614777</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.07691407833727577</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3542007902948838</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1621773703281265</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5508110432210358</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0001887645765145163</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.029699986502148</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.07121565305303308</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4553793598296872</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.455840679322169e-07</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5708475415266625</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.911138393695733e-07</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Education[T.Unknown]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.03392199742232854</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.4040977877670084</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.07492901744145497</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9572386560048504</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3145088338675486</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.7997624327465606</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1364344969166817</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.232186910737763</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.4653743904802335</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.3678228539422</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.01432056489451826</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.990794394167468e-11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.004263199318956059</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.007929782252400982</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.01633820851153798</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5617745064872441</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1335367557709542</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8.891411738512619e-06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0002075218357478339</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.001011908131897131</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.155604581585451e-06</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.757862119610218e-27</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.388390438635401e-188</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3689844707441425</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CarOwnershipHH</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.904976062292785</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.903506144303013</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-2.213902607388879</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.19327811446773e-23</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.244304445032805e-35</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.008698608700983e-65</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1020452768520445</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.04624118295397999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.003816969460191931</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0.2875927826564089</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9183346961358549</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2.783191223639913e-06</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.071653669875702e-05</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.774443569292363e-05</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>0.1464412497830649</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0005316978774319448</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DistSubcenter_res</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.03267036443922689</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0008165682136512721</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.01333926908759541</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6059431640116184</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.975664681068278</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.4809740756393766</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.0745866716508139</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.1323783572504302</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.1557774183635821</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01615060421319728</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.319911907260742e-08</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.16024860801667e-21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0113487708203127</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.001629173324735534</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.003056428020463631</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0.5886121601355174</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1553764936435384</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.366488363036905</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.03169573195767263</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.1304881471637072</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2064207503272384</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9676491128278184</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.497636093614732</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.652093391884647</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.3737846180716849</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.445457490900892</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.07179870779677783</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5123725787678189</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3394655771736863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>bike</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>walk</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bike_p</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>walk_p</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>transit_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.020735556742261</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.015827711993098</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1427311743463602</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7360154106330525</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0.3755869240260005</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Daytime Off-Peak]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.06554843679604387</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.03632139123457228</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.2545557254078429</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8545266793022781</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7486496856124831</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.004896714510307106</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Evening]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.006242089593953947</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1067662117808189</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3853220518663097</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.6841851889142754</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.003030341390436195</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Lunch]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2068097054674737</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1077808534030336</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.2971276632874574</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8743094477427511</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.54735225418013</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.02890270905694201</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Nighttime Off-Peak]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5426235484837624</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2216222170490395</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1776152594866839</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6137928399534709</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5360871599595085</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3135408214664865</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.PM Rush]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.4859327609924258</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.4757462591456258</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.5876722410347124</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.001371088034175629</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.076469316494315e-08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Season[T.Spring]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5272085159140683</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2247664176309975</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09313110825141376</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.04613191282028643</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2882485635566492</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Season[T.Summer]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3967824396106516</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2203595989129144</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.09151497603972751</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6014180980989643</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1696534668863735</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4878630333563718</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Season[T.Winter]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.310569685186309</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06835515979271219</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1005683735118607</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1563846289999716</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5176621566523267</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1909291952933929</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.414112717667669</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.649947014780221</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.435082318212437</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>5.14004077117058e-12</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.842543718235138e-08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔School]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.041337927559794</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.500883433124439</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.237486752908948</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2347163248837517</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.000453426323285093</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.45644876823358e-09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9776152972977172</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.191900877499868</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7827991708287116</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.03725396013873607</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.291107877716798e-10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001283384945247205</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Work]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.695692460985475</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.834708510401476</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.948371478242924</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01222125137576122</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0005137940751235187</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.215797556398773e-16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Other]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.001722177710662</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9685931052187584</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9209396922569337</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.443278932136517</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.06648916607805118</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03838030835635961</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Occupation[T.Other]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.03483028958677055</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.549623876568064</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4946595502542372</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.910791798650145</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0009831618408330362</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0004066708793809284</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Occupation[T.Pre-School]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2216568983384631</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.07351787085594806</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.2869323067093561</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Occupation[T.Retired]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.1735879900779448</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1362906717107131</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5212220650329547</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6882610955646324</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4693313019310921</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0001544293356352866</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Occupation[T.Student_3rdLevel]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.079915984871154</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4126518214667267</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9534923694937465</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1557750419379506</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1448564922899505</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.550377493399235e-06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Occupation[T.Student_School]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.416675331674703</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3813696598658714</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.129001278715203</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0.3652521039911775</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.132488414473293e-06</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Education[T.Elementary]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7427852462996251</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2559272947810355</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.4776873090946493</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6234469779260507</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5577019852069773</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1192102964176723</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Education[T.No diploma yet]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.132475407544649</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.6638677676215478</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.359548818414962</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01480673897882202</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.04173793334250134</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.273956888783295e-08</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Education[T.Pre-School]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.221650886911982</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.07351866844308465</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.28693253222995</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Education[T.Secondary]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2181049342149651</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.08452576910738066</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3666342001788038</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6155083322817725</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5113120026198987</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0002455310879519266</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9217044102102662</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.006833681151598731</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4305626692289471</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.07001259772095665</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9559918182543606</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.202224512863959e-05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Education[T.Unknown]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.1656393885402377</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.4579982011868622</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.03504315485148295</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.796987488111754</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2158899390528531</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9026689223710838</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1264966963512252</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2710328140507572</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5367566557221983</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8285907560350141</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.003780647335506298</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.490731160269783e-21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0002946539213882257</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.004609016430265443</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.01414269702916179</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0.3008676604716514</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0002214780193205201</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0002048513197663038</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.001009302299779144</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.301714341666333e-06</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.493522051803588e-19</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.889918579122325e-197</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3156113829089044</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CarOwnershipHH</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.756834956734422</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.858947890799866</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-2.202509294500735</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>4.123746605409006e-34</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.958899214548858e-46</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1166501786081078</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.03614035206551781</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.01132080507966879</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.4112190205823415</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4649673754076685</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.128756741268637e-06</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.365903408967518e-05</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.466658252054779e-05</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9873872691756458</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.06678680002988968</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.695146511039036e-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DistSubcenter_res</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.04934686011956745</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01570379026946693</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.01239155880148951</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.01693990428266733</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5551088168048219</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.563343506465624</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.09599370274028175</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.1375769693234538</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.1490694728602392</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>1.658489223961399e-09</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.513201484320671e-13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01073029461262584</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.002756232357487093</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.002315600449617085</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.282979543076484</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.6697462903337811</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.4135720923888376</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.3201470622387642</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.4084916341375813</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.5275403910616763</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.55905674728361</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.2408980250902115</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.019375369587288</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0.5530054501312727</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.039645265350522e-06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>bike</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>walk</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bike_p</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>walk_p</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>transit_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.952591715707985</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.196158957178903</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4564768183456557</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>0.003798490671675273</v>
+        <v>5.109982119892694e-11</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -5602,20 +7070,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.08091992893799148</v>
+        <v>-0.1144226686166738</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.07703969193124248</v>
+        <v>-0.06601702024722687</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2253893841847512</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>-0.2268578979601634</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1288811479146068</v>
+      </c>
       <c r="F3" t="n">
-        <v>0.5605902261603185</v>
+        <v>0.5456843947865004</v>
       </c>
       <c r="G3" t="n">
-        <v>0.066970110445669</v>
+        <v>1.269463068271201e-05</v>
       </c>
     </row>
     <row r="4">
@@ -5625,22 +7095,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1693709114418476</v>
+        <v>-0.1698178970731089</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.151592849456607</v>
+        <v>-0.1310765071391364</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5682622945680762</v>
+        <v>-0.5609163173577855</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6361927421768474</v>
+        <v>0.5456497035253309</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5646273160318831</v>
+        <v>0.5793421351806841</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01696944546720474</v>
+        <v>0.003058319189805335</v>
       </c>
     </row>
     <row r="5">
@@ -5650,22 +7120,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1039667176770746</v>
+        <v>-0.09323555935262903</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1352240583165237</v>
+        <v>-0.1330334681048381</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2503651366944561</v>
+        <v>-0.2467757421299386</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7936795156449556</v>
+        <v>0.4838365516926098</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4899570676999081</v>
+        <v>0.3841982006822507</v>
       </c>
       <c r="G5" t="n">
-        <v>0.118262436033757</v>
+        <v>3.605216123324973e-05</v>
       </c>
     </row>
     <row r="6">
@@ -5675,22 +7145,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6617603911590628</v>
+        <v>0.662742650073082</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2657643140431541</v>
+        <v>0.2773003225498734</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1788061666662605</v>
+        <v>0.1808509058720398</v>
       </c>
       <c r="E6" t="n">
-        <v>0.115652614804929</v>
+        <v>0.08228466824690783</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4921634911582589</v>
+        <v>0.4580934837160435</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3186475108779152</v>
+        <v>0.3102331033553462</v>
       </c>
     </row>
     <row r="7">
@@ -5700,22 +7170,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.615182427346631</v>
+        <v>-0.6111783465732433</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4552069374627383</v>
+        <v>-0.4577514549271155</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4558491301499325</v>
+        <v>-0.4584788423170501</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2039852356828897</v>
+        <v>0.0007725077099242936</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004236636790434068</v>
+        <v>0.0008496939743037134</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002036856423208543</v>
+        <v>2.510025819214006e-06</v>
       </c>
     </row>
     <row r="8">
@@ -5725,22 +7195,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6395480686832221</v>
+        <v>0.6025195879582669</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2301252092281803</v>
+        <v>0.2535733518258754</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01790810759508318</v>
+        <v>-0.02114342315974907</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002068439994204982</v>
+        <v>0.0111944535347902</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1887808359442779</v>
+        <v>0.1467719390170657</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8884684125945318</v>
+        <v>0.8742996041129683</v>
       </c>
     </row>
     <row r="9">
@@ -5750,22 +7220,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2630803317364268</v>
+        <v>0.2344511894205407</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1513375240672025</v>
+        <v>0.168786833564511</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1744222589718831</v>
+        <v>-0.1758674473354568</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2154674821102138</v>
+        <v>0.2458556306564843</v>
       </c>
       <c r="F9" t="n">
-        <v>0.324404210107073</v>
+        <v>0.2697623049671094</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1394580358037537</v>
+        <v>0.1452187066750926</v>
       </c>
     </row>
     <row r="10">
@@ -5775,22 +7245,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.361461144209885</v>
+        <v>-0.3833270561131935</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0698323467145619</v>
+        <v>0.06778914897078579</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07627575269902921</v>
+        <v>0.077137333188845</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01589989581645724</v>
+        <v>0.02153663237437439</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5093147138075792</v>
+        <v>0.5209592652009077</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3666063508595103</v>
+        <v>0.3224475790806097</v>
       </c>
     </row>
     <row r="11">
@@ -5800,22 +7270,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.484526001953485</v>
+        <v>1.485117640041014</v>
       </c>
       <c r="C11" t="n">
-        <v>1.664179249884057</v>
+        <v>1.664878292238648</v>
       </c>
       <c r="D11" t="n">
-        <v>1.40597946885929</v>
+        <v>1.410787671371395</v>
       </c>
       <c r="E11" t="n">
-        <v>1.860433604395371e-06</v>
+        <v>5.407297011015721e-10</v>
       </c>
       <c r="F11" t="n">
-        <v>1.075198748540177e-21</v>
+        <v>1.343915626780606e-27</v>
       </c>
       <c r="G11" t="n">
-        <v>3.012122859938633e-21</v>
+        <v>4.624741423818778e-23</v>
       </c>
     </row>
     <row r="12">
@@ -5825,22 +7295,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3472506039013716</v>
+        <v>0.3737967670337228</v>
       </c>
       <c r="C12" t="n">
-        <v>1.49926675803989</v>
+        <v>1.504522440708308</v>
       </c>
       <c r="D12" t="n">
-        <v>2.28755199896509</v>
+        <v>2.290054107436867</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5871569103387173</v>
+        <v>0.4529702291181456</v>
       </c>
       <c r="F12" t="n">
-        <v>4.138022135355314e-07</v>
+        <v>1.56615406747132e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>7.791726935431018e-27</v>
+        <v>4.226301862538884e-19</v>
       </c>
     </row>
     <row r="13">
@@ -5850,22 +7320,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.030078261919374</v>
+        <v>1.053111400746884</v>
       </c>
       <c r="C13" t="n">
-        <v>1.255162838509087</v>
+        <v>1.253902216196585</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7689565926797803</v>
+        <v>0.77793760753143</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003005900690241859</v>
+        <v>0.0008895215023745477</v>
       </c>
       <c r="F13" t="n">
-        <v>5.188305863052682e-12</v>
+        <v>9.035123194212604e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>7.733870646286349e-06</v>
+        <v>2.175193361423557e-05</v>
       </c>
     </row>
     <row r="14">
@@ -5875,22 +7345,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.689149120199121</v>
+        <v>1.68966184857629</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8075542954675645</v>
+        <v>0.8132789648599986</v>
       </c>
       <c r="D14" t="n">
-        <v>1.940595057615268</v>
+        <v>1.942954100991155</v>
       </c>
       <c r="E14" t="n">
-        <v>4.788324588720724e-05</v>
+        <v>4.521665465605966e-08</v>
       </c>
       <c r="F14" t="n">
-        <v>0.000167556718664376</v>
+        <v>6.05688303426651e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>2.810164751274526e-28</v>
+        <v>1.325053444296078e-23</v>
       </c>
     </row>
     <row r="15">
@@ -5900,22 +7370,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03359269082156571</v>
+        <v>0.02882187150110205</v>
       </c>
       <c r="C15" t="n">
-        <v>1.101499166355648</v>
+        <v>1.061193448980719</v>
       </c>
       <c r="D15" t="n">
-        <v>1.113799158465703</v>
+        <v>1.120652102052833</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9771134420617884</v>
+        <v>0.9750940778360419</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01564411188790436</v>
+        <v>0.01792612029053904</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002952899815812721</v>
+        <v>0.00049342476032452</v>
       </c>
     </row>
     <row r="16">
@@ -5925,22 +7395,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05911654803253525</v>
+        <v>0.07364940725615099</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5611904560391878</v>
+        <v>0.5581336958675254</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5022717736814627</v>
+        <v>0.5069118240407023</v>
       </c>
       <c r="E16" t="n">
-        <v>0.768242926092335</v>
+        <v>0.7775977036258788</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0007219445242588673</v>
+        <v>0.0006077212855274076</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0006801126273963256</v>
+        <v>0.0002445885680647055</v>
       </c>
     </row>
     <row r="17">
@@ -5950,19 +7420,21 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.974112887888419</v>
+        <v>0.9221245976542318</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1968166786244792</v>
+        <v>-0.1830110860025384</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4686242693866319</v>
+        <v>-0.4778606282423622</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999999999987</v>
+        <v>0.9999999999999966</v>
       </c>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0.9999999904777029</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5971,22 +7443,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.3420327994893864</v>
+        <v>-0.2875382500529385</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07189191582848346</v>
+        <v>0.05927491569729876</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5619521289210947</v>
+        <v>0.5610189830988083</v>
       </c>
       <c r="E18" t="n">
-        <v>0.301583444670535</v>
+        <v>0.3122322081870956</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6986927098556373</v>
+        <v>0.7494211396557589</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001919626936434194</v>
+        <v>0.0002352888290917711</v>
       </c>
     </row>
     <row r="19">
@@ -5996,22 +7468,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9982296585592929</v>
+        <v>0.9564054061499696</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2948527038126434</v>
+        <v>0.2975881288213713</v>
       </c>
       <c r="D19" t="n">
-        <v>0.782220419583972</v>
+        <v>0.7767647252828825</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002146980503966652</v>
+        <v>0.005495876694112139</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2536570593665254</v>
+        <v>0.2581102895365942</v>
       </c>
       <c r="G19" t="n">
-        <v>3.707902594280285e-05</v>
+        <v>8.817743335978807e-05</v>
       </c>
     </row>
     <row r="20">
@@ -6021,22 +7493,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.072475787026611</v>
+        <v>1.008512025207881</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5065465811186695</v>
+        <v>0.534003070512526</v>
       </c>
       <c r="D20" t="n">
-        <v>1.055603113057778</v>
+        <v>1.05193084627334</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004773663809317971</v>
+        <v>0.0554942826157744</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1690355385153314</v>
+        <v>0.1213661252473093</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001557354925444371</v>
+        <v>6.819193618456642e-05</v>
       </c>
     </row>
     <row r="21">
@@ -6046,22 +7518,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.378121954749597</v>
+        <v>1.408846459526599</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1453920721887353</v>
+        <v>0.1416471152922159</v>
       </c>
       <c r="D21" t="n">
-        <v>0.368020259196822</v>
+        <v>0.3689833408601461</v>
       </c>
       <c r="E21" t="n">
-        <v>0.005120006322667269</v>
+        <v>0.01692370029256272</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7378604446088408</v>
+        <v>0.7452625444211822</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2177191347682961</v>
+        <v>0.2439316943999531</v>
       </c>
     </row>
     <row r="22">
@@ -6071,22 +7543,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.7285442735273745</v>
+        <v>-0.7164352182860254</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.7569841900298933</v>
+        <v>-0.769246471121127</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.323624553427649</v>
+        <v>-1.323416007018804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1042327168101809</v>
+        <v>0.1795002879924867</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01647160044391303</v>
+        <v>0.01214333516447042</v>
       </c>
       <c r="G22" t="n">
-        <v>2.173977161924144e-08</v>
+        <v>5.278828588346044e-08</v>
       </c>
     </row>
     <row r="23">
@@ -6096,19 +7568,21 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9741310463573998</v>
+        <v>0.9221330401488452</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1968166079982189</v>
+        <v>-0.1830103885609332</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.468623766173361</v>
+        <v>-0.4778607170022796</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999999999979</v>
+        <v>0.9999999999999966</v>
       </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0.999999990456256</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6117,22 +7591,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4453617452931312</v>
+        <v>0.460233221186399</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0207283897806738</v>
+        <v>0.01600163582479594</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4297030820716297</v>
+        <v>0.4305635213680597</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03594733495518164</v>
+        <v>0.03491950153246041</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8751845672349868</v>
+        <v>0.901954294696484</v>
       </c>
       <c r="G24" t="n">
-        <v>3.360746261257528e-06</v>
+        <v>1.113437542774608e-05</v>
       </c>
     </row>
     <row r="25">
@@ -6142,22 +7616,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.173976166445748</v>
+        <v>1.168832661748233</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1002598143344996</v>
+        <v>0.09175509445999359</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4571120725129696</v>
+        <v>0.4475847235544421</v>
       </c>
       <c r="E25" t="n">
-        <v>4.846378505861612e-10</v>
+        <v>2.978823390898609e-09</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4492200932591793</v>
+        <v>0.4745083671062292</v>
       </c>
       <c r="G25" t="n">
-        <v>1.837677672300163e-07</v>
+        <v>6.226049147678223e-06</v>
       </c>
     </row>
     <row r="26">
@@ -6167,22 +7641,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2536045185930519</v>
+        <v>0.2195999649501632</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2782462088005701</v>
+        <v>-0.292031930469573</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02434277457804438</v>
+        <v>0.02350418413697189</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6893849828135483</v>
+        <v>0.7325792536836516</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4804728271276641</v>
+        <v>0.4576386051280421</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9368763596613814</v>
+        <v>0.9391111627172614</v>
       </c>
     </row>
     <row r="27">
@@ -6192,22 +7666,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1844775063866212</v>
+        <v>-0.1745302281355329</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2626266252343477</v>
+        <v>0.2678655849291344</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4683912170035593</v>
+        <v>0.4689638513263522</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2602909995194237</v>
+        <v>0.2046979552770045</v>
       </c>
       <c r="F27" t="n">
-        <v>0.006335682979863796</v>
+        <v>0.004938243292102828</v>
       </c>
       <c r="G27" t="n">
-        <v>4.018476282245728e-12</v>
+        <v>1.576148147837174e-10</v>
       </c>
     </row>
     <row r="28">
@@ -6217,22 +7691,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.001120797892344305</v>
+        <v>0.000311415318635427</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.004950181611103244</v>
+        <v>-0.004440026093761862</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0173386123992856</v>
+        <v>-0.01738698188709729</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9287895562931545</v>
+        <v>0.9544139703925074</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4077735703906342</v>
+        <v>0.367490248685551</v>
       </c>
       <c r="G28" t="n">
-        <v>0.000640959569074405</v>
+        <v>4.753646493067621e-08</v>
       </c>
     </row>
     <row r="29">
@@ -6242,22 +7716,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0002327855989278082</v>
+        <v>-0.0002317848027691669</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.001026523126400725</v>
+        <v>-0.001027752997045903</v>
       </c>
       <c r="D29" t="n">
-        <v>-5.831955431946763e-06</v>
+        <v>-5.604208247712159e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>9.268666425857317e-30</v>
+        <v>2.136015323778242e-33</v>
       </c>
       <c r="F29" t="n">
-        <v>1.290160796362079e-188</v>
+        <v>3.999002997101559e-191</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1981354660349485</v>
+        <v>0.0976722538163822</v>
       </c>
     </row>
     <row r="30">
@@ -6267,22 +7741,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.744600662366638</v>
+        <v>-1.777480814819215</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.840922180017665</v>
+        <v>-1.835654388324594</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.187519222442032</v>
+        <v>-2.193944317451181</v>
       </c>
       <c r="E30" t="n">
-        <v>1.605478903129656e-18</v>
+        <v>5.292461591396841e-19</v>
       </c>
       <c r="F30" t="n">
-        <v>2.278978998783882e-33</v>
+        <v>7.967703686566385e-34</v>
       </c>
       <c r="G30" t="n">
-        <v>1.096916338815721e-68</v>
+        <v>4.970876657848177e-66</v>
       </c>
     </row>
     <row r="31">
@@ -6292,22 +7766,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1161291130091121</v>
+        <v>0.1227770543576295</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.06393087249122277</v>
+        <v>-0.05958582695898553</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.03935433886922746</v>
+        <v>-0.03870958549894456</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09266072102363555</v>
+        <v>0.07014577046712744</v>
       </c>
       <c r="F31" t="n">
-        <v>0.204188832645109</v>
+        <v>0.2154657204336132</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2614096089250013</v>
+        <v>0.3229426891603839</v>
       </c>
     </row>
     <row r="32">
@@ -6317,22 +7791,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.348389038118128e-05</v>
+        <v>5.101122542658579e-06</v>
       </c>
       <c r="C32" t="n">
-        <v>2.748706179721385e-05</v>
+        <v>3.262931292125377e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>5.045161099842524e-05</v>
+        <v>4.301479178475409e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3999812437374</v>
+        <v>0.8239879625311309</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2449302918296654</v>
+        <v>0.02902544565589209</v>
       </c>
       <c r="G32" t="n">
-        <v>0.004302228606389904</v>
+        <v>0.0006023928756715455</v>
       </c>
     </row>
     <row r="33">
@@ -6342,22 +7816,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.004226459467214142</v>
+        <v>0.05188983458098662</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.02071584184686404</v>
+        <v>-0.004759059114763459</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.03098238820162839</v>
+        <v>-0.004712014083402859</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9443585025259935</v>
+        <v>0.2081737004635071</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5196174058103709</v>
+        <v>0.8630797457900221</v>
       </c>
       <c r="G33" t="n">
-        <v>0.104494504635318</v>
+        <v>0.8286623880984576</v>
       </c>
     </row>
     <row r="34">
@@ -6367,187 +7841,97 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.0451560221734203</v>
+        <v>-0.07640907992310621</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1037478451719633</v>
+        <v>-0.1188135080192434</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1268342579966811</v>
+        <v>-0.1478348798360293</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3360458255290258</v>
+        <v>0.0180416299850911</v>
       </c>
       <c r="F34" t="n">
-        <v>0.000228318651753687</v>
+        <v>1.443377649862495e-07</v>
       </c>
       <c r="G34" t="n">
-        <v>8.260249897476515e-08</v>
+        <v>4.744396411157297e-17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.412474009551304e-08</v>
+        <v>0.008940657377918382</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.720769748686826e-09</v>
+        <v>0.000990622482360339</v>
       </c>
       <c r="D35" t="n">
-        <v>6.84859707167777e-10</v>
+        <v>0.002336923312393403</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7499968504123328</v>
+        <v>0.05219336564479572</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8240911111668018</v>
+        <v>0.7531778805530058</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9551042087619485</v>
+        <v>0.3660568595818025</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.01973629661715802</v>
+        <v>2.190457978484941</v>
       </c>
       <c r="C36" t="n">
-        <v>0.007245659698597733</v>
+        <v>-0.03127050204146574</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.001236114384418144</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
+        <v>-0.2828536334162103</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.03930076426790993</v>
+      </c>
       <c r="F36" t="n">
-        <v>0.04854007932846727</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+        <v>0.967089492732737</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.6317365908998458</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.01121181111474744</v>
+        <v>-1.332568088693066</v>
       </c>
       <c r="C37" t="n">
-        <v>0.007201757073286945</v>
+        <v>-0.01271829406925088</v>
       </c>
       <c r="D37" t="n">
-        <v>4.664799970255259e-05</v>
+        <v>0.9423434555777325</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4677504509990162</v>
+        <v>0.1385473917601946</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4028401785706529</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2.976065101217884</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-0.6316976537534014</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.5574890639521589</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.007164700733222553</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.6347403445588495</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.5864236637872884</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-1.146758953285334</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.4003849804171636</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.7775207863007193</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.3762888855522032</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.4187746026659186</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.174174800734499</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-1.755036015426498</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-0.04529219750945405</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5661130194043157</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.0286776214784174</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.9532789178630973</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.004632502692871495</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>transit_accessibility_res</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.0001892856824976106</v>
-      </c>
-      <c r="C41" t="n">
-        <v>6.887184846105231e-05</v>
-      </c>
-      <c r="D41" t="n">
-        <v>7.206215128745055e-05</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="n">
-        <v>0.01285978502508671</v>
+        <v>0.9821653110968156</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03424557738891539</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/mode_MNLR_new/Wien.xlsx
+++ b/outputs/ML_Results/mode_MNLR_new/Wien.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ29480716" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ31867575" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ34367573" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ36987466" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ39622406" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ42394446" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ47481057" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ50250168" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ55528787" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ58218481" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ00957862" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ03635538" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ06369455" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ09027901" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ11603499" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ14221337" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,23 +485,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.184014242325094</v>
+        <v>-2.354983540624416</v>
       </c>
       <c r="C2" t="n">
-        <v>3.287758921202793</v>
+        <v>3.217812236709273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1666905442929007</v>
+        <v>0.4588715301873006</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02989053665828828</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.589118271279486e-12</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.4445078473111964</v>
-      </c>
+        <v>0.3130703582434257</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,22 +506,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09157131749224051</v>
+        <v>0.05970858721652309</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03392845170938524</v>
+        <v>0.02087300658869888</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2150978089473346</v>
+        <v>-0.197014353522504</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5174811928114564</v>
+        <v>0.9347392944705843</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7682720634907768</v>
+        <v>0.6993407709528653</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00958809426476873</v>
+        <v>0.02658221206614919</v>
       </c>
     </row>
     <row r="4">
@@ -535,19 +531,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1597857087321746</v>
+        <v>-0.02921702334568797</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07057907561381362</v>
+        <v>0.2321377611977082</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4443828115420119</v>
+        <v>-0.5056547306817926</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.6787893607185574</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>0.1469375928699949</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.008007072794950186</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -556,22 +554,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0808348764710695</v>
+        <v>-0.04657597086962888</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.004555455330802041</v>
+        <v>-0.05605754681929459</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2902472549335947</v>
+        <v>-0.210108574562744</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7634196884801591</v>
+        <v>0.8818475694465802</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9805761386890774</v>
+        <v>0.7056617875554148</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05940467961547275</v>
+        <v>0.17259105751458</v>
       </c>
     </row>
     <row r="6">
@@ -581,22 +579,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.491097983273401</v>
+        <v>0.520956559274465</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.07820305517073055</v>
+        <v>0.04047932421839457</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09844569609777382</v>
+        <v>0.08713564112036536</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1159123763711241</v>
+        <v>0.6386444885237492</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8337312151126771</v>
+        <v>0.9054293760304147</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5283200547201369</v>
+        <v>0.6313149375101006</v>
       </c>
     </row>
     <row r="7">
@@ -606,20 +604,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6129825934587181</v>
+        <v>-0.511082242072847</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5365195057182137</v>
+        <v>-0.4517371543165889</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5937530594233086</v>
+        <v>-0.4616713166172438</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>4.093753049611902e-06</v>
+        <v>0.02050801963765337</v>
       </c>
       <c r="G7" t="n">
-        <v>1.349565390998309e-23</v>
+        <v>0.0002041282644756161</v>
       </c>
     </row>
     <row r="8">
@@ -629,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4391823657312275</v>
+        <v>0.5980114650825853</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1521088392233985</v>
+        <v>0.196033525471998</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03197916253831105</v>
+        <v>0.03759819740163501</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1463380527167008</v>
+        <v>0.630286628732371</v>
       </c>
       <c r="F8" t="n">
-        <v>0.381557244033387</v>
+        <v>0.4017076202294285</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8056653359963379</v>
+        <v>0.731059885131808</v>
       </c>
     </row>
     <row r="9">
@@ -654,22 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3072166317266672</v>
+        <v>0.4619623660322128</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1875967556891987</v>
+        <v>0.129487697622505</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1587373539942613</v>
+        <v>-0.1137239704475051</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09425320980763609</v>
+        <v>0.02569044350284376</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2158335384656852</v>
+        <v>0.3183718324073157</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1896552266494084</v>
+        <v>0.3286359208214581</v>
       </c>
     </row>
     <row r="10">
@@ -679,23 +677,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3292001381888536</v>
+        <v>-0.2712702654918787</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1315564447113344</v>
+        <v>0.1017760157460946</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1582201189682456</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.01817355322737241</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.2153195558318339</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.04987363084176494</v>
-      </c>
+        <v>0.1315488589299176</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -704,22 +696,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.34687867929932</v>
+        <v>1.472450362487013</v>
       </c>
       <c r="C11" t="n">
-        <v>1.574019963109534</v>
+        <v>1.598140012665935</v>
       </c>
       <c r="D11" t="n">
-        <v>1.464776428513647</v>
+        <v>1.3836465437025</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000223674814146613</v>
+        <v>0.01995823775504068</v>
       </c>
       <c r="F11" t="n">
-        <v>3.076420313311287e-15</v>
+        <v>1.14132665945357e-29</v>
       </c>
       <c r="G11" t="n">
-        <v>1.71437866464423e-09</v>
+        <v>1.755967932319465e-14</v>
       </c>
     </row>
     <row r="12">
@@ -729,22 +721,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8212557600855082</v>
+        <v>0.8530687938796495</v>
       </c>
       <c r="C12" t="n">
-        <v>1.339331937283871</v>
+        <v>1.461605187303208</v>
       </c>
       <c r="D12" t="n">
-        <v>2.12360663711447</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.01077570848875801</v>
-      </c>
+        <v>2.207372047606732</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>6.727570688410908e-08</v>
+        <v>4.558745337088269e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>6.076710777019235e-43</v>
+        <v>5.844678884199659e-40</v>
       </c>
     </row>
     <row r="13">
@@ -754,22 +744,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9518061998065082</v>
+        <v>1.021719707516041</v>
       </c>
       <c r="C13" t="n">
-        <v>1.085843307961333</v>
+        <v>1.172844181285329</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7133799009471774</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.003560597856067233</v>
-      </c>
+        <v>0.6111732819334686</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>2.133600639457218e-08</v>
+        <v>7.027045927966602e-07</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001911759577918457</v>
+        <v>0.008948156160208609</v>
       </c>
     </row>
     <row r="14">
@@ -779,22 +767,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.77110793759168</v>
+        <v>1.781050188524379</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6797748622638586</v>
+        <v>0.86604228259003</v>
       </c>
       <c r="D14" t="n">
-        <v>1.951121048470398</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.69764970703261e-14</v>
-      </c>
+        <v>1.872198477111553</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.0001637082989547352</v>
+        <v>4.540703724869237e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>7.041055455465391e-57</v>
+        <v>1.803481471358912e-36</v>
       </c>
     </row>
     <row r="15">
@@ -804,22 +790,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.201270843265863</v>
+        <v>1.253528750443881</v>
       </c>
       <c r="C15" t="n">
-        <v>1.033471930917436</v>
+        <v>0.8071741139880046</v>
       </c>
       <c r="D15" t="n">
-        <v>1.184748523531704</v>
+        <v>0.8450939577336186</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0907679151766923</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.03791499246128621</v>
-      </c>
+        <v>0.5057409764333537</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>0.004222359732961518</v>
+        <v>0.0544702536252698</v>
       </c>
     </row>
     <row r="16">
@@ -829,22 +813,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2286822875644546</v>
+        <v>-0.02193772014020865</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6419466696105046</v>
+        <v>0.6648917437262529</v>
       </c>
       <c r="D16" t="n">
-        <v>0.463444409717249</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.3721568774784739</v>
-      </c>
+        <v>0.4560399097308992</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>6.145732772039961e-05</v>
+        <v>3.375081550339564e-10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003380767496382032</v>
+        <v>2.120859806995531e-08</v>
       </c>
     </row>
     <row r="17">
@@ -854,20 +836,18 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8303488703748416</v>
+        <v>0.6247253755907387</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.09496196153112028</v>
+        <v>-0.3054506259063162</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3210816524281091</v>
+        <v>-0.6284529224873886</v>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>0.9999999982594993</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>0.9999999903783549</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="18">
@@ -877,22 +857,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1128230586050612</v>
+        <v>-0.2862856193521377</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1952728080533816</v>
+        <v>0.2283731244172044</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5864109344445452</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.7324911087085469</v>
-      </c>
+        <v>0.5689185811591928</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.3197144646024567</v>
+        <v>0.5840676663730597</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0006471999338621387</v>
+        <v>0.1050076061882518</v>
       </c>
     </row>
     <row r="19">
@@ -902,22 +880,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.198465930207588</v>
+        <v>0.8275347394595819</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3862993923565619</v>
+        <v>0.3072263054548183</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9319040530309868</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0006173391937928608</v>
-      </c>
+        <v>0.79316320307435</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.1500264837078436</v>
+        <v>0.2600609183690468</v>
       </c>
       <c r="G19" t="n">
-        <v>1.821380891712103e-06</v>
+        <v>2.14075725808942e-29</v>
       </c>
     </row>
     <row r="20">
@@ -927,22 +903,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.305866267234219</v>
+        <v>1.199398683738901</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4130523933081536</v>
+        <v>0.4696203479534808</v>
       </c>
       <c r="D20" t="n">
-        <v>1.034361921880246</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.004160928136079553</v>
-      </c>
+        <v>1.073419679058809</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.1996117756261387</v>
+        <v>0.419620536936082</v>
       </c>
       <c r="G20" t="n">
-        <v>6.218739940829976e-06</v>
+        <v>0.001377475697879707</v>
       </c>
     </row>
     <row r="21">
@@ -952,22 +926,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8758466903663307</v>
+        <v>0.8226187167828164</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2324916773642578</v>
+        <v>-0.09391683395569954</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5119209732733061</v>
+        <v>0.286960257035499</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08640305258570216</v>
+        <v>0.288782254718088</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5784296275919129</v>
+        <v>0.8332597940922882</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0825533510555818</v>
+        <v>0.3623189182926754</v>
       </c>
     </row>
     <row r="22">
@@ -977,22 +951,20 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.463746328488581</v>
+        <v>-1.403009051482597</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.8089929120307268</v>
+        <v>-0.9291976949671684</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.248330476394643</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.005164153785585129</v>
-      </c>
+        <v>-1.51640002220045</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.00788486422020724</v>
+        <v>0.001840418250259415</v>
       </c>
       <c r="G22" t="n">
-        <v>2.226556791685133e-07</v>
+        <v>2.900445908970977e-09</v>
       </c>
     </row>
     <row r="23">
@@ -1002,20 +974,18 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.830348574572807</v>
+        <v>0.6247300556427768</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.09496029756604278</v>
+        <v>-0.3054487449348279</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3210805292478772</v>
+        <v>-0.6284536953835618</v>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.9999999982595298</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>0.9999999903783885</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="24">
@@ -1025,22 +995,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2516277262266172</v>
+        <v>0.2830134805577282</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.02140599871261063</v>
+        <v>-0.0425751660925399</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3918041875767846</v>
+        <v>0.3820647721215699</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2778989780466722</v>
+        <v>0.3148642072243293</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8728135504351293</v>
+        <v>0.7317188712442827</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0002223531987927257</v>
+        <v>3.693605794162388e-05</v>
       </c>
     </row>
     <row r="25">
@@ -1050,22 +1020,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9994592725499752</v>
+        <v>1.004764429368223</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05034424558866189</v>
+        <v>0.09146321770024968</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4325914455431755</v>
+        <v>0.4881382265225475</v>
       </c>
       <c r="E25" t="n">
-        <v>9.462462988402368e-07</v>
+        <v>1.165275633309975e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6993175411433408</v>
+        <v>0.4577237716591473</v>
       </c>
       <c r="G25" t="n">
-        <v>3.445042857713236e-05</v>
+        <v>1.534903839427297e-06</v>
       </c>
     </row>
     <row r="26">
@@ -1075,22 +1045,20 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.4819036211738701</v>
+        <v>-0.3362059998048931</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2713937086433904</v>
+        <v>-0.3034961525637494</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.237323617528207</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.525554649945935</v>
-      </c>
+        <v>0.117000600871294</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0.4940800843087408</v>
+        <v>0.4367337769333565</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4358895028262422</v>
+        <v>0.6949613455118971</v>
       </c>
     </row>
     <row r="27">
@@ -1100,22 +1068,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1655330493768964</v>
+        <v>-0.2185354654074287</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2416031563352925</v>
+        <v>0.218571028977331</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5081773828952504</v>
+        <v>0.4715752375309151</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2029491884769974</v>
+        <v>0.5171974336167726</v>
       </c>
       <c r="F27" t="n">
-        <v>0.009296672003993461</v>
+        <v>0.008375541201154885</v>
       </c>
       <c r="G27" t="n">
-        <v>7.618688085950293e-14</v>
+        <v>3.09666984139004e-20</v>
       </c>
     </row>
     <row r="28">
@@ -1125,22 +1093,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.002643260955379712</v>
+        <v>-0.003591722258803871</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.006164242438617991</v>
+        <v>-0.008105363800611476</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01534331067532292</v>
+        <v>-0.01689773872492477</v>
       </c>
       <c r="E28" t="n">
-        <v>0.642037053475176</v>
+        <v>0.6755450439677448</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1783742328842582</v>
+        <v>0.4255174250614649</v>
       </c>
       <c r="G28" t="n">
-        <v>1.323792150454168e-09</v>
+        <v>0.02895085408546898</v>
       </c>
     </row>
     <row r="29">
@@ -1150,23 +1118,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0002285108123855281</v>
+        <v>-0.000219588341751354</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00102272165335775</v>
+        <v>-0.001004656616588508</v>
       </c>
       <c r="D29" t="n">
-        <v>-5.229449183845364e-06</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.971297051300134e-28</v>
-      </c>
+        <v>-6.464168220143325e-06</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>1.625214535969981e-188</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.318735423061565</v>
-      </c>
+        <v>1.922367399166095e-199</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1175,22 +1139,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.69672686674695</v>
+        <v>-1.705513673562772</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.840619360327569</v>
+        <v>-1.8943359073942</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.152854051544021</v>
+        <v>-2.236250569860203</v>
       </c>
       <c r="E30" t="n">
-        <v>4.10391094366879e-21</v>
+        <v>4.468635386384244e-07</v>
       </c>
       <c r="F30" t="n">
-        <v>1.108365478579112e-35</v>
+        <v>2.074967669595133e-47</v>
       </c>
       <c r="G30" t="n">
-        <v>1.976616781455783e-69</v>
+        <v>2.029109508940009e-94</v>
       </c>
     </row>
     <row r="31">
@@ -1200,22 +1164,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1171710528308467</v>
+        <v>0.1280418606105595</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.04191526001820696</v>
+        <v>-0.01319302819595326</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.001715935240014246</v>
+        <v>0.01334788250343539</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05497171394173355</v>
+        <v>0.0553812209887321</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3654654828929096</v>
+        <v>0.8242811504149998</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9607790284301962</v>
+        <v>0.7449303079789155</v>
       </c>
     </row>
     <row r="32">
@@ -1225,23 +1189,17 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.533495784045024e-06</v>
+        <v>0.001118437332635415</v>
       </c>
       <c r="C32" t="n">
-        <v>3.030772180448367e-05</v>
+        <v>0.00251331906268305</v>
       </c>
       <c r="D32" t="n">
-        <v>3.95622973096186e-05</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.7623655065218296</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.03919851584344839</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.001041227255994747</v>
-      </c>
+        <v>0.003962153402951633</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1250,23 +1208,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.005149044405676685</v>
+        <v>0.02905543730155193</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.01209948230036148</v>
+        <v>0.004692038051402029</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01126058808625644</v>
+        <v>-0.01980799635686759</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9008907393024042</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.657900781937748</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.5944148704750358</v>
-      </c>
+        <v>0.3190054484116556</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1275,23 +1229,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.09064855923160978</v>
+        <v>-0.06833779867440722</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1272634301491912</v>
+        <v>-0.1183458917058234</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1546628427012139</v>
+        <v>-0.142978315919178</v>
       </c>
       <c r="E34" t="n">
-        <v>0.005989341983363938</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2.259398338795249e-08</v>
-      </c>
-      <c r="G34" t="n">
-        <v>3.452328245601811e-17</v>
-      </c>
+        <v>0.2812651677519979</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1300,22 +1250,20 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01550795167452204</v>
+        <v>0.01267830494687436</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002394327072714071</v>
+        <v>0.001437532417215744</v>
       </c>
       <c r="D35" t="n">
-        <v>0.003186170309356613</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.0003853401271255055</v>
-      </c>
+        <v>0.001676185250547118</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>0.4249097573980556</v>
+        <v>0.63994969931285</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1775524710909754</v>
+        <v>0.5009751805721527</v>
       </c>
     </row>
     <row r="36">
@@ -1325,22 +1273,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.311316847748921</v>
+        <v>0.02498163545495944</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01470470550654631</v>
+        <v>0.002574967310806222</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.274937074878477</v>
+        <v>-0.003385870175024426</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0283538052679947</v>
+        <v>0.07993544050899495</v>
       </c>
       <c r="F36" t="n">
-        <v>0.984374802538125</v>
+        <v>0.3094753791222817</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6401335496430349</v>
+        <v>0.2799804278557507</v>
       </c>
     </row>
     <row r="37">
@@ -1350,23 +1298,17 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2.733035280076939</v>
+        <v>-0.01241215256972562</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.4023327025244007</v>
+        <v>-0.0007938655078146482</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5562117567527448</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.002803558219416117</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.4753852005539133</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.2150723306904534</v>
-      </c>
+        <v>0.00929953695469502</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1431,20 +1373,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.354983540624414</v>
+        <v>-2.520928308231221</v>
       </c>
       <c r="C2" t="n">
-        <v>3.21781223670927</v>
+        <v>3.326592304526987</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4588715301873027</v>
+        <v>0.1929257795702327</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>0.0001550751366703186</v>
+        <v>3.911332362339261e-10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3188483823003977</v>
+        <v>0.6964783444759578</v>
       </c>
     </row>
     <row r="3">
@@ -1454,20 +1396,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05970858721652338</v>
+        <v>0.1140297293920604</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02087300658869912</v>
+        <v>-0.05405660540094383</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1970143535225041</v>
+        <v>-0.2086701471186176</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0.8644360682514655</v>
+        <v>0.6330697400268961</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05493880018866317</v>
+        <v>0.02145123176062182</v>
       </c>
     </row>
     <row r="4">
@@ -1477,22 +1419,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02921702334568786</v>
+        <v>-0.1543307137007019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2321377611977075</v>
+        <v>-0.07207038513583448</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5056547306817928</v>
+        <v>-0.5332557311712416</v>
       </c>
       <c r="E4" t="n">
-        <v>0.923531608611923</v>
+        <v>0.7844758275678695</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3463099996464053</v>
+        <v>0.6819485456376964</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01155570061260272</v>
+        <v>0.01671148810700913</v>
       </c>
     </row>
     <row r="5">
@@ -1502,22 +1444,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0465759708696289</v>
+        <v>-0.02691805747608792</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.05605754681929492</v>
+        <v>-0.251500067627658</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.210108574562744</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.86217842758027</v>
-      </c>
+        <v>-0.3263944985492177</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.7593635594111519</v>
+        <v>0.06946766236877337</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1365011892852852</v>
+        <v>2.800426122385741e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1527,22 +1467,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5209565592744654</v>
+        <v>0.7965862180018579</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04047932421839522</v>
+        <v>0.01066003403588349</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08713564112036551</v>
+        <v>0.06588819978938833</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3690209396370213</v>
+        <v>0.01406484289595719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9152075182323208</v>
+        <v>0.9772559115546952</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6328079329878322</v>
+        <v>0.7201981163961841</v>
       </c>
     </row>
     <row r="7">
@@ -1552,20 +1492,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5110822420728469</v>
+        <v>-0.4730641974517626</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4517371543165891</v>
+        <v>-0.5885523607926334</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4616713166172439</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>-0.5917839738836704</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0869399606889362</v>
+      </c>
       <c r="F7" t="n">
-        <v>0.001715516876098067</v>
+        <v>2.465225454852601e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001253556846145869</v>
+        <v>1.720196890251259e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1575,20 +1517,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5980114650825855</v>
+        <v>0.5581357792367363</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1960335254719981</v>
+        <v>0.1693915155131455</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03759819740163491</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>0.04594263157617705</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.241561291398837</v>
+      </c>
       <c r="F8" t="n">
-        <v>0.2314956457622247</v>
+        <v>0.3296906125137583</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6803362732723996</v>
+        <v>0.7282063810412851</v>
       </c>
     </row>
     <row r="9">
@@ -1598,22 +1542,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.461962366032213</v>
+        <v>0.5363505154397296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1294876976225053</v>
+        <v>0.3328839877239883</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1137239704475052</v>
+        <v>-0.1094723659316667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001209682364810867</v>
+        <v>0.03709094631088474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3135321089183301</v>
+        <v>0.03053460620059793</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1391867779307906</v>
+        <v>0.3709726699578173</v>
       </c>
     </row>
     <row r="10">
@@ -1623,22 +1567,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2712702654918785</v>
+        <v>-0.4787712442732006</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1017760157460947</v>
+        <v>0.08553846752194499</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1315488589299176</v>
+        <v>0.1139117697051126</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04548545036969329</v>
+        <v>0.007676150613468675</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3321120129803743</v>
+        <v>0.4198302338416294</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0996074350732211</v>
+        <v>0.1444659046116724</v>
       </c>
     </row>
     <row r="11">
@@ -1648,23 +1592,21 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.472450362487014</v>
+        <v>1.762128904097868</v>
       </c>
       <c r="C11" t="n">
-        <v>1.598140012665935</v>
+        <v>1.773011863705406</v>
       </c>
       <c r="D11" t="n">
-        <v>1.3836465437025</v>
+        <v>1.530451615156399</v>
       </c>
       <c r="E11" t="n">
-        <v>2.249797814700276e-14</v>
+        <v>5.714525010860868e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>2.977059852745858e-15</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.81367130185375e-07</v>
-      </c>
+        <v>1.293534537060637e-96</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1673,22 +1615,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8530687938796507</v>
+        <v>1.046374433289018</v>
       </c>
       <c r="C12" t="n">
-        <v>1.461605187303208</v>
+        <v>1.490900263860429</v>
       </c>
       <c r="D12" t="n">
-        <v>2.207372047606732</v>
+        <v>2.233035497021411</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4143508135138059</v>
+        <v>0.3634764466911991</v>
       </c>
       <c r="F12" t="n">
-        <v>3.820918817468973e-07</v>
+        <v>1.379522167207512e-11</v>
       </c>
       <c r="G12" t="n">
-        <v>1.732014427405122e-09</v>
+        <v>1.184612154453464e-63</v>
       </c>
     </row>
     <row r="13">
@@ -1698,22 +1640,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.021719707516042</v>
+        <v>1.224708319333895</v>
       </c>
       <c r="C13" t="n">
-        <v>1.172844181285329</v>
+        <v>1.311109407172851</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6111732819334689</v>
+        <v>0.7675955394386208</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001327814796002038</v>
+        <v>0.0110924457110253</v>
       </c>
       <c r="F13" t="n">
-        <v>8.411744605914206e-11</v>
+        <v>9.344393204396165e-22</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01648610266493118</v>
+        <v>1.934442067634533e-160</v>
       </c>
     </row>
     <row r="14">
@@ -1723,23 +1665,21 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.78105018852438</v>
+        <v>1.994752124744502</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8660422825900304</v>
+        <v>0.9195590232503624</v>
       </c>
       <c r="D14" t="n">
-        <v>1.872198477111553</v>
+        <v>1.989957884511946</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0003113391528868876</v>
+        <v>0.006815229461839911</v>
       </c>
       <c r="F14" t="n">
-        <v>1.784639939049969e-36</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.999522306122082e-15</v>
-      </c>
+        <v>4.865762057838492e-09</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1748,20 +1688,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.253528750443881</v>
+        <v>1.415001044386193</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8071741139880046</v>
+        <v>1.248179996161457</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8450939577336188</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+        <v>1.244191601842932</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.02982454948429117</v>
+      </c>
       <c r="F15" t="n">
-        <v>0.1149936510002778</v>
+        <v>0.005948135655710147</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04040831815774729</v>
+        <v>6.224586355332382e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1771,22 +1713,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02193772014020849</v>
+        <v>-0.1036611265501644</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6648917437262535</v>
+        <v>0.6124597984122621</v>
       </c>
       <c r="D16" t="n">
-        <v>0.456039909730899</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9364040616830853</v>
-      </c>
+        <v>0.4171750868120026</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>3.183209160679051e-05</v>
+        <v>0.0001798459201473149</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001128486993991585</v>
+        <v>0.0005149265487023123</v>
       </c>
     </row>
     <row r="17">
@@ -1796,20 +1736,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6247285301779429</v>
+        <v>0.8307837154714319</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3054495522539414</v>
+        <v>-0.1556945534326055</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.6284533008260097</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
+        <v>-0.4890676248394302</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0.9999999999999996</v>
+      </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.9999999903795598</v>
       </c>
     </row>
     <row r="18">
@@ -1819,22 +1759,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2862856193521368</v>
+        <v>-0.1149626432593341</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2283731244172042</v>
+        <v>0.1663000545501307</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5689185811591931</v>
+        <v>0.493893330660581</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3150728007283555</v>
+        <v>0.7002992222632378</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2109366352065255</v>
+        <v>0.3321153864378059</v>
       </c>
       <c r="G18" t="n">
-        <v>9.207878168248523e-05</v>
+        <v>0.0007621439187947646</v>
       </c>
     </row>
     <row r="19">
@@ -1844,22 +1784,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8275347394595812</v>
+        <v>0.8073493909576156</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3072263054548185</v>
+        <v>0.3310544624396015</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7931632030743495</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.001933285168514326</v>
-      </c>
+        <v>0.9137720644682232</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.2438663407890614</v>
+        <v>0.2296119032819244</v>
       </c>
       <c r="G19" t="n">
-        <v>3.92038732425629e-06</v>
+        <v>9.960342644159938e-08</v>
       </c>
     </row>
     <row r="20">
@@ -1869,21 +1807,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.199398683738901</v>
+        <v>1.071178207505148</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4696203479534812</v>
+        <v>0.3365871421554703</v>
       </c>
       <c r="D20" t="n">
-        <v>1.073419679058809</v>
+        <v>0.9735203195803401</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003631847328708438</v>
+        <v>0.01104365973817075</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1227942199815132</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>0.3159780547576116</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.618528248026947e-05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1892,22 +1832,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8226187167828165</v>
+        <v>1.216778610044416</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.09391683395569922</v>
+        <v>0.226106362868959</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2869602570354987</v>
+        <v>0.4861370695696113</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1007541456257604</v>
+        <v>0.01679435801425748</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8202066136745187</v>
+        <v>0.5931952363116564</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3077687211147977</v>
+        <v>0.09226645678038382</v>
       </c>
     </row>
     <row r="22">
@@ -1917,20 +1857,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.403009051482597</v>
+        <v>-1.09463665278515</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.929197694967168</v>
+        <v>-0.7093062788301115</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.51640002220045</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>-1.251623919880366</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.04846139848245735</v>
+      </c>
       <c r="F22" t="n">
-        <v>0.003153418806775235</v>
+        <v>0.02264390954226596</v>
       </c>
       <c r="G22" t="n">
-        <v>2.990349643040898e-10</v>
+        <v>2.558630386685503e-07</v>
       </c>
     </row>
     <row r="23">
@@ -1940,20 +1882,20 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6247269010555716</v>
+        <v>0.8307739548666668</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3054498185872022</v>
+        <v>-0.1556951794581853</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.6284533170449413</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9999999999999987</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+        <v>-0.4890672177023138</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.9999999999999996</v>
+      </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.9999999903795678</v>
       </c>
     </row>
     <row r="24">
@@ -1963,22 +1905,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2830134805577286</v>
+        <v>0.5208327975482273</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04257516609253949</v>
+        <v>0.001089993240956922</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3820647721215699</v>
+        <v>0.424179804656481</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1479398280224527</v>
+        <v>0.01694888645777211</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7215164754634291</v>
+        <v>0.9931826918572858</v>
       </c>
       <c r="G24" t="n">
-        <v>7.869232123955858e-05</v>
+        <v>1.334956377046291e-06</v>
       </c>
     </row>
     <row r="25">
@@ -1988,22 +1930,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.004764429368223</v>
+        <v>1.204868733628579</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09146321770024975</v>
+        <v>0.008892162272502105</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4881382265225475</v>
+        <v>0.4320299209716157</v>
       </c>
       <c r="E25" t="n">
-        <v>1.226055625356907e-07</v>
+        <v>7.598781519804278e-10</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4646979706563295</v>
+        <v>0.9440309316910457</v>
       </c>
       <c r="G25" t="n">
-        <v>6.13779814717761e-07</v>
+        <v>3.099492065339621e-06</v>
       </c>
     </row>
     <row r="26">
@@ -2013,22 +1955,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.3362059998048931</v>
+        <v>-0.2668513440443921</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3034961525637495</v>
+        <v>-0.3532607930513046</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1170006008712935</v>
+        <v>0.1276347491166951</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8544903381696028</v>
+        <v>0.7273307303562769</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4227857462351419</v>
+        <v>0.3519813537808762</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6945072338907079</v>
+        <v>0.6593820966180789</v>
       </c>
     </row>
     <row r="27">
@@ -2038,22 +1980,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.218535465407428</v>
+        <v>-0.1192308302367998</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2185710289773312</v>
+        <v>0.2332317611944168</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4715752375309157</v>
+        <v>0.5433775247420595</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03549354747208149</v>
+        <v>0.4418254683829635</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02120050245638701</v>
+        <v>0.01407305269851251</v>
       </c>
       <c r="G27" t="n">
-        <v>3.797409828069891e-12</v>
+        <v>6.118897952123948e-14</v>
       </c>
     </row>
     <row r="28">
@@ -2063,22 +2005,20 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.003591722258803897</v>
+        <v>-0.003762154670410332</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00810536380061145</v>
+        <v>-0.006700359647860808</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01689773872492477</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.8307230802840355</v>
-      </c>
+        <v>-0.01566061903883556</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.05530900000567091</v>
+        <v>0.1582770552899</v>
       </c>
       <c r="G28" t="n">
-        <v>2.936829995040511e-13</v>
+        <v>1.286588022557419e-05</v>
       </c>
     </row>
     <row r="29">
@@ -2088,22 +2028,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.000219588341751354</v>
+        <v>-0.0002117236266719557</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.001004656616588508</v>
+        <v>-0.001008978384736192</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.464168220143319e-06</v>
+        <v>-9.216553416461388e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>1.082779872268214e-24</v>
+        <v>6.611884120056623e-29</v>
       </c>
       <c r="F29" t="n">
-        <v>8.65687728182571e-188</v>
+        <v>1.123655485733272e-187</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03450416153578703</v>
+        <v>0.05989727653248226</v>
       </c>
     </row>
     <row r="30">
@@ -2113,21 +2053,23 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.705513673562771</v>
+        <v>-1.917296135085568</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.894335907394199</v>
+        <v>-1.925886729665496</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.236250569860202</v>
+        <v>-2.151693090913072</v>
       </c>
       <c r="E30" t="n">
-        <v>1.842410037935556e-05</v>
+        <v>1.053553055381025e-08</v>
       </c>
       <c r="F30" t="n">
-        <v>4.371105298201666e-63</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+        <v>4.442605385304684e-32</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.155941286809948e-51</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2136,22 +2078,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1280418606105595</v>
+        <v>0.1941076478123943</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.01319302819595303</v>
+        <v>-0.02984672199667066</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01334788250343555</v>
+        <v>-0.001822898117251244</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01933586441719376</v>
+        <v>4.66178909660934e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7814420811507676</v>
+        <v>0.5152639018692244</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7592554052615061</v>
+        <v>0.9564452509357264</v>
       </c>
     </row>
     <row r="32">
@@ -2161,22 +2103,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.118437332635406e-05</v>
+        <v>-0.0005753450317811306</v>
       </c>
       <c r="C32" t="n">
-        <v>2.513319062683049e-05</v>
+        <v>0.002361876527684154</v>
       </c>
       <c r="D32" t="n">
-        <v>3.962153402951625e-05</v>
+        <v>0.003600371218378633</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7607780212588229</v>
+        <v>0.6132437998008206</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1746560375331767</v>
+        <v>0.07852271513883358</v>
       </c>
       <c r="G32" t="n">
-        <v>0.004727097823112389</v>
+        <v>0.002035203137712619</v>
       </c>
     </row>
     <row r="33">
@@ -2186,22 +2128,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02905543730155204</v>
+        <v>0.07990525123207073</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004692038051402071</v>
+        <v>-0.006491425119246426</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01980799635686754</v>
+        <v>0.002558525368011978</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3051648478226345</v>
+        <v>0.1659912229319744</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8575835713774468</v>
+        <v>0.8145687391286982</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1697270771543508</v>
+        <v>0.90044016572593</v>
       </c>
     </row>
     <row r="34">
@@ -2211,20 +2153,20 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.06833779867440726</v>
+        <v>-0.1026390730062516</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1183458917058234</v>
+        <v>-0.126891235205129</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1429783159191781</v>
+        <v>-0.1504871313602854</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>6.269828288196017e-08</v>
+        <v>9.164749620632746e-11</v>
       </c>
       <c r="G34" t="n">
-        <v>1.00727180191069e-24</v>
+        <v>7.476941562917505e-67</v>
       </c>
     </row>
     <row r="35">
@@ -2234,22 +2176,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01267830494687433</v>
+        <v>0.01055647687740082</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001437532417215737</v>
+        <v>0.001304463601005542</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001676185250547091</v>
+        <v>0.001756279251960707</v>
       </c>
       <c r="E35" t="n">
-        <v>0.004913127771218949</v>
+        <v>0.004736480588205181</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6378511787943035</v>
+        <v>0.6444927691417095</v>
       </c>
       <c r="G35" t="n">
-        <v>0.456344905282702</v>
+        <v>0.4566149290661724</v>
       </c>
     </row>
     <row r="36">
@@ -2259,22 +2201,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.498163545495941</v>
+        <v>0.01961426987181833</v>
       </c>
       <c r="C36" t="n">
-        <v>0.257496731080623</v>
+        <v>0.002422059694142843</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3385870175024437</v>
+        <v>-0.001225454788328607</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06727603000197414</v>
+        <v>0.06603017557740444</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7742564259861208</v>
+        <v>0.7471652285119614</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6490419698429071</v>
+        <v>0.8312150167361947</v>
       </c>
     </row>
     <row r="37">
@@ -2284,22 +2226,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.241215256972556</v>
+        <v>-0.007123231035581742</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.07938655078146194</v>
+        <v>-0.003080976850960785</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9299536954695051</v>
+        <v>0.0093539968633513</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2084280747838269</v>
+        <v>0.4143061701436016</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8809374466536712</v>
+        <v>0.5764928990709095</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03620333798635803</v>
+        <v>0.03038970353303146</v>
       </c>
     </row>
   </sheetData>
@@ -2365,22 +2307,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.520928308231221</v>
+        <v>-2.264100188588676</v>
       </c>
       <c r="C2" t="n">
-        <v>3.326592304526989</v>
+        <v>3.176983596179494</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1929257795702281</v>
+        <v>-0.03347534398096873</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003301172146564692</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.760477860189227e-08</v>
-      </c>
+        <v>0.4613714370148518</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.6834234004595737</v>
+        <v>0.8450879786375886</v>
       </c>
     </row>
     <row r="3">
@@ -2390,22 +2330,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1140297293920606</v>
+        <v>0.1039270926635763</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0540566054009437</v>
+        <v>0.03005120198773155</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2086701471186173</v>
+        <v>-0.182902285470023</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6084887595393267</v>
+        <v>0.6610654917858785</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6675082292986969</v>
+        <v>0.8091977534052741</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05158576986181697</v>
+        <v>0.08802159372511908</v>
       </c>
     </row>
     <row r="4">
@@ -2415,22 +2355,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1543307137007014</v>
+        <v>0.05815003122449583</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07207038513583487</v>
+        <v>0.1115595295410273</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5332557311712411</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.6583884881321661</v>
-      </c>
+        <v>-0.3787480175036407</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.7715238832912654</v>
+        <v>0.6558013707848009</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0120195549860461</v>
+        <v>0.0993649426230772</v>
       </c>
     </row>
     <row r="5">
@@ -2440,22 +2378,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02691805747608759</v>
+        <v>-0.06479003029154382</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2515000676276583</v>
+        <v>-0.1585976830517546</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3263944985492173</v>
+        <v>-0.3157708993826282</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9315993311484796</v>
+        <v>0.9116659428760271</v>
       </c>
       <c r="F5" t="n">
-        <v>0.18694078433259</v>
+        <v>0.4450273154776619</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04088567411928659</v>
+        <v>0.07237332315302641</v>
       </c>
     </row>
     <row r="6">
@@ -2465,22 +2403,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7965862180018581</v>
+        <v>0.5361268302097397</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01066003403588381</v>
+        <v>-0.003818700888171266</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06588819978938858</v>
+        <v>0.1627688074743204</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02492088417736384</v>
+        <v>0.3896344940423327</v>
       </c>
       <c r="F6" t="n">
-        <v>0.978288533163298</v>
+        <v>0.9933511468281782</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7124578566339945</v>
+        <v>0.3743300207337151</v>
       </c>
     </row>
     <row r="7">
@@ -2490,22 +2428,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4730641974517622</v>
+        <v>-0.4194394725746202</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5885523607926331</v>
+        <v>-0.5109459532997064</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.59178397388367</v>
+        <v>-0.5146043174169598</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05734188150533401</v>
+        <v>0.08888376977845426</v>
       </c>
       <c r="F7" t="n">
-        <v>7.618336924525832e-05</v>
+        <v>0.001182897367752809</v>
       </c>
       <c r="G7" t="n">
-        <v>2.503120868735005e-06</v>
+        <v>0.0002142624778893805</v>
       </c>
     </row>
     <row r="8">
@@ -2515,22 +2453,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5581357792367364</v>
+        <v>0.5210025651821659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1693915155131453</v>
+        <v>0.09106566899354604</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04594263157617735</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.01166469158804339</v>
-      </c>
+        <v>-0.00997023729588236</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.3267048675110209</v>
+        <v>0.6305347324023876</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7251135211705725</v>
+        <v>0.9404192882134537</v>
       </c>
     </row>
     <row r="9">
@@ -2540,22 +2476,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5363505154397294</v>
+        <v>0.3633063448478133</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3328839877239881</v>
+        <v>0.2451898359134091</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1094723659316666</v>
+        <v>-0.1559622888633214</v>
       </c>
       <c r="E9" t="n">
-        <v>0.007037237914500692</v>
+        <v>0.5350926269802534</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03058841218300905</v>
+        <v>0.1200146401214192</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3708563823964236</v>
+        <v>0.2040760038481404</v>
       </c>
     </row>
     <row r="10">
@@ -2565,22 +2501,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.4787712442732003</v>
+        <v>-0.2529124342927899</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08553846752194502</v>
+        <v>0.14254264458084</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1139117697051131</v>
+        <v>0.1506166218231701</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00691332371950807</v>
+        <v>0.04007190042714127</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4207299452324444</v>
+        <v>0.1990754435663356</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1562079529988888</v>
+        <v>0.06928201746648982</v>
       </c>
     </row>
     <row r="11">
@@ -2590,19 +2526,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.762128904097868</v>
+        <v>1.303009491554394</v>
       </c>
       <c r="C11" t="n">
-        <v>1.773011863705405</v>
+        <v>1.592419109150812</v>
       </c>
       <c r="D11" t="n">
-        <v>1.5304516151564</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>1.56819138578998</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.825007535804642e-10</v>
+      </c>
       <c r="F11" t="n">
-        <v>2.407490337868575e-41</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>5.32279444618138e-18</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.13238490884674e-27</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2611,22 +2551,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.046374433289018</v>
+        <v>0.8674622262823979</v>
       </c>
       <c r="C12" t="n">
-        <v>1.490900263860429</v>
+        <v>1.416784255156244</v>
       </c>
       <c r="D12" t="n">
-        <v>2.233035497021412</v>
+        <v>2.388539390918123</v>
       </c>
       <c r="E12" t="n">
-        <v>1.022232498286324e-06</v>
+        <v>0.1068350196886809</v>
       </c>
       <c r="F12" t="n">
-        <v>1.863336948890547e-09</v>
+        <v>9.114467607745533e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>1.618059189399452e-64</v>
+        <v>5.438733909913163e-30</v>
       </c>
     </row>
     <row r="13">
@@ -2636,20 +2576,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.224708319333895</v>
+        <v>0.9582831299171514</v>
       </c>
       <c r="C13" t="n">
-        <v>1.311109407172851</v>
+        <v>1.250228103504581</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7675955394386215</v>
+        <v>0.9341519514553057</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>3.836003998561453e-18</v>
+        <v>6.820471104988516e-10</v>
       </c>
       <c r="G13" t="n">
-        <v>6.520280592173734e-12</v>
+        <v>9.159605398766083e-08</v>
       </c>
     </row>
     <row r="14">
@@ -2659,20 +2599,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.994752124744503</v>
+        <v>1.684581241026798</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9195590232503629</v>
+        <v>0.8339692965344321</v>
       </c>
       <c r="D14" t="n">
-        <v>1.989957884511947</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
+        <v>2.062685379439212</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0002125179693221299</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.538239814560184e-08</v>
+        <v>5.622592447161791e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>5.875353781024558e-189</v>
+        <v>2.715138822237334e-52</v>
       </c>
     </row>
     <row r="15">
@@ -2682,21 +2624,21 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.415001044386192</v>
+        <v>0.8968960531924383</v>
       </c>
       <c r="C15" t="n">
-        <v>1.248179996161457</v>
+        <v>0.8304742367404944</v>
       </c>
       <c r="D15" t="n">
-        <v>1.244191601842933</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.008608514230555524</v>
-      </c>
+        <v>0.7528750623506418</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>0.001330895828093797</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>0.1007506463702236</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03668770652792352</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2705,22 +2647,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1036611265501646</v>
+        <v>0.04624487189958599</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6124597984122621</v>
+        <v>0.6402206393679909</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4171750868120029</v>
+        <v>0.470234867609495</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7076716061328152</v>
+        <v>0.8586492959310372</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0002117120519772314</v>
+        <v>4.19395775095239e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002744800266832598</v>
+        <v>0.0008738235263530761</v>
       </c>
     </row>
     <row r="17">
@@ -2730,22 +2672,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8307846515505437</v>
+        <v>0.7783705294982581</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1556951692631216</v>
+        <v>-0.1912423527401909</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4890673316969453</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9999999999999979</v>
-      </c>
+        <v>-0.4518207945955986</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.9999999977460949</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9999999926716554</v>
+        <v>0.999999978103766</v>
       </c>
     </row>
     <row r="18">
@@ -2755,22 +2695,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.114962643259334</v>
+        <v>-0.2839798429707726</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1663000545501314</v>
+        <v>0.1050654368382841</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4938933306605813</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.685697577463745</v>
-      </c>
+        <v>0.5942144797752277</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.3616455455625425</v>
+        <v>0.5342233236218636</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0006698405417537544</v>
+        <v>8.135653965491883e-08</v>
       </c>
     </row>
     <row r="19">
@@ -2780,22 +2718,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8073493909576163</v>
+        <v>1.086660868854717</v>
       </c>
       <c r="C19" t="n">
-        <v>0.331054462439602</v>
+        <v>0.2633515698344489</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9137720644682241</v>
+        <v>0.8742012654081871</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02107519635382849</v>
+        <v>2.866572905947073e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.227583378224014</v>
+        <v>0.2954205005482478</v>
       </c>
       <c r="G19" t="n">
-        <v>1.652968503098062e-06</v>
+        <v>6.655641948611935e-07</v>
       </c>
     </row>
     <row r="20">
@@ -2805,22 +2743,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.071178207505149</v>
+        <v>1.275038898714827</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3365871421554702</v>
+        <v>0.315903145738787</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9735203195803408</v>
+        <v>0.9280528545604199</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01688977700523193</v>
+        <v>0.02624558921125195</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3118714923436245</v>
+        <v>0.2818537222778635</v>
       </c>
       <c r="G20" t="n">
-        <v>2.137087953247259e-05</v>
+        <v>5.938423585011035e-07</v>
       </c>
     </row>
     <row r="21">
@@ -2830,22 +2768,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.216778610044416</v>
+        <v>1.020872138045927</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2261063628689594</v>
+        <v>0.3153622246123651</v>
       </c>
       <c r="D21" t="n">
-        <v>0.486137069569612</v>
+        <v>0.5294297017602907</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01283127328763008</v>
+        <v>0.0451137198739467</v>
       </c>
       <c r="F21" t="n">
-        <v>0.585075488762445</v>
+        <v>0.4468874213905719</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08468210844263131</v>
+        <v>0.07798687315127208</v>
       </c>
     </row>
     <row r="22">
@@ -2855,22 +2793,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.094636652785151</v>
+        <v>-1.296015133167217</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.709306278830112</v>
+        <v>-0.6876596203365413</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.251623919880366</v>
+        <v>-1.176972784014924</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02851895468995069</v>
+        <v>0.01327951527337756</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0192184812559934</v>
+        <v>0.02610179926165249</v>
       </c>
       <c r="G22" t="n">
-        <v>7.254583013962159e-08</v>
+        <v>2.205343495042142e-06</v>
       </c>
     </row>
     <row r="23">
@@ -2880,22 +2818,20 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8307730187875566</v>
+        <v>0.7783772507894773</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1556945636276698</v>
+        <v>-0.1912430315035057</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.4890675108447977</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9999999999999979</v>
-      </c>
+        <v>-0.4518208138669599</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>0.9999999977461037</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9999999926716527</v>
+        <v>0.9999999781037651</v>
       </c>
     </row>
     <row r="24">
@@ -2905,22 +2841,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5208327975482271</v>
+        <v>0.3436280145398711</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001089993240956029</v>
+        <v>0.003044476061288568</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4241798046564811</v>
+        <v>0.4731124300923859</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01991948479823085</v>
+        <v>0.1292592176454483</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9932596448719946</v>
+        <v>0.9806593066367021</v>
       </c>
       <c r="G24" t="n">
-        <v>9.524175558388933e-06</v>
+        <v>4.332306739556095e-07</v>
       </c>
     </row>
     <row r="25">
@@ -2930,22 +2866,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.204868733628579</v>
+        <v>0.9762948869494751</v>
       </c>
       <c r="C25" t="n">
-        <v>0.008892162272501647</v>
+        <v>0.01580975902103974</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4320299209716159</v>
+        <v>0.5112062933274034</v>
       </c>
       <c r="E25" t="n">
-        <v>1.949751551050467e-09</v>
+        <v>5.186528985619103e-08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.944152404579321</v>
+        <v>0.8924757959859995</v>
       </c>
       <c r="G25" t="n">
-        <v>5.307602428370574e-06</v>
+        <v>2.716178796525279e-08</v>
       </c>
     </row>
     <row r="26">
@@ -2955,22 +2891,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.2668513440443926</v>
+        <v>-0.06655382769868366</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3532607930513052</v>
+        <v>-0.3291338968708614</v>
       </c>
       <c r="D26" t="n">
-        <v>0.127634749116695</v>
+        <v>0.05947099485258608</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7246618797372268</v>
+        <v>0.9532781529673415</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3534981804271786</v>
+        <v>0.3681551235950615</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6584132457285335</v>
+        <v>0.8374710193761998</v>
       </c>
     </row>
     <row r="27">
@@ -2980,22 +2916,20 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1192308302367982</v>
+        <v>-0.1608318072398965</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2332317611944174</v>
+        <v>0.2025966155082575</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5433775247420606</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.3785623702614485</v>
-      </c>
+        <v>0.4823679342485233</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.01312765926796085</v>
+        <v>0.03003211156829145</v>
       </c>
       <c r="G27" t="n">
-        <v>3.604903853663176e-15</v>
+        <v>4.155439595521956e-11</v>
       </c>
     </row>
     <row r="28">
@@ -3005,23 +2939,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.003762154670410309</v>
+        <v>0.0006932443894491478</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.006700359647860831</v>
+        <v>-0.007371055887260995</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01566061903883555</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.5999047456898612</v>
-      </c>
+        <v>-0.01669186213008532</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.1917267659965729</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.394927108711817e-05</v>
-      </c>
+        <v>0.03642365704419295</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3030,22 +2960,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0002117236266719557</v>
+        <v>-0.0002078209393583528</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.001008978384736193</v>
+        <v>-0.0010127587561354</v>
       </c>
       <c r="D29" t="n">
-        <v>-9.216553416461389e-06</v>
+        <v>-3.485291946213924e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>2.86127767095812e-28</v>
+        <v>2.74428027006804e-50</v>
       </c>
       <c r="F29" t="n">
-        <v>3.800329502078265e-189</v>
+        <v>6.24445090754797e-189</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02912454430644196</v>
+        <v>0.3408588025257214</v>
       </c>
     </row>
     <row r="30">
@@ -3055,22 +2985,20 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.917296135085569</v>
+        <v>-1.698786952093621</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.925886729665497</v>
+        <v>-1.818750517105209</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.151693090913073</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.462519430683698e-22</v>
-      </c>
+        <v>-2.078969152485369</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>5.325436988115923e-37</v>
+        <v>9.080188465945742e-33</v>
       </c>
       <c r="G30" t="n">
-        <v>2.827148101916881e-67</v>
+        <v>9.964163178723054e-65</v>
       </c>
     </row>
     <row r="31">
@@ -3080,22 +3008,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1941076478123946</v>
+        <v>0.1312327787772133</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.02984672199667068</v>
+        <v>-0.02089524452113007</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.001822898117251167</v>
+        <v>0.004465470262483103</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0005479225622043182</v>
+        <v>0.03579737937180139</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5129849708869494</v>
+        <v>0.6629124639445354</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9559178080412181</v>
+        <v>0.9076449427531175</v>
       </c>
     </row>
     <row r="32">
@@ -3105,22 +3033,20 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.753450317811316e-06</v>
+        <v>-0.001201432011095114</v>
       </c>
       <c r="C32" t="n">
-        <v>2.361876527684146e-05</v>
+        <v>0.001657348097013907</v>
       </c>
       <c r="D32" t="n">
-        <v>3.600371218378633e-05</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.8019498723694178</v>
-      </c>
+        <v>0.003552005623483824</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.1107341652297924</v>
+        <v>0.1824498079505829</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002668977263166618</v>
+        <v>1.126979383539655e-05</v>
       </c>
     </row>
     <row r="33">
@@ -3130,22 +3056,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.07990525123207069</v>
+        <v>0.07072820953503089</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.006491425119246437</v>
+        <v>0.01967608650817187</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002558525368011939</v>
+        <v>0.006048833630423688</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05476765052717508</v>
+        <v>0.06350953990150555</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8151520993244963</v>
+        <v>0.4605427082762162</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9057948065313123</v>
+        <v>0.7769859999557381</v>
       </c>
     </row>
     <row r="34">
@@ -3155,22 +3081,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.1026390730062515</v>
+        <v>-0.1098640407625336</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.126891235205129</v>
+        <v>-0.1384583223842627</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1504871313602853</v>
+        <v>-0.1627641430874294</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002323351515361254</v>
+        <v>0.03296181130256883</v>
       </c>
       <c r="F34" t="n">
-        <v>2.272077282735532e-08</v>
+        <v>2.272930102297268e-10</v>
       </c>
       <c r="G34" t="n">
-        <v>1.177872672670735e-16</v>
+        <v>7.019444835942096e-20</v>
       </c>
     </row>
     <row r="35">
@@ -3180,22 +3106,20 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01055647687740078</v>
+        <v>0.01211959272193468</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001304463601005539</v>
+        <v>0.002574334504782079</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001756279251960701</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.02573452316202545</v>
-      </c>
+        <v>0.003144320915855478</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>0.6759140622260644</v>
+        <v>0.3593545827344869</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4930696651412622</v>
+        <v>0.0642561572560759</v>
       </c>
     </row>
     <row r="36">
@@ -3205,22 +3129,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.961426987181837</v>
+        <v>0.02819528854190157</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2422059694142908</v>
+        <v>0.007157703076680772</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1225454788328549</v>
+        <v>-0.002035857669949692</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07647379496503488</v>
+        <v>0.005252148557387834</v>
       </c>
       <c r="F36" t="n">
-        <v>0.750091295024927</v>
+        <v>0.3277882780183211</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8376285955015014</v>
+        <v>0.7146767657597036</v>
       </c>
     </row>
     <row r="37">
@@ -3230,22 +3154,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.712323103558175</v>
+        <v>-0.01612833275173637</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.3080976850960822</v>
+        <v>-0.002978999060689871</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9353996863351302</v>
+        <v>0.007924371645459694</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4085455815398503</v>
+        <v>0.07750388047452958</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5861529502705114</v>
+        <v>0.5991376855036108</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04219723764297764</v>
+        <v>0.07782501033484564</v>
       </c>
     </row>
   </sheetData>
@@ -3311,22 +3235,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.264100188588673</v>
+        <v>-2.452894742434019</v>
       </c>
       <c r="C2" t="n">
-        <v>3.176983596179499</v>
+        <v>2.720804571573347</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.03347534398096512</v>
+        <v>0.1076941304877872</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06727923792785902</v>
+        <v>0.01205428497919446</v>
       </c>
       <c r="F2" t="n">
-        <v>3.994293372723669e-06</v>
+        <v>5.349631342671259e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9543688033987539</v>
+        <v>0.8340516731493237</v>
       </c>
     </row>
     <row r="3">
@@ -3336,22 +3260,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1039270926635764</v>
+        <v>0.1307838189461054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03005120198773131</v>
+        <v>0.05626481057927501</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.182902285470023</v>
+        <v>-0.2124979315254401</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4453230752819174</v>
+        <v>0.6870111585448853</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8062760773502562</v>
+        <v>0.6963431643753517</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07887857986794646</v>
+        <v>0.04377194415397984</v>
       </c>
     </row>
     <row r="4">
@@ -3361,22 +3285,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05815003122449573</v>
+        <v>-0.05530538019807163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1115595295410275</v>
+        <v>0.08390986773882368</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3787480175036408</v>
+        <v>-0.5417212078474163</v>
       </c>
       <c r="E4" t="n">
-        <v>0.849493895192124</v>
+        <v>0.9351702559815489</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6541513632082616</v>
+        <v>0.72319472102039</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07313351966367988</v>
+        <v>0.01872616686478143</v>
       </c>
     </row>
     <row r="5">
@@ -3386,22 +3310,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06479003029154369</v>
+        <v>0.05237143458146881</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1585976830517546</v>
+        <v>0.03224958994313794</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3157708993826282</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8325038878726486</v>
-      </c>
+        <v>-0.2111471463981987</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.3979406956416407</v>
+        <v>0.8481888965927693</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06626608154694892</v>
+        <v>0.1562521704494352</v>
       </c>
     </row>
     <row r="6">
@@ -3411,22 +3333,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5361268302097396</v>
+        <v>0.826635320397706</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00381870088817149</v>
+        <v>0.3089384860827951</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1627688074743201</v>
+        <v>0.1113175374942807</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07907488883576365</v>
+        <v>4.953047503566733e-20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9924047296196329</v>
+        <v>0.437461108580301</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3898446520297848</v>
+        <v>0.5066061960946933</v>
       </c>
     </row>
     <row r="7">
@@ -3436,22 +3358,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4194394725746204</v>
+        <v>-0.4173838643632261</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5109459532997065</v>
+        <v>-0.4789641034010263</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5146043174169599</v>
+        <v>-0.4894278211570091</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07137398589015526</v>
+        <v>0.02539627249455826</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003307763705828977</v>
+        <v>0.001140332331058016</v>
       </c>
       <c r="G7" t="n">
-        <v>1.277905729688439e-05</v>
+        <v>9.250802348684068e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3461,22 +3383,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.521002565182166</v>
+        <v>0.4882982756491181</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09106566899354578</v>
+        <v>0.1104393700898776</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.009970237295882416</v>
+        <v>-0.02976381264699083</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06325509236575491</v>
+        <v>0.1184979535875643</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5977770437714494</v>
+        <v>0.4044878689570676</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9348898115241495</v>
+        <v>0.6767780910401202</v>
       </c>
     </row>
     <row r="9">
@@ -3486,22 +3408,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3633063448478128</v>
+        <v>0.4000824118863134</v>
       </c>
       <c r="C9" t="n">
-        <v>0.245189835913409</v>
+        <v>0.1892168652521628</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1559622888633217</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.03960474569923762</v>
-      </c>
+        <v>-0.1705424086413711</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.06836068035285782</v>
+        <v>0.186234018498892</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03441236680336198</v>
+        <v>0.120336428467268</v>
       </c>
     </row>
     <row r="10">
@@ -3511,22 +3431,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2529124342927899</v>
+        <v>-0.3655207559214568</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1425426445808395</v>
+        <v>0.1890003595724185</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1506166218231699</v>
+        <v>0.1097948381669196</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1197397537587835</v>
+        <v>0.6353544043877219</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1677236645129436</v>
+        <v>0.02725428817267167</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0407388911140311</v>
+        <v>0.08227238835131523</v>
       </c>
     </row>
     <row r="11">
@@ -3536,22 +3456,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.303009491554394</v>
+        <v>1.251937380653103</v>
       </c>
       <c r="C11" t="n">
-        <v>1.592419109150812</v>
+        <v>1.670732847086735</v>
       </c>
       <c r="D11" t="n">
-        <v>1.568191385789979</v>
+        <v>1.498577351947396</v>
       </c>
       <c r="E11" t="n">
-        <v>3.02286416888755e-05</v>
+        <v>1.937541132101067e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>2.026221069803914e-20</v>
+        <v>1.017183960267343e-23</v>
       </c>
       <c r="G11" t="n">
-        <v>1.020551275568063e-19</v>
+        <v>1.56770346896259e-25</v>
       </c>
     </row>
     <row r="12">
@@ -3561,22 +3481,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8674622262823972</v>
+        <v>0.8471219387389082</v>
       </c>
       <c r="C12" t="n">
-        <v>1.416784255156243</v>
+        <v>1.439437897339499</v>
       </c>
       <c r="D12" t="n">
-        <v>2.388539390918122</v>
+        <v>2.299367662658501</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06837011007510586</v>
+        <v>0.1255107933066192</v>
       </c>
       <c r="F12" t="n">
-        <v>2.826069491358391e-07</v>
+        <v>2.464323805603267e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>1.344370039772509e-25</v>
+        <v>3.010821971503963e-20</v>
       </c>
     </row>
     <row r="13">
@@ -3586,22 +3506,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9582831299171508</v>
+        <v>0.7700302838088828</v>
       </c>
       <c r="C13" t="n">
-        <v>1.25022810350458</v>
+        <v>1.234855354591951</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9341519514553048</v>
+        <v>0.833185258593672</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01036960079916591</v>
+        <v>0.1629722256457919</v>
       </c>
       <c r="F13" t="n">
-        <v>8.09648496832085e-12</v>
+        <v>1.984798637709915e-12</v>
       </c>
       <c r="G13" t="n">
-        <v>1.862521661630952e-06</v>
+        <v>2.360450778060533e-08</v>
       </c>
     </row>
     <row r="14">
@@ -3611,22 +3531,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.684581241026798</v>
+        <v>1.594758184589931</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8339692965344317</v>
+        <v>0.8907087948944369</v>
       </c>
       <c r="D14" t="n">
-        <v>2.062685379439212</v>
+        <v>2.083822608863846</v>
       </c>
       <c r="E14" t="n">
-        <v>7.271031678832236e-06</v>
+        <v>1.668391670470098e-10</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0001281784311856513</v>
+        <v>1.631365681623004e-06</v>
       </c>
       <c r="G14" t="n">
-        <v>9.788456534501906e-26</v>
+        <v>4.356197854967768e-53</v>
       </c>
     </row>
     <row r="15">
@@ -3636,22 +3556,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8968960531924381</v>
+        <v>0.9393239628348399</v>
       </c>
       <c r="C15" t="n">
-        <v>0.830474236740494</v>
+        <v>1.075374264217606</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7528750623506412</v>
+        <v>1.298412233496391</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1949579529052189</v>
+        <v>0.03852200137480986</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07525105261279441</v>
+        <v>0.01694463863941641</v>
       </c>
       <c r="G15" t="n">
-        <v>0.052966674031438</v>
+        <v>0.0001996582336678572</v>
       </c>
     </row>
     <row r="16">
@@ -3661,22 +3581,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04624487189958618</v>
+        <v>0.09384452769192575</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6402206393679912</v>
+        <v>0.6304366874385449</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4702348676094952</v>
+        <v>0.4936282060786795</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8610740804301008</v>
+        <v>0.5696078537403488</v>
       </c>
       <c r="F16" t="n">
-        <v>9.748350629094747e-05</v>
+        <v>0.000190939529832247</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0008114701236383974</v>
+        <v>0.0002528316951636593</v>
       </c>
     </row>
     <row r="17">
@@ -3686,18 +3606,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7783779407076948</v>
+        <v>0.7682093289109999</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1912426758334267</v>
+        <v>-0.4486436100159411</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4518206233871794</v>
+        <v>-0.7639249027569117</v>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>0.9999999962125261</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3707,22 +3625,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2839798429707724</v>
+        <v>-0.3239771400765578</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1050654368382856</v>
+        <v>0.3421348395584308</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5942144797752282</v>
+        <v>0.5778023405102124</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1885953630866726</v>
+        <v>0.2670152011979295</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5210757600522576</v>
+        <v>0.04397148025413549</v>
       </c>
       <c r="G18" t="n">
-        <v>4.734336559080846e-07</v>
+        <v>1.402934598285651e-05</v>
       </c>
     </row>
     <row r="19">
@@ -3732,22 +3650,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.086660868854717</v>
+        <v>1.045769885107279</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2633515698344483</v>
+        <v>0.2161535106145361</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8742012654081875</v>
+        <v>0.8749794758919279</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001142769588385931</v>
+        <v>9.578007877258005e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3045822850152359</v>
+        <v>0.4218323956437929</v>
       </c>
       <c r="G19" t="n">
-        <v>7.448414974473668e-07</v>
+        <v>3.982852621686593e-06</v>
       </c>
     </row>
     <row r="20">
@@ -3757,22 +3675,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.275038898714827</v>
+        <v>1.387075896901075</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3159031457387848</v>
+        <v>0.4306553916007487</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9280528545604196</v>
+        <v>1.067994744883899</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002656537508946935</v>
+        <v>0.2350964478690394</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3197528164448534</v>
+        <v>0.2365967711020116</v>
       </c>
       <c r="G20" t="n">
-        <v>4.597553677144503e-06</v>
+        <v>5.235771569484076e-06</v>
       </c>
     </row>
     <row r="21">
@@ -3782,22 +3700,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.020872138045927</v>
+        <v>0.633629934631558</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3153622246123656</v>
+        <v>-0.01396154511689875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.529429701760291</v>
+        <v>0.3742749453661642</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04270867074709373</v>
+        <v>0.5704952169098433</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4473347483052692</v>
+        <v>0.9738982385738204</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07966700922180638</v>
+        <v>0.2577889471322372</v>
       </c>
     </row>
     <row r="22">
@@ -3807,22 +3725,20 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.296015133167217</v>
+        <v>-1.356955352224231</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.687659620336542</v>
+        <v>-0.6381193602384952</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.176972784014924</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.01275144542923302</v>
-      </c>
+        <v>-1.175620238000197</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.02451953716834664</v>
+        <v>0.0003718786110488608</v>
       </c>
       <c r="G22" t="n">
-        <v>1.468432268976584e-06</v>
+        <v>3.03955238439938e-43</v>
       </c>
     </row>
     <row r="23">
@@ -3832,18 +3748,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7783698395800411</v>
+        <v>0.7682137611202002</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1912427084102732</v>
+        <v>-0.4486454075602922</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.4518209850753797</v>
+        <v>-0.7639257954534832</v>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.9999999962125254</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3853,22 +3767,20 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3436280145398711</v>
+        <v>0.3216713923272854</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003044476061287929</v>
+        <v>0.03791204194268701</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4731124300923857</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.08934589596234971</v>
-      </c>
+        <v>0.4192330110786317</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.9807736740178173</v>
+        <v>0.7421877980212814</v>
       </c>
       <c r="G24" t="n">
-        <v>1.731459589017356e-07</v>
+        <v>1.51512182114138e-06</v>
       </c>
     </row>
     <row r="25">
@@ -3878,22 +3790,20 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9762948869494752</v>
+        <v>1.043336508046185</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01580975902103984</v>
+        <v>0.1186914101506657</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5112062933274034</v>
-      </c>
-      <c r="E25" t="n">
-        <v>7.335261637382162e-08</v>
-      </c>
+        <v>0.4724572903754594</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.898482289661452</v>
+        <v>0.2884793057996836</v>
       </c>
       <c r="G25" t="n">
-        <v>3.667583944461238e-08</v>
+        <v>9.98439208182036e-08</v>
       </c>
     </row>
     <row r="26">
@@ -3903,22 +3813,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.06655382769868344</v>
+        <v>0.08274644655475667</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3291338968708616</v>
+        <v>-0.2761607131508874</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05947099485258601</v>
+        <v>0.005593015865875087</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9166971150541403</v>
+        <v>0.9097868803510777</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3703933172996372</v>
+        <v>0.475981211004617</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8379037302405608</v>
+        <v>0.9846083884798218</v>
       </c>
     </row>
     <row r="27">
@@ -3928,22 +3838,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1608318072398966</v>
+        <v>-0.2218084430390583</v>
       </c>
       <c r="C27" t="n">
-        <v>0.202596615508257</v>
+        <v>0.2594227457830877</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4823679342485226</v>
+        <v>0.464877508846506</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2328822739532661</v>
+        <v>0.3632015449580053</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03159699203082982</v>
+        <v>0.006460828182613652</v>
       </c>
       <c r="G27" t="n">
-        <v>7.587407593181677e-12</v>
+        <v>5.339559939233253e-11</v>
       </c>
     </row>
     <row r="28">
@@ -3953,22 +3863,20 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0006932443894491265</v>
+        <v>-0.0006603351877230015</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00737105588726107</v>
+        <v>-0.009548266610365017</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01669186213008535</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.9049408395338289</v>
-      </c>
+        <v>-0.01625156598815366</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.1028240452892769</v>
+        <v>0.006903378182830006</v>
       </c>
       <c r="G28" t="n">
-        <v>5.584555957270262e-10</v>
+        <v>7.073098551298175e-09</v>
       </c>
     </row>
     <row r="29">
@@ -3978,22 +3886,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0002078209393583528</v>
+        <v>-0.0002068789127239226</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0010127587561354</v>
+        <v>-0.001004556575575122</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.485291946213945e-06</v>
+        <v>-6.387496423699997e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>2.096736038486674e-30</v>
+        <v>5.585528761173068e-204</v>
       </c>
       <c r="F29" t="n">
-        <v>8.722763431483949e-185</v>
+        <v>3.739313121480725e-194</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4077930563549215</v>
+        <v>0.1095653037287579</v>
       </c>
     </row>
     <row r="30">
@@ -4003,22 +3911,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.698786952093622</v>
+        <v>-1.809598987282683</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.81875051710521</v>
+        <v>-1.794866459098036</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.07896915248537</v>
+        <v>-2.16488481394539</v>
       </c>
       <c r="E30" t="n">
-        <v>1.131556619171802e-15</v>
+        <v>2.232085108971583e-33</v>
       </c>
       <c r="F30" t="n">
-        <v>5.198107420926916e-30</v>
+        <v>4.070347452951584e-32</v>
       </c>
       <c r="G30" t="n">
-        <v>9.08019138981994e-49</v>
+        <v>8.027309116426928e-65</v>
       </c>
     </row>
     <row r="31">
@@ -4028,22 +3936,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1312327787772128</v>
+        <v>0.1089575980211489</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0208952445211304</v>
+        <v>-0.02269062861719773</v>
       </c>
       <c r="D31" t="n">
-        <v>0.004465470262482695</v>
+        <v>-0.01559060923932996</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02993014368898946</v>
+        <v>0.0005284482354123262</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6470693265884389</v>
+        <v>0.6534047218237108</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8997617144571534</v>
+        <v>0.6819532465546632</v>
       </c>
     </row>
     <row r="32">
@@ -4053,22 +3961,20 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.20143201109511e-05</v>
+        <v>0.001508448476139329</v>
       </c>
       <c r="C32" t="n">
-        <v>1.657348097013906e-05</v>
+        <v>0.003413718493535453</v>
       </c>
       <c r="D32" t="n">
-        <v>3.552005623483822e-05</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5748277502710186</v>
-      </c>
+        <v>0.004289617745916045</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.247826900566544</v>
+        <v>0.01221705113505401</v>
       </c>
       <c r="G32" t="n">
-        <v>0.001166548522696074</v>
+        <v>7.614659354887319e-05</v>
       </c>
     </row>
     <row r="33">
@@ -4078,22 +3984,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0707282095350308</v>
+        <v>0.04315305973297474</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01967608650817184</v>
+        <v>0.01640814066262826</v>
       </c>
       <c r="D33" t="n">
-        <v>0.006048833630423679</v>
+        <v>-0.008857051961577928</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03539454374916792</v>
+        <v>0.1219636664223207</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4496154961774657</v>
+        <v>0.5269112238583276</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6413629740058095</v>
+        <v>0.6067647206097324</v>
       </c>
     </row>
     <row r="34">
@@ -4103,22 +4009,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.1098640407625333</v>
+        <v>-0.08583269238847928</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1384583223842627</v>
+        <v>-0.1239335661049351</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1627641430874294</v>
+        <v>-0.1512167624294701</v>
       </c>
       <c r="E34" t="n">
-        <v>0.001055057812677577</v>
+        <v>0.001787198739437907</v>
       </c>
       <c r="F34" t="n">
-        <v>1.350092430698338e-09</v>
+        <v>6.951835013682224e-09</v>
       </c>
       <c r="G34" t="n">
-        <v>1.045722249696125e-16</v>
+        <v>1.775665761434403e-24</v>
       </c>
     </row>
     <row r="35">
@@ -4128,22 +4034,20 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01211959272193468</v>
+        <v>0.01494638979535727</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002574334504782089</v>
+        <v>0.00384391080026655</v>
       </c>
       <c r="D35" t="n">
-        <v>0.003144320915855495</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.003532827209325232</v>
-      </c>
+        <v>0.003925352987991805</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>0.3598117603502585</v>
+        <v>0.1751916449843403</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03959173793931232</v>
+        <v>0.03964748669026168</v>
       </c>
     </row>
     <row r="36">
@@ -4153,22 +4057,20 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.81952885419016</v>
+        <v>0.02559489928321692</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7157703076680778</v>
+        <v>0.002499543032838711</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.203585766994968</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.02067137491996477</v>
-      </c>
+        <v>-0.002242682838958229</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>0.357167514781871</v>
+        <v>0.7410814465797169</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7648870093603096</v>
+        <v>0.7049866943095981</v>
       </c>
     </row>
     <row r="37">
@@ -4178,22 +4080,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.612833275173636</v>
+        <v>-0.01469075806032647</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2978999060689873</v>
+        <v>-0.004088718569209594</v>
       </c>
       <c r="D37" t="n">
-        <v>0.792437164545968</v>
+        <v>0.004489489325152351</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05621432739223304</v>
+        <v>0.05065539894132929</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6034789139636224</v>
+        <v>0.4707806807451406</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07353055805373275</v>
+        <v>0.3241606285714975</v>
       </c>
     </row>
   </sheetData>
@@ -4259,23 +4161,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.452894742433999</v>
+        <v>-1.830048514722238</v>
       </c>
       <c r="C2" t="n">
-        <v>2.720804571573349</v>
+        <v>3.544051567773334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1076941304877837</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01061919946257044</v>
-      </c>
+        <v>0.1841629688276993</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>3.663211454707524e-07</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7977965688729467</v>
-      </c>
+        <v>0.2418218478836285</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4284,22 +4182,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.130783818946105</v>
+        <v>0.01854347206328491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05626481057927552</v>
+        <v>-0.02130913847048534</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2124979315254399</v>
+        <v>-0.1895369084292791</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6121765438658817</v>
+        <v>0.9462590458994785</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6481955541558879</v>
+        <v>0.4034973371092179</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03304542501762887</v>
+        <v>0.01963265567558528</v>
       </c>
     </row>
     <row r="4">
@@ -4309,22 +4207,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05530538019807188</v>
+        <v>-0.1630449615682419</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08390986773882421</v>
+        <v>-0.1042555425200235</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5417212078474161</v>
+        <v>-0.484994793467695</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8637285442440138</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7320339629815575</v>
-      </c>
+        <v>0.4618584145324488</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.009122572264050367</v>
+        <v>0.03539243744097537</v>
       </c>
     </row>
     <row r="5">
@@ -4334,20 +4230,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05237143458146829</v>
+        <v>-0.1847855576469513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03224958994313846</v>
+        <v>-0.03369258792847958</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2111471463981985</v>
+        <v>-0.2484971555547307</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.8600555654504535</v>
+        <v>0.8588558847472669</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1435892154714145</v>
+        <v>0.3092292355935116</v>
       </c>
     </row>
     <row r="6">
@@ -4357,22 +4253,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8266353203977055</v>
+        <v>0.5307105032649346</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3089384860827957</v>
+        <v>0.02070563585200264</v>
       </c>
       <c r="D6" t="n">
-        <v>0.111317537494281</v>
+        <v>0.1194797393782275</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008402565086235726</v>
+        <v>0.4788662637600951</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4279441216677071</v>
+        <v>0.9564153877118035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5324964818156752</v>
+        <v>0.5091273845397482</v>
       </c>
     </row>
     <row r="7">
@@ -4382,23 +4278,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4173838643632264</v>
+        <v>-0.5143409719300064</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4789641034010264</v>
+        <v>-0.5571656592570783</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4894278211570088</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2671502337448912</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8.040228343545461e-05</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.907814503657468e-11</v>
-      </c>
+        <v>-0.5609256583671861</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4407,20 +4297,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4882982756491173</v>
+        <v>0.498109666810554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1104393700898776</v>
+        <v>0.05332389446276851</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02976381264699107</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>0.07163758697251253</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1819879606654483</v>
+      </c>
       <c r="F8" t="n">
-        <v>0.5201608293784857</v>
+        <v>0.7521681534420027</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8208494463832707</v>
+        <v>0.6389038000497524</v>
       </c>
     </row>
     <row r="9">
@@ -4430,22 +4322,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4000824118863132</v>
+        <v>0.3479529599083294</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1892168652521627</v>
+        <v>0.2125150802187121</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1705424086413713</v>
+        <v>-0.1971508785260084</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1095627677566657</v>
+        <v>0.3700357620741331</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2088024127593956</v>
+        <v>0.1799493571945628</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1585101717701535</v>
+        <v>0.06338527413492034</v>
       </c>
     </row>
     <row r="10">
@@ -4455,22 +4347,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3655207559214572</v>
+        <v>-0.3391956781662804</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1890003595724185</v>
+        <v>0.1174438834358198</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1097948381669196</v>
+        <v>0.1219723069347339</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06363633771663207</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.07682696566591338</v>
-      </c>
+        <v>0.3703894565595601</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>0.1521303206702641</v>
+        <v>0.2219165962998931</v>
       </c>
     </row>
     <row r="11">
@@ -4480,23 +4370,21 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.251937380653102</v>
+        <v>1.380514683680751</v>
       </c>
       <c r="C11" t="n">
-        <v>1.670732847086736</v>
+        <v>1.615505650752971</v>
       </c>
       <c r="D11" t="n">
-        <v>1.498577351947397</v>
+        <v>1.575288449590759</v>
       </c>
       <c r="E11" t="n">
-        <v>3.996909689243722e-05</v>
+        <v>0.02957015817107746</v>
       </c>
       <c r="F11" t="n">
-        <v>2.060408337107658e-19</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.50603653363414e-14</v>
-      </c>
+        <v>3.311705024102966e-15</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4505,23 +4393,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8471219387389071</v>
+        <v>0.7989098809545285</v>
       </c>
       <c r="C12" t="n">
-        <v>1.439437897339499</v>
+        <v>1.444116231399505</v>
       </c>
       <c r="D12" t="n">
-        <v>2.299367662658502</v>
+        <v>2.41704035009265</v>
       </c>
       <c r="E12" t="n">
-        <v>7.26843761893922e-08</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.481896692540357e-08</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5.062231962905398e-61</v>
-      </c>
+        <v>0.03232104506045464</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4530,23 +4414,21 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7700302838088819</v>
+        <v>0.8524871827236503</v>
       </c>
       <c r="C13" t="n">
-        <v>1.234855354591951</v>
+        <v>1.195324443752636</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8331852585936731</v>
+        <v>0.8240039266411099</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02167309303742553</v>
+        <v>0.161542791512167</v>
       </c>
       <c r="F13" t="n">
-        <v>2.802336496150615e-10</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.923943075186593e-05</v>
-      </c>
+        <v>7.631669019008337e-18</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4555,23 +4437,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.59475818458993</v>
+        <v>1.700313702465057</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8907087948944371</v>
+        <v>0.76321994026865</v>
       </c>
       <c r="D14" t="n">
-        <v>2.083822608863847</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.069851930952494e-28</v>
-      </c>
+        <v>2.096778192907866</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>2.206683818910164e-06</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.973721675877127e-70</v>
-      </c>
+        <v>9.642095854847832e-09</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4580,23 +4458,17 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9393239628348383</v>
+        <v>0.9244304111694088</v>
       </c>
       <c r="C15" t="n">
-        <v>1.075374264217606</v>
+        <v>0.5799351914330839</v>
       </c>
       <c r="D15" t="n">
-        <v>1.298412233496392</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.02933836264188532</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.02593846723095591</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.0008341588060705587</v>
-      </c>
+        <v>1.202515256543021</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4605,22 +4477,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09384452769192556</v>
+        <v>0.02232195830167551</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6304366874385451</v>
+        <v>0.6454290296216459</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4936282060786797</v>
+        <v>0.5185937365835801</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6694356427481969</v>
+        <v>0.9566163554293108</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0001070839711887642</v>
+        <v>0.0002078343120530292</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0002598546203204037</v>
+        <v>0.003872212391342518</v>
       </c>
     </row>
     <row r="17">
@@ -4630,18 +4502,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7682085382511732</v>
+        <v>0.6718689700729868</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.448644977676772</v>
+        <v>-0.2714410345577549</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7639252314135011</v>
+        <v>-0.4934270146244379</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999999999969</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
+        <v>0.9999999999999754</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9999999942478828</v>
+      </c>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -4651,20 +4525,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.3239771400765564</v>
+        <v>-0.1203516362927579</v>
       </c>
       <c r="C18" t="n">
-        <v>0.342134839558432</v>
+        <v>0.2413480596139983</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5778023405102134</v>
+        <v>0.6672821600857048</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.07279531739800935</v>
+        <v>0.3300389818864541</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0003310990463651678</v>
+        <v>0.003491662091789609</v>
       </c>
     </row>
     <row r="19">
@@ -4674,23 +4548,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.045769885107278</v>
+        <v>0.8551990692976253</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2161535106145358</v>
+        <v>0.3286192522864937</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8749794758919277</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1624478880571382</v>
-      </c>
+        <v>0.919421972944063</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.4127773125399222</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5.303049841576469e-06</v>
-      </c>
+        <v>0.2491227074345654</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4699,19 +4569,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.387075896901073</v>
+        <v>1.336944105576876</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4306553916007483</v>
+        <v>0.4634993063819663</v>
       </c>
       <c r="D20" t="n">
-        <v>1.067994744883898</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
+        <v>1.048623161959449</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1077453347857465</v>
+      </c>
       <c r="F20" t="n">
-        <v>0.07891842412947442</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>0.5134421007153196</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0114816366266952</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4720,20 +4594,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6336299346315575</v>
+        <v>0.6217887190454989</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01396154511689895</v>
+        <v>0.001684384998797763</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3742749453661647</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+        <v>0.3605635190154378</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5890977285163439</v>
+      </c>
       <c r="F21" t="n">
-        <v>0.9733059568693258</v>
+        <v>0.9979243174472255</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1965753838694719</v>
+        <v>0.4145228375424752</v>
       </c>
     </row>
     <row r="22">
@@ -4743,22 +4619,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.356955352224232</v>
+        <v>-1.888804442438471</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6381193602384959</v>
+        <v>-0.8161038607853849</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.175620238000197</v>
+        <v>-1.155913194990414</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3139742514111944</v>
+        <v>0.007297151236109028</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04137634492250792</v>
+        <v>0.03248659619957216</v>
       </c>
       <c r="G22" t="n">
-        <v>1.174893662620268e-06</v>
+        <v>8.536686797326117e-05</v>
       </c>
     </row>
     <row r="23">
@@ -4768,18 +4644,18 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7682145517800241</v>
+        <v>0.6718710984472837</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4486440398994632</v>
+        <v>-0.2714456411919908</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.7639254667968942</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9999999999999969</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+        <v>-0.4934269781363197</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.9999999942477852</v>
+      </c>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -4789,20 +4665,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3216713923272846</v>
+        <v>0.2945573208614776</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03791204194268739</v>
+        <v>-0.07691407833727577</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4192330110786318</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+        <v>0.3542007902948839</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3280248820360258</v>
+      </c>
       <c r="F24" t="n">
-        <v>0.7684747424900009</v>
+        <v>0.6239538119893917</v>
       </c>
       <c r="G24" t="n">
-        <v>2.53373093676368e-05</v>
+        <v>0.01288812610566095</v>
       </c>
     </row>
     <row r="25">
@@ -4812,22 +4690,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.043336508046184</v>
+        <v>1.029699986502147</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1186914101506652</v>
+        <v>0.07121565305303292</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4724572903754595</v>
+        <v>0.4553793598296872</v>
       </c>
       <c r="E25" t="n">
-        <v>4.206092888726979e-64</v>
+        <v>0.1453564276700024</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3489310899545101</v>
+        <v>0.7096427658174074</v>
       </c>
       <c r="G25" t="n">
-        <v>1.63838222807558e-06</v>
+        <v>0.003391554041145673</v>
       </c>
     </row>
     <row r="26">
@@ -4837,22 +4715,20 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.08274644655475587</v>
+        <v>-0.03392199742232849</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2761607131508871</v>
+        <v>-0.4040977877670083</v>
       </c>
       <c r="D26" t="n">
-        <v>0.005593015865875173</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.8817859797252041</v>
-      </c>
+        <v>-0.07492901744145482</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0.4790627709504133</v>
+        <v>0.3764238113784432</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9847513220374705</v>
+        <v>0.818917188495309</v>
       </c>
     </row>
     <row r="27">
@@ -4862,22 +4738,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.2218084430390584</v>
+        <v>-0.136434496916682</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2594227457830882</v>
+        <v>0.2321869107377632</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4648775088465068</v>
+        <v>0.4653743904802335</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1049084368533775</v>
+        <v>0.3291578310214349</v>
       </c>
       <c r="F27" t="n">
-        <v>0.005782105942381759</v>
+        <v>0.01282433000412425</v>
       </c>
       <c r="G27" t="n">
-        <v>1.802572837459958e-11</v>
+        <v>6.203856090502943e-13</v>
       </c>
     </row>
     <row r="28">
@@ -4887,22 +4763,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0006603351877230863</v>
+        <v>-0.004263199318956042</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00954826661036506</v>
+        <v>-0.007929782252401001</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01625156598815368</v>
+        <v>-0.01633820851153796</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9750899470284261</v>
+        <v>0.2728528410003218</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0232320011697159</v>
+        <v>0.2252790596332854</v>
       </c>
       <c r="G28" t="n">
-        <v>5.074060680451783e-26</v>
+        <v>0.01162377223596472</v>
       </c>
     </row>
     <row r="29">
@@ -4912,22 +4788,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0002068789127239226</v>
+        <v>-0.0002075218357478339</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.001004556575575122</v>
+        <v>-0.001011908131897131</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.387496423699994e-06</v>
+        <v>-4.155604581585441e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>8.372409225265722e-26</v>
+        <v>1.64455739631052e-103</v>
       </c>
       <c r="F29" t="n">
-        <v>9.859486556371296e-190</v>
+        <v>2.078578757875592e-163</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1369621570031216</v>
+        <v>0.09705104620583084</v>
       </c>
     </row>
     <row r="30">
@@ -4937,20 +4813,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.809598987282684</v>
+        <v>-1.904976062292785</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.794866459098036</v>
+        <v>-1.903506144303013</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.164884813945391</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
+        <v>-2.213902607388879</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.896658670842499e-14</v>
+      </c>
       <c r="F30" t="n">
-        <v>8.766354315279693e-36</v>
+        <v>1.074772434983966e-12</v>
       </c>
       <c r="G30" t="n">
-        <v>1.898565978459292e-73</v>
+        <v>4.415273818708062e-67</v>
       </c>
     </row>
     <row r="31">
@@ -4960,22 +4838,20 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1089575980211489</v>
+        <v>0.1020452768520444</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.02269062861719792</v>
+        <v>-0.04624118295398014</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.01559060923932998</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.2572504534288668</v>
-      </c>
+        <v>-0.003816969460191903</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>0.6209564908264837</v>
+        <v>0.1394272955420425</v>
       </c>
       <c r="G31" t="n">
-        <v>0.664854085052726</v>
+        <v>0.8030357541585836</v>
       </c>
     </row>
     <row r="32">
@@ -4985,23 +4861,21 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.508448476139308e-05</v>
+        <v>0.0002783191223639815</v>
       </c>
       <c r="C32" t="n">
-        <v>3.413718493535451e-05</v>
+        <v>0.002071653669875695</v>
       </c>
       <c r="D32" t="n">
-        <v>4.289617745916052e-05</v>
+        <v>0.003774443569292355</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6780558996775795</v>
+        <v>0.944495697508727</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02592639011645614</v>
-      </c>
-      <c r="G32" t="n">
-        <v>7.985645466401846e-05</v>
-      </c>
+        <v>0.1864747859672526</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5010,22 +4884,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04315305973297474</v>
+        <v>0.03267036443922697</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01640814066262831</v>
+        <v>0.0008165682136512717</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.008857051961578016</v>
+        <v>-0.01333926908759533</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1271288970029119</v>
+        <v>0.5478289550698106</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5344756567029261</v>
+        <v>0.9809684295165237</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6497087532974168</v>
+        <v>0.70227254458134</v>
       </c>
     </row>
     <row r="34">
@@ -5035,23 +4909,21 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.08583269238847928</v>
+        <v>-0.07458667165081394</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1239335661049352</v>
+        <v>-0.1323783572504302</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1512167624294699</v>
+        <v>-0.1557774183635822</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1987881752019783</v>
+        <v>0.1201893010291068</v>
       </c>
       <c r="F34" t="n">
-        <v>2.390332117503155e-07</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.259836706233463e-13</v>
-      </c>
+        <v>0.00116883708922236</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5060,21 +4932,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01494638979535717</v>
+        <v>0.01134877082031267</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003843910800266553</v>
+        <v>0.001629173324735515</v>
       </c>
       <c r="D35" t="n">
-        <v>0.003925352987991812</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="n">
-        <v>0.2077651707415034</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.09485453355340169</v>
-      </c>
+        <v>0.003056428020463609</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.06052216043368438</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5083,22 +4953,20 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.559489928321689</v>
+        <v>0.02366488363036905</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2499543032838731</v>
+        <v>0.0003169573195767193</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2242682838958195</v>
+        <v>-0.001304881471637091</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2023783541085691</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.7318623513741049</v>
-      </c>
+        <v>0.01048937461701274</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>0.644582434525571</v>
+        <v>0.8976352966620009</v>
       </c>
     </row>
     <row r="37">
@@ -5108,20 +4976,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.469075806032647</v>
+        <v>-0.01652093391884646</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.408871856920961</v>
+        <v>-0.00373784618071684</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4489489325152345</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
+        <v>0.004454574909008933</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1829354766399329</v>
+      </c>
       <c r="F37" t="n">
-        <v>0.4981348003737807</v>
+        <v>0.5478712308031995</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4071451600487158</v>
+        <v>0.42540379418598</v>
       </c>
     </row>
   </sheetData>
@@ -5187,23 +5057,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.830048514722243</v>
+        <v>-1.360838289852104</v>
       </c>
       <c r="C2" t="n">
-        <v>3.544051567773329</v>
+        <v>3.408377796793961</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1841629688276959</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01433581864478601</v>
-      </c>
+        <v>0.143150220396241</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>7.736039084229732e-09</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7247051234234583</v>
-      </c>
+        <v>0.3761188723423733</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5212,22 +5078,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01854347206328524</v>
+        <v>-0.1977083881720232</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.02130913847048523</v>
+        <v>0.02230298891901995</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1895369084292791</v>
+        <v>-0.1868842382291886</v>
       </c>
       <c r="E3" t="n">
-        <v>0.940756729826974</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8636656048046327</v>
-      </c>
+        <v>0.7865377204438699</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.07084613008518799</v>
+        <v>0.08098045177913948</v>
       </c>
     </row>
     <row r="4">
@@ -5237,22 +5101,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1630449615682418</v>
+        <v>-0.1905348715564098</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1042555425200236</v>
+        <v>-0.03651032140456199</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4849947934676949</v>
+        <v>-0.484426724042904</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7501216552046153</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6453024595321288</v>
-      </c>
+        <v>0.9694775735600776</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.02175395554871189</v>
+        <v>0.008905339687393392</v>
       </c>
     </row>
     <row r="5">
@@ -5262,22 +5124,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1847855576469509</v>
+        <v>-0.0894757984050062</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03369258792847923</v>
+        <v>-0.1198615372687531</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2484971555547306</v>
+        <v>-0.2588694466286812</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6337999133485546</v>
+        <v>0.9621362744442454</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8529345974078923</v>
+        <v>0.07925152050074519</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08497561221437389</v>
+        <v>0.02784552975647949</v>
       </c>
     </row>
     <row r="6">
@@ -5287,22 +5149,18 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5307105032649352</v>
+        <v>0.4992222897672466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02070563585200188</v>
+        <v>0.3420009615780103</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1194797393782275</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1117409021342179</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9564520227411403</v>
-      </c>
+        <v>0.186268496707988</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.4853726302711292</v>
+        <v>0.3296900967254633</v>
       </c>
     </row>
     <row r="7">
@@ -5312,22 +5170,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5143409719300064</v>
+        <v>-0.5748931867598687</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5571656592570785</v>
+        <v>-0.4897523198372086</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.560925658367186</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.003241372298349525</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0001761001045099092</v>
-      </c>
+        <v>-0.4693207095634902</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>9.826909350028832e-06</v>
+        <v>5.831367418511892e-06</v>
       </c>
     </row>
     <row r="8">
@@ -5337,22 +5191,18 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4981096668105541</v>
+        <v>0.4619671291817032</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05332389446276926</v>
+        <v>0.03863394057415034</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07163758697251278</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.064693323071392e-65</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7649000078780492</v>
-      </c>
+        <v>0.001033246083526869</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>0.5794670723232915</v>
+        <v>0.9941060439750767</v>
       </c>
     </row>
     <row r="9">
@@ -5362,22 +5212,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3479529599083295</v>
+        <v>0.4973739937273805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2125150802187122</v>
+        <v>0.2183152764356732</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1971508785260083</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.003363401686973e-29</v>
-      </c>
+        <v>-0.1139241733084869</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.1191977955931533</v>
+        <v>0.07343553319840361</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0295696267816156</v>
+        <v>0.327706861031018</v>
       </c>
     </row>
     <row r="10">
@@ -5387,22 +5235,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3391956781662805</v>
+        <v>-0.347780686190847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1174438834358202</v>
+        <v>0.1007992080946771</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1219723069347341</v>
+        <v>0.110639215022966</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00303402976225893</v>
+        <v>0.8201673559667001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2772923699218862</v>
+        <v>0.7342405671509935</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1603283757181267</v>
+        <v>0.3565463675518149</v>
       </c>
     </row>
     <row r="11">
@@ -5412,23 +5260,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.380514683680752</v>
+        <v>1.401666275166917</v>
       </c>
       <c r="C11" t="n">
-        <v>1.615505650752972</v>
+        <v>1.736635306900892</v>
       </c>
       <c r="D11" t="n">
-        <v>1.575288449590759</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.840904689070814e-06</v>
-      </c>
+        <v>1.41360236837677</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1.30397104129308e-20</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.348935809523581e-26</v>
-      </c>
+        <v>1.056186650518601e-05</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5437,23 +5281,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7989098809545299</v>
+        <v>1.097350920104065</v>
       </c>
       <c r="C12" t="n">
-        <v>1.444116231399505</v>
+        <v>1.638525346822614</v>
       </c>
       <c r="D12" t="n">
-        <v>2.41704035009265</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.06501520943796976</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.19855458099113e-07</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9.454084138751136e-27</v>
-      </c>
+        <v>2.362262336955362</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5462,23 +5300,21 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8524871827236514</v>
+        <v>0.8768958485058447</v>
       </c>
       <c r="C13" t="n">
-        <v>1.195324443752637</v>
+        <v>1.232727112528522</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8240039266411101</v>
+        <v>0.7044494231319184</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01331402402224565</v>
+        <v>0.5555377843132443</v>
       </c>
       <c r="F13" t="n">
-        <v>1.859005213710046e-11</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.923434809164672e-05</v>
-      </c>
+        <v>1.628204913812049e-05</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5487,23 +5323,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.700313702465058</v>
+        <v>1.667406942499533</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7632199402686505</v>
+        <v>0.900097652191176</v>
       </c>
       <c r="D14" t="n">
-        <v>2.096778192907866</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.771140812207464e-10</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.705105078439624e-05</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.014052763716619e-80</v>
-      </c>
+        <v>1.964159760874171</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5512,23 +5342,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9244304111694098</v>
+        <v>0.545188147538277</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5799351914330843</v>
+        <v>0.9329268180022506</v>
       </c>
       <c r="D15" t="n">
-        <v>1.202515256543021</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.1035397706286711</v>
-      </c>
+        <v>1.06731880110102</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>0.2134510151089434</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.0003094850593089733</v>
-      </c>
+        <v>0.6647842079375952</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5537,22 +5363,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02232195830167541</v>
+        <v>0.1313435923258858</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6454290296216456</v>
+        <v>0.6794393082551728</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5185937365835802</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.955864471084457</v>
-      </c>
+        <v>0.4971472372398818</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.0001314203073025544</v>
+        <v>2.196910199995236e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>8.618824981748789e-05</v>
+        <v>0.002375925757665607</v>
       </c>
     </row>
     <row r="17">
@@ -5562,16 +5386,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6718698019284212</v>
+        <v>0.3745849562479593</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2714444534780141</v>
+        <v>-0.4560796975447021</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4934270965926881</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+        <v>-0.6465383738399159</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.999999999481902</v>
+      </c>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -5581,22 +5409,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1203516362927574</v>
+        <v>-0.0882857789585203</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2413480596139982</v>
+        <v>0.3619460386286881</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6672821600857055</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.6616879300920402</v>
-      </c>
+        <v>0.593706459053004</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.1786954110031104</v>
+        <v>0.6979147640428465</v>
       </c>
       <c r="G18" t="n">
-        <v>1.083639525993526e-07</v>
+        <v>0.3044915559033601</v>
       </c>
     </row>
     <row r="19">
@@ -5606,22 +5432,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8551990692976248</v>
+        <v>0.8900673206083949</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3286192522864944</v>
+        <v>0.2041459963658795</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9194219729440628</v>
+        <v>0.8119146521902536</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04672805336903554</v>
+        <v>0.9018639179868803</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1789716637875468</v>
+        <v>0.8089227207846263</v>
       </c>
       <c r="G19" t="n">
-        <v>1.440825754640361e-06</v>
+        <v>0.02264641242623899</v>
       </c>
     </row>
     <row r="20">
@@ -5631,23 +5457,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.336944105576875</v>
+        <v>1.16365939837595</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4634993063819671</v>
+        <v>0.1864732499870894</v>
       </c>
       <c r="D20" t="n">
-        <v>1.048623161959449</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.002625711372094816</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.1614579303162702</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8.910200373876829e-06</v>
-      </c>
+        <v>0.9323091153842853</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5656,22 +5476,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6217887190454989</v>
+        <v>0.6010876085446633</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001684384998797488</v>
+        <v>-0.06966986657858261</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3605635190154373</v>
+        <v>0.408746630177648</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2581176531861519</v>
+        <v>0.9367427737248136</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9968697680365068</v>
+        <v>0.9591213151904898</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2405845000902106</v>
+        <v>0.6667624768133876</v>
       </c>
     </row>
     <row r="22">
@@ -5681,22 +5501,20 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.888804442438471</v>
+        <v>-1.775339529914986</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.8161038607853852</v>
+        <v>-0.8481630358976101</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.155913194990414</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.003128002484748977</v>
-      </c>
+        <v>-1.300199679043414</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.008026951062803883</v>
+        <v>0.5518260261240249</v>
       </c>
       <c r="G22" t="n">
-        <v>2.243919425447258e-06</v>
+        <v>0.2536819385222734</v>
       </c>
     </row>
     <row r="23">
@@ -5706,16 +5524,20 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6718702665918482</v>
+        <v>0.3745900129637948</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2714422222717299</v>
+        <v>-0.4560787260274897</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.4934268961680705</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+        <v>-0.6465386123420748</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.99999999941758</v>
+      </c>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -5725,22 +5547,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2945573208614777</v>
+        <v>0.06924534884216928</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.07691407833727577</v>
+        <v>-0.007818633383425125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3542007902948838</v>
+        <v>0.4024840864399329</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1621773703281265</v>
+        <v>0.9463575330590775</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5508110432210358</v>
+        <v>0.9825253554089378</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001887645765145163</v>
+        <v>0.05335174974863828</v>
       </c>
     </row>
     <row r="25">
@@ -5750,23 +5572,21 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.029699986502148</v>
+        <v>0.9180427140299193</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07121565305303308</v>
+        <v>0.04531995215384195</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4553793598296872</v>
+        <v>0.4286738946545743</v>
       </c>
       <c r="E25" t="n">
-        <v>5.455840679322169e-07</v>
+        <v>0.3095663573881769</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5708475415266625</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7.911138393695733e-07</v>
-      </c>
+        <v>0.8315108381722685</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5775,22 +5595,20 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.03392199742232854</v>
+        <v>-0.03145614163338682</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.4040977877670084</v>
+        <v>-0.3887114494648774</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.07492901744145497</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9572386560048504</v>
-      </c>
+        <v>0.06069350310446024</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0.3145088338675486</v>
+        <v>0.4118323307119757</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7997624327465606</v>
+        <v>0.855668107346924</v>
       </c>
     </row>
     <row r="27">
@@ -5800,23 +5618,21 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1364344969166817</v>
+        <v>-0.2289198515086763</v>
       </c>
       <c r="C27" t="n">
-        <v>0.232186910737763</v>
+        <v>0.2229900382795856</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4653743904802335</v>
+        <v>0.4402177216023918</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3678228539422</v>
+        <v>0.7635082664243047</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01432056489451826</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.990794394167468e-11</v>
-      </c>
+        <v>0.2863937683115827</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5825,22 +5641,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.004263199318956059</v>
+        <v>-0.00655967574689483</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.007929782252400982</v>
+        <v>-0.01390056698753573</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01633820851153798</v>
+        <v>-0.01677329642727724</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5617745064872441</v>
+        <v>0.9283571975393045</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1335367557709542</v>
+        <v>0.6964936279316903</v>
       </c>
       <c r="G28" t="n">
-        <v>8.891411738512619e-06</v>
+        <v>0.3331108433707377</v>
       </c>
     </row>
     <row r="29">
@@ -5850,23 +5666,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0002075218357478339</v>
+        <v>-0.0002189539930869209</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.001011908131897131</v>
+        <v>-0.001032789993661567</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.155604581585451e-06</v>
+        <v>-9.942883398756079e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>4.757862119610218e-27</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4.388390438635401e-188</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.3689844707441425</v>
-      </c>
+        <v>5.200715940771787e-18</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5875,22 +5687,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.904976062292785</v>
+        <v>-1.712917092526032</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.903506144303013</v>
+        <v>-1.807031015223683</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.213902607388879</v>
+        <v>-2.142759994056413</v>
       </c>
       <c r="E30" t="n">
-        <v>2.19327811446773e-23</v>
+        <v>0.03054389496978015</v>
       </c>
       <c r="F30" t="n">
-        <v>1.244304445032805e-35</v>
+        <v>1.494507102565144e-09</v>
       </c>
       <c r="G30" t="n">
-        <v>1.008698608700983e-65</v>
+        <v>1.193978055645973e-13</v>
       </c>
     </row>
     <row r="31">
@@ -5900,20 +5712,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1020452768520445</v>
+        <v>0.07623739286928084</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.04624118295397999</v>
+        <v>-0.03613665624568151</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.003816969460191931</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
+        <v>-0.02232031451367925</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8958768512571575</v>
+      </c>
       <c r="F31" t="n">
-        <v>0.2875927826564089</v>
+        <v>0.7866045841977387</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9183346961358549</v>
+        <v>0.5254822633485479</v>
       </c>
     </row>
     <row r="32">
@@ -5923,21 +5737,17 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.783191223639913e-06</v>
+        <v>-0.0003936602375824634</v>
       </c>
       <c r="C32" t="n">
-        <v>2.071653669875702e-05</v>
+        <v>0.002868509376525506</v>
       </c>
       <c r="D32" t="n">
-        <v>3.774443569292363e-05</v>
+        <v>0.004965148242258425</v>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
-        <v>0.1464412497830649</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.0005316978774319448</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5946,22 +5756,20 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.03267036443922689</v>
+        <v>0.05254999897309708</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0008165682136512721</v>
+        <v>0.01271103968517368</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01333926908759541</v>
+        <v>-0.02263591825341196</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6059431640116184</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.975664681068278</v>
-      </c>
+        <v>0.6588868631707532</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>0.4809740756393766</v>
+        <v>0.00449466041798323</v>
       </c>
     </row>
     <row r="34">
@@ -5971,22 +5779,18 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.0745866716508139</v>
+        <v>-0.09819939764768643</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1323783572504302</v>
+        <v>-0.1255834823958747</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1557774183635821</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.01615060421319728</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.319911907260742e-08</v>
-      </c>
+        <v>-0.1361644849902805</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>2.16024860801667e-21</v>
+        <v>5.886715416536067e-11</v>
       </c>
     </row>
     <row r="35">
@@ -5996,21 +5800,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0113487708203127</v>
+        <v>0.01084698018790354</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001629173324735534</v>
+        <v>0.001854978689527416</v>
       </c>
       <c r="D35" t="n">
-        <v>0.003056428020463631</v>
+        <v>0.003614888342846634</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>0.5886121601355174</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.1553764936435384</v>
-      </c>
+        <v>0.6618890228207449</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6019,22 +5821,20 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.366488363036905</v>
+        <v>0.02711146456263379</v>
       </c>
       <c r="C36" t="n">
-        <v>0.03169573195767263</v>
+        <v>0.002016771607545161</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1304881471637072</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.2064207503272384</v>
-      </c>
+        <v>-0.002969562546950231</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>0.9676491128278184</v>
+        <v>0.293711566246283</v>
       </c>
       <c r="G36" t="n">
-        <v>0.497636093614732</v>
+        <v>0.7487998481042022</v>
       </c>
     </row>
     <row r="37">
@@ -6044,22 +5844,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.652093391884647</v>
+        <v>-0.01652456897029676</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.3737846180716849</v>
+        <v>6.621201392603241e-07</v>
       </c>
       <c r="D37" t="n">
-        <v>0.445457490900892</v>
+        <v>0.009959662993725428</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07179870779677783</v>
+        <v>0.2696885616418023</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5123725787678189</v>
+        <v>0.9998797124711157</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3394655771736863</v>
+        <v>0.0006735733739695302</v>
       </c>
     </row>
   </sheetData>
@@ -6125,21 +5925,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.020735556742261</v>
+        <v>-2.020735556742244</v>
       </c>
       <c r="C2" t="n">
-        <v>3.015827711993098</v>
+        <v>3.015827711993096</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1427311743463602</v>
+        <v>0.1427311743463586</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7360154106330525</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>0.3755869240260005</v>
-      </c>
+        <v>0.3188757872789892</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.56183105774994e-06</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6148,22 +5948,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.06554843679604387</v>
+        <v>-0.06554843679604361</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03632139123457228</v>
+        <v>-0.03632139123457236</v>
       </c>
       <c r="D3" t="n">
         <v>-0.2545557254078429</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.8545266793022781</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0.7486496856124831</v>
+        <v>0.7308161896059888</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004896714510307106</v>
+        <v>0.01002932084887347</v>
       </c>
     </row>
     <row r="4">
@@ -6173,20 +5971,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.006242089593953947</v>
+        <v>-0.006242089593953982</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1067662117808189</v>
+        <v>0.1067662117808191</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3853220518663097</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>-0.3853220518663096</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9929853189546499</v>
+      </c>
       <c r="F4" t="n">
-        <v>0.6841851889142754</v>
+        <v>0.6696993779916844</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003030341390436195</v>
+        <v>0.04686567051238166</v>
       </c>
     </row>
     <row r="5">
@@ -6196,22 +5996,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2068097054674737</v>
+        <v>-0.2068097054674739</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1077808534030336</v>
+        <v>-0.1077808534030335</v>
       </c>
       <c r="D5" t="n">
         <v>-0.2971276632874574</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8743094477427511</v>
+        <v>0.4282079547670811</v>
       </c>
       <c r="F5" t="n">
-        <v>0.54735225418013</v>
+        <v>0.62150293793401</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02890270905694201</v>
+        <v>0.05265233031754621</v>
       </c>
     </row>
     <row r="6">
@@ -6221,22 +6021,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5426235484837624</v>
+        <v>0.542623548483762</v>
       </c>
       <c r="C6" t="n">
         <v>0.2216222170490395</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1776152594866839</v>
+        <v>0.1776152594866838</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6137928399534709</v>
+        <v>0.1906332719949189</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5360871599595085</v>
+        <v>0.5558768214137071</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3135408214664865</v>
+        <v>0.3241564714429176</v>
       </c>
     </row>
     <row r="7">
@@ -6246,20 +6046,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4859327609924258</v>
+        <v>-0.4859327609924261</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4757462591456258</v>
+        <v>-0.475746259145626</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5876722410347124</v>
+        <v>-0.5876722410347123</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.001371088034175629</v>
+        <v>0.001440061442476152</v>
       </c>
       <c r="G7" t="n">
-        <v>2.076469316494315e-08</v>
+        <v>1.068225212562494e-06</v>
       </c>
     </row>
     <row r="8">
@@ -6269,20 +6069,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5272085159140683</v>
+        <v>0.5272085159140676</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2247664176309975</v>
+        <v>0.2247664176309973</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09313110825141376</v>
+        <v>0.09313110825141364</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.04613191282028643</v>
+        <v>0.07888753720627072</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2882485635566492</v>
+        <v>0.1739987235012744</v>
       </c>
     </row>
     <row r="9">
@@ -6292,22 +6092,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3967824396106516</v>
+        <v>0.3967824396106512</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2203595989129144</v>
+        <v>0.2203595989129148</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09151497603972751</v>
+        <v>-0.09151497603972764</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6014180980989643</v>
+        <v>0.1400593172532621</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1696534668863735</v>
+        <v>0.1007348642064587</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4878630333563718</v>
+        <v>0.3768171607257045</v>
       </c>
     </row>
     <row r="10">
@@ -6317,22 +6117,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.310569685186309</v>
+        <v>-0.3105696851863096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06835515979271219</v>
+        <v>0.06835515979271245</v>
       </c>
       <c r="D10" t="n">
         <v>0.1005683735118607</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.1563846289999716</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>0.5176621566523267</v>
+        <v>0.3799474640247312</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1909291952933929</v>
+        <v>0.06047277927212778</v>
       </c>
     </row>
     <row r="11">
@@ -6342,20 +6140,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.414112717667669</v>
+        <v>1.414112717667668</v>
       </c>
       <c r="C11" t="n">
-        <v>1.649947014780221</v>
+        <v>1.649947014780222</v>
       </c>
       <c r="D11" t="n">
-        <v>1.435082318212437</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>1.435082318212438</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.189576870852764e-05</v>
+      </c>
       <c r="F11" t="n">
-        <v>5.14004077117058e-12</v>
+        <v>8.530187847323122e-21</v>
       </c>
       <c r="G11" t="n">
-        <v>2.842543718235138e-08</v>
+        <v>1.243261857153227e-21</v>
       </c>
     </row>
     <row r="12">
@@ -6365,22 +6165,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.041337927559794</v>
+        <v>1.041337927559793</v>
       </c>
       <c r="C12" t="n">
-        <v>1.500883433124439</v>
+        <v>1.50088343312444</v>
       </c>
       <c r="D12" t="n">
         <v>2.237486752908948</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.2347163248837517</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.000453426323285093</v>
+        <v>9.691906468515728e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>1.45644876823358e-09</v>
+        <v>1.494379456860289e-42</v>
       </c>
     </row>
     <row r="13">
@@ -6390,22 +6188,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9776152972977172</v>
+        <v>0.9776152972977161</v>
       </c>
       <c r="C13" t="n">
-        <v>1.191900877499868</v>
+        <v>1.191900877499869</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7827991708287116</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.03725396013873607</v>
-      </c>
+        <v>0.782799170828712</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>6.291107877716798e-10</v>
+        <v>3.448929148422036e-11</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001283384945247205</v>
+        <v>2.38323978682445e-06</v>
       </c>
     </row>
     <row r="14">
@@ -6415,23 +6211,21 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.695692460985475</v>
+        <v>1.695692460985474</v>
       </c>
       <c r="C14" t="n">
-        <v>0.834708510401476</v>
+        <v>0.8347085104014771</v>
       </c>
       <c r="D14" t="n">
         <v>1.948371478242924</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01222125137576122</v>
+        <v>3.687973241435803e-16</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005137940751235187</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4.215797556398773e-16</v>
-      </c>
+        <v>4.618843509922252e-06</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6440,22 +6234,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.001722177710662</v>
+        <v>1.001722177710661</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9685931052187584</v>
+        <v>0.9685931052187592</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9209396922569337</v>
+        <v>0.9209396922569342</v>
       </c>
       <c r="E15" t="n">
-        <v>0.443278932136517</v>
+        <v>0.1420039022357815</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06648916607805118</v>
+        <v>0.03047214210008314</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03838030835635961</v>
+        <v>0.007457213891858155</v>
       </c>
     </row>
     <row r="16">
@@ -6465,22 +6259,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03483028958677055</v>
+        <v>-0.03483028958677092</v>
       </c>
       <c r="C16" t="n">
-        <v>0.549623876568064</v>
+        <v>0.5496238765680641</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4946595502542372</v>
+        <v>0.4946595502542374</v>
       </c>
       <c r="E16" t="n">
-        <v>0.910791798650145</v>
+        <v>0.9410734071173772</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0009831618408330362</v>
+        <v>0.000740825561525554</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0004066708793809284</v>
+        <v>0.0005095278907420637</v>
       </c>
     </row>
     <row r="17">
@@ -6490,21 +6284,21 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2216568983384631</v>
+        <v>0.2216516628272947</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.07351787085594806</v>
+        <v>-0.07351818865926729</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2869323067093561</v>
+        <v>-0.2869324104784441</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0.9999999999999998</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6513,22 +6307,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1735879900779448</v>
+        <v>-0.1735879900779445</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1362906717107131</v>
+        <v>0.136290671710714</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5212220650329547</v>
+        <v>0.5212220650329552</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6882610955646324</v>
+        <v>0.7247699633439936</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4693313019310921</v>
+        <v>0.3980491745563298</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001544293356352866</v>
+        <v>1.049678298923405e-05</v>
       </c>
     </row>
     <row r="19">
@@ -6538,22 +6332,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.079915984871154</v>
+        <v>1.079915984871153</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4126518214667267</v>
+        <v>0.4126518214667254</v>
       </c>
       <c r="D19" t="n">
         <v>0.9534923694937465</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.1557750419379506</v>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.1448564922899505</v>
+        <v>0.0978829167520297</v>
       </c>
       <c r="G19" t="n">
-        <v>1.550377493399235e-06</v>
+        <v>4.322850928003163e-05</v>
       </c>
     </row>
     <row r="20">
@@ -6563,20 +6355,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.416675331674703</v>
+        <v>1.416675331674701</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3813696598658714</v>
+        <v>0.3813696598658698</v>
       </c>
       <c r="D20" t="n">
         <v>1.129001278715203</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.3652521039911775</v>
+        <v>0.1458564127600627</v>
       </c>
       <c r="G20" t="n">
-        <v>3.132488414473293e-06</v>
+        <v>3.955208439373289e-05</v>
       </c>
     </row>
     <row r="21">
@@ -6586,22 +6378,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7427852462996251</v>
+        <v>0.7427852462996238</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2559272947810355</v>
+        <v>0.2559272947810347</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4776873090946493</v>
+        <v>0.4776873090946485</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6234469779260507</v>
+        <v>0.4551149759388116</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5577019852069773</v>
+        <v>0.5539749453747245</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1192102964176723</v>
+        <v>0.1283290085360576</v>
       </c>
     </row>
     <row r="22">
@@ -6611,22 +6403,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2.132475407544649</v>
+        <v>-2.13247540754465</v>
       </c>
       <c r="C22" t="n">
         <v>-0.6638677676215478</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.359548818414962</v>
+        <v>-1.359548818414963</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01480673897882202</v>
+        <v>0.04492209897046045</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04173793334250134</v>
+        <v>0.04576987170634657</v>
       </c>
       <c r="G22" t="n">
-        <v>5.273956888783295e-08</v>
+        <v>5.296114496204332e-08</v>
       </c>
     </row>
     <row r="23">
@@ -6636,21 +6428,21 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.221650886911982</v>
+        <v>0.2216561224231478</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.07351866844308465</v>
+        <v>-0.07351835063976567</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.28693253222995</v>
+        <v>-0.2869324284608621</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>0.9999999999999984</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0.9999999999999998</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6659,22 +6451,20 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2181049342149651</v>
+        <v>0.2181049342149645</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.08452576910738066</v>
+        <v>-0.08452576910737998</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3666342001788038</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.6155083322817725</v>
-      </c>
+        <v>0.366634200178804</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.5113120026198987</v>
+        <v>0.5117121128973638</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0002455310879519266</v>
+        <v>0.0001579379679169638</v>
       </c>
     </row>
     <row r="25">
@@ -6684,22 +6474,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9217044102102662</v>
+        <v>0.9217044102102653</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006833681151598731</v>
+        <v>0.006833681151598906</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4305626692289471</v>
+        <v>0.4305626692289473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07001259772095665</v>
+        <v>1.015272749716292e-25</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9559918182543606</v>
+        <v>0.956987155504785</v>
       </c>
       <c r="G25" t="n">
-        <v>5.202224512863959e-05</v>
+        <v>7.011263923451383e-06</v>
       </c>
     </row>
     <row r="26">
@@ -6709,22 +6499,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1656393885402377</v>
+        <v>-0.1656393885402381</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.4579982011868622</v>
+        <v>-0.4579982011868621</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.03504315485148295</v>
+        <v>-0.03504315485148289</v>
       </c>
       <c r="E26" t="n">
-        <v>0.796987488111754</v>
+        <v>0.7682616100989883</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2158899390528531</v>
+        <v>0.2092902754964296</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9026689223710838</v>
+        <v>0.9023097424632176</v>
       </c>
     </row>
     <row r="27">
@@ -6734,22 +6524,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1264966963512252</v>
+        <v>-0.1264966963512257</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2710328140507572</v>
+        <v>0.2710328140507567</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5367566557221983</v>
+        <v>0.5367566557221982</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8285907560350141</v>
+        <v>0.4184883871259337</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003780647335506298</v>
+        <v>0.004893673169968416</v>
       </c>
       <c r="G27" t="n">
-        <v>5.490731160269783e-21</v>
+        <v>2.328792620005429e-12</v>
       </c>
     </row>
     <row r="28">
@@ -6759,20 +6549,20 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0002946539213882257</v>
+        <v>0.0002946539213881706</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.004609016430265443</v>
+        <v>-0.004609016430265464</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01414269702916179</v>
+        <v>-0.01414269702916181</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.3008676604716514</v>
+        <v>0.2652359968863268</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0002214780193205201</v>
+        <v>4.978227773503349e-14</v>
       </c>
     </row>
     <row r="29">
@@ -6788,16 +6578,16 @@
         <v>-0.001009302299779144</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.301714341666333e-06</v>
+        <v>-4.301714341666339e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>5.493522051803588e-19</v>
+        <v>1.538129083442597e-23</v>
       </c>
       <c r="F29" t="n">
-        <v>3.889918579122325e-197</v>
+        <v>4.65274762528025e-190</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3156113829089044</v>
+        <v>0.2852851716333762</v>
       </c>
     </row>
     <row r="30">
@@ -6807,20 +6597,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.756834956734422</v>
+        <v>-1.756834956734421</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.858947890799866</v>
+        <v>-1.858947890799865</v>
       </c>
       <c r="D30" t="n">
         <v>-2.202509294500735</v>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.714127413978968e-13</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.123746605409006e-34</v>
+        <v>3.0788254495957e-33</v>
       </c>
       <c r="G30" t="n">
-        <v>1.958899214548858e-46</v>
+        <v>2.475942214075077e-62</v>
       </c>
     </row>
     <row r="31">
@@ -6830,21 +6622,23 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1166501786081078</v>
+        <v>0.1166501786081077</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.03614035206551781</v>
+        <v>-0.03614035206551759</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.01132080507966879</v>
+        <v>-0.01132080507966872</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4112190205823415</v>
+        <v>0.11628636411014</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4649673754076685</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+        <v>0.4430875985021959</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.6818015658278271</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6853,22 +6647,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.128756741268637e-06</v>
+        <v>0.0001128756741268467</v>
       </c>
       <c r="C32" t="n">
-        <v>2.365903408967518e-05</v>
+        <v>0.002365903408967526</v>
       </c>
       <c r="D32" t="n">
-        <v>4.466658252054779e-05</v>
+        <v>0.004466658252054783</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9873872691756458</v>
+        <v>0.9679669706664451</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06678680002988968</v>
+        <v>0.1026353762376666</v>
       </c>
       <c r="G32" t="n">
-        <v>2.695146511039036e-05</v>
+        <v>8.292836247763375e-05</v>
       </c>
     </row>
     <row r="33">
@@ -6878,22 +6672,20 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04934686011956745</v>
+        <v>0.04934686011956748</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01570379026946693</v>
+        <v>0.01570379026946686</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01239155880148951</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.01693990428266733</v>
-      </c>
+        <v>-0.01239155880148959</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>0.5551088168048219</v>
+        <v>0.4729712332890891</v>
       </c>
       <c r="G33" t="n">
-        <v>0.563343506465624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6903,20 +6695,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.09599370274028175</v>
+        <v>-0.09599370274028171</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1375769693234538</v>
+        <v>-0.1375769693234536</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1490694728602392</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+        <v>-0.149069472860239</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0001180684177783909</v>
+      </c>
       <c r="F34" t="n">
-        <v>1.658489223961399e-09</v>
+        <v>5.652568859725853e-12</v>
       </c>
       <c r="G34" t="n">
-        <v>2.513201484320671e-13</v>
+        <v>3.111050724523887e-30</v>
       </c>
     </row>
     <row r="35">
@@ -6926,17 +6720,23 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01073029461262584</v>
+        <v>0.01073029461262573</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002756232357487093</v>
+        <v>0.002756232357487083</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002315600449617085</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+        <v>0.002315600449617086</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.000544721465203546</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.3761168444963302</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.3335967322366424</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6945,22 +6745,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.282979543076484</v>
+        <v>0.02282979543076482</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6697462903337811</v>
+        <v>0.006697462903337808</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.4135720923888376</v>
+        <v>-0.004135720923888374</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3201470622387642</v>
+        <v>0.03846560184269547</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4084916341375813</v>
+        <v>0.3644463875831753</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5275403910616763</v>
+        <v>0.470672823870907</v>
       </c>
     </row>
     <row r="37">
@@ -6970,20 +6770,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.55905674728361</v>
+        <v>-0.01559056747283603</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2408980250902115</v>
+        <v>-0.002408980250902068</v>
       </c>
       <c r="D37" t="n">
-        <v>1.019375369587288</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
+        <v>0.0101937536958729</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.07852501428735194</v>
+      </c>
       <c r="F37" t="n">
-        <v>0.5530054501312727</v>
+        <v>0.6731234907516419</v>
       </c>
       <c r="G37" t="n">
-        <v>3.039645265350522e-06</v>
+        <v>0.02499916783380414</v>
       </c>
     </row>
   </sheetData>
@@ -7049,19 +6851,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.952591715707985</v>
+        <v>-1.952591715708007</v>
       </c>
       <c r="C2" t="n">
-        <v>3.196158957178903</v>
+        <v>3.19615895717891</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4564768183456557</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>0.4564768183456513</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1914826005375326</v>
+      </c>
       <c r="F2" t="n">
-        <v>5.109982119892694e-11</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>2.661957195583795e-07</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3100317953829042</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7070,22 +6876,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1144226686166738</v>
+        <v>-0.1144226686166732</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.06601702024722687</v>
+        <v>-0.06601702024722721</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2268578979601634</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1288811479146068</v>
-      </c>
+        <v>-0.226857897960163</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0.5456843947865004</v>
+        <v>0.5855627499100406</v>
       </c>
       <c r="G3" t="n">
-        <v>1.269463068271201e-05</v>
+        <v>0.01668945354950381</v>
       </c>
     </row>
     <row r="4">
@@ -7095,22 +6899,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1698178970731089</v>
+        <v>-0.1698178970731087</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1310765071391364</v>
+        <v>-0.1310765071391367</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5609163173577855</v>
+        <v>-0.5609163173577851</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5456497035253309</v>
+        <v>0.6228613863334935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5793421351806841</v>
+        <v>0.5706047756820125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003058319189805335</v>
+        <v>0.006012508711864627</v>
       </c>
     </row>
     <row r="5">
@@ -7120,22 +6924,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09323555935262903</v>
+        <v>-0.09323555935262846</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1330334681048381</v>
+        <v>-0.1330334681048377</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2467757421299386</v>
+        <v>-0.2467757421299382</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4838365516926098</v>
+        <v>0.8721862699173937</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3841982006822507</v>
+        <v>0.46440066183587</v>
       </c>
       <c r="G5" t="n">
-        <v>3.605216123324973e-05</v>
+        <v>0.08809733981462894</v>
       </c>
     </row>
     <row r="6">
@@ -7145,22 +6949,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.662742650073082</v>
+        <v>0.6627426500730825</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2773003225498734</v>
+        <v>0.2773003225498731</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1808509058720398</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.08228466824690783</v>
-      </c>
+        <v>0.1808509058720401</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.4580934837160435</v>
+        <v>0.4526549942495608</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3102331033553462</v>
+        <v>0.338907393794031</v>
       </c>
     </row>
     <row r="7">
@@ -7170,22 +6972,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6111783465732433</v>
+        <v>-0.6111783465732429</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4577514549271155</v>
+        <v>-0.4577514549271156</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4584788423170501</v>
+        <v>-0.4584788423170498</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0007725077099242936</v>
+        <v>0.09544001714315063</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008496939743037134</v>
+        <v>0.003622129692853522</v>
       </c>
       <c r="G7" t="n">
-        <v>2.510025819214006e-06</v>
+        <v>3.4908028067622e-11</v>
       </c>
     </row>
     <row r="8">
@@ -7195,22 +6997,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6025195879582669</v>
+        <v>0.6025195879582672</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2535733518258754</v>
+        <v>0.2535733518258756</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02114342315974907</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0111944535347902</v>
-      </c>
+        <v>-0.02114342315974873</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.1467719390170657</v>
+        <v>0.1177143951625807</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8742996041129683</v>
+        <v>0.8736824578662468</v>
       </c>
     </row>
     <row r="9">
@@ -7220,22 +7020,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2344511894205407</v>
+        <v>0.2344511894205408</v>
       </c>
       <c r="C9" t="n">
-        <v>0.168786833564511</v>
+        <v>0.1687868335645115</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1758674473354568</v>
+        <v>-0.1758674473354565</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2458556306564843</v>
+        <v>0.335746051227501</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2697623049671094</v>
+        <v>0.2508690467708616</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1452187066750926</v>
+        <v>0.1461200061916105</v>
       </c>
     </row>
     <row r="10">
@@ -7245,22 +7045,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3833270561131935</v>
+        <v>-0.3833270561131937</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06778914897078579</v>
+        <v>0.067789148970786</v>
       </c>
       <c r="D10" t="n">
-        <v>0.077137333188845</v>
+        <v>0.07713733318884534</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02153663237437439</v>
+        <v>0.5387567058179235</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5209592652009077</v>
+        <v>0.5460693033232316</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3224475790806097</v>
+        <v>0.3210122619095538</v>
       </c>
     </row>
     <row r="11">
@@ -7270,22 +7070,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.485117640041014</v>
+        <v>1.485117640041016</v>
       </c>
       <c r="C11" t="n">
         <v>1.664878292238648</v>
       </c>
       <c r="D11" t="n">
-        <v>1.410787671371395</v>
+        <v>1.410787671371396</v>
       </c>
       <c r="E11" t="n">
-        <v>5.407297011015721e-10</v>
+        <v>3.673828972063306e-11</v>
       </c>
       <c r="F11" t="n">
-        <v>1.343915626780606e-27</v>
+        <v>4.688267621187729e-21</v>
       </c>
       <c r="G11" t="n">
-        <v>4.624741423818778e-23</v>
+        <v>9.396447770520515e-24</v>
       </c>
     </row>
     <row r="12">
@@ -7295,23 +7095,21 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3737967670337228</v>
+        <v>0.3737967670337264</v>
       </c>
       <c r="C12" t="n">
         <v>1.504522440708308</v>
       </c>
       <c r="D12" t="n">
-        <v>2.290054107436867</v>
+        <v>2.290054107436868</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4529702291181456</v>
+        <v>0.3734765401357775</v>
       </c>
       <c r="F12" t="n">
-        <v>1.56615406747132e-07</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4.226301862538884e-19</v>
-      </c>
+        <v>3.795883671184883e-08</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7320,22 +7118,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.053111400746884</v>
+        <v>1.053111400746887</v>
       </c>
       <c r="C13" t="n">
         <v>1.253902216196585</v>
       </c>
       <c r="D13" t="n">
-        <v>0.77793760753143</v>
+        <v>0.7779376075314312</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0008895215023745477</v>
+        <v>2.68692340254406e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>9.035123194212604e-13</v>
+        <v>1.659803618940391e-12</v>
       </c>
       <c r="G13" t="n">
-        <v>2.175193361423557e-05</v>
+        <v>2.447185878158348e-05</v>
       </c>
     </row>
     <row r="14">
@@ -7345,22 +7143,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.68966184857629</v>
+        <v>1.689661848576293</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8132789648599986</v>
+        <v>0.813278964859999</v>
       </c>
       <c r="D14" t="n">
-        <v>1.942954100991155</v>
+        <v>1.942954100991156</v>
       </c>
       <c r="E14" t="n">
-        <v>4.521665465605966e-08</v>
+        <v>0.001782062284933424</v>
       </c>
       <c r="F14" t="n">
-        <v>6.05688303426651e-05</v>
+        <v>0.0004558632608253287</v>
       </c>
       <c r="G14" t="n">
-        <v>1.325053444296078e-23</v>
+        <v>3.078861626543971e-49</v>
       </c>
     </row>
     <row r="15">
@@ -7370,7 +7168,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02882187150110205</v>
+        <v>0.02882187150110465</v>
       </c>
       <c r="C15" t="n">
         <v>1.061193448980719</v>
@@ -7378,14 +7176,12 @@
       <c r="D15" t="n">
         <v>1.120652102052833</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.9750940778360419</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>0.01792612029053904</v>
+        <v>0.008550220274636844</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00049342476032452</v>
+        <v>0.004084662444037478</v>
       </c>
     </row>
     <row r="16">
@@ -7395,22 +7191,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07364940725615099</v>
+        <v>0.07364940725615132</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5581336958675254</v>
+        <v>0.5581336958675257</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5069118240407023</v>
+        <v>0.5069118240407026</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7775977036258788</v>
+        <v>0.8350269198039953</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0006077212855274076</v>
+        <v>0.0005739528255711552</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0002445885680647055</v>
+        <v>0.0002167804200257522</v>
       </c>
     </row>
     <row r="17">
@@ -7420,20 +7216,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9221245976542318</v>
+        <v>0.9221212747648543</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1830110860025384</v>
+        <v>-0.183010363450634</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4778606282423622</v>
+        <v>-0.4778606479896653</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999999999966</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
+        <v>0.9999999999999983</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9999999999999998</v>
+      </c>
       <c r="G17" t="n">
-        <v>0.9999999904777029</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="18">
@@ -7443,22 +7241,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2875382500529385</v>
+        <v>-0.2875382500529374</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05927491569729876</v>
+        <v>0.05927491569729806</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5610189830988083</v>
+        <v>0.5610189830988082</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3122322081870956</v>
+        <v>0.7721261368272058</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7494211396557589</v>
+        <v>0.7436825289994238</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002352888290917711</v>
+        <v>0.0001770640378356615</v>
       </c>
     </row>
     <row r="19">
@@ -7468,22 +7266,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9564054061499696</v>
+        <v>0.9564054061499691</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2975881288213713</v>
+        <v>0.2975881288213705</v>
       </c>
       <c r="D19" t="n">
         <v>0.7767647252828825</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005495876694112139</v>
+        <v>9.756954463637479e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2581102895365942</v>
+        <v>0.246328117631363</v>
       </c>
       <c r="G19" t="n">
-        <v>8.817743335978807e-05</v>
+        <v>7.887892346924638e-06</v>
       </c>
     </row>
     <row r="20">
@@ -7496,19 +7294,19 @@
         <v>1.008512025207881</v>
       </c>
       <c r="C20" t="n">
-        <v>0.534003070512526</v>
+        <v>0.5340030705125252</v>
       </c>
       <c r="D20" t="n">
-        <v>1.05193084627334</v>
+        <v>1.051930846273339</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0554942826157744</v>
+        <v>0.4929688403843133</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1213661252473093</v>
+        <v>0.05608428309427865</v>
       </c>
       <c r="G20" t="n">
-        <v>6.819193618456642e-05</v>
+        <v>7.419085853960308e-09</v>
       </c>
     </row>
     <row r="21">
@@ -7521,19 +7319,19 @@
         <v>1.408846459526599</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1416471152922159</v>
+        <v>0.1416471152922162</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3689833408601461</v>
+        <v>0.3689833408601466</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01692370029256272</v>
+        <v>0.03012474630083557</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7452625444211822</v>
+        <v>0.7411030404731622</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2439316943999531</v>
+        <v>0.1807627083676273</v>
       </c>
     </row>
     <row r="22">
@@ -7543,7 +7341,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.7164352182860254</v>
+        <v>-0.7164352182860251</v>
       </c>
       <c r="C22" t="n">
         <v>-0.769246471121127</v>
@@ -7552,13 +7350,13 @@
         <v>-1.323416007018804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1795002879924867</v>
+        <v>0.6725825023307559</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01214333516447042</v>
+        <v>0.01244840411994317</v>
       </c>
       <c r="G22" t="n">
-        <v>5.278828588346044e-08</v>
+        <v>9.719364152858751e-09</v>
       </c>
     </row>
     <row r="23">
@@ -7568,20 +7366,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9221330401488452</v>
+        <v>0.9221363630382218</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1830103885609332</v>
+        <v>-0.1830111111128388</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.4778607170022796</v>
+        <v>-0.4778606972549759</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999999999966</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+        <v>0.9999999999999971</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9999999999999996</v>
+      </c>
       <c r="G23" t="n">
-        <v>0.999999990456256</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="24">
@@ -7591,22 +7391,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.460233221186399</v>
+        <v>0.4602332211863995</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01600163582479594</v>
+        <v>0.0160016358247959</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4305635213680597</v>
+        <v>0.43056352136806</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03491950153246041</v>
+        <v>0.1563597243925154</v>
       </c>
       <c r="F24" t="n">
-        <v>0.901954294696484</v>
+        <v>0.8956901669420733</v>
       </c>
       <c r="G24" t="n">
-        <v>1.113437542774608e-05</v>
+        <v>1.032677031907311e-05</v>
       </c>
     </row>
     <row r="25">
@@ -7616,22 +7416,20 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.168832661748233</v>
+        <v>1.168832661748234</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09175509445999359</v>
+        <v>0.09175509445999334</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4475847235544421</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2.978823390898609e-09</v>
-      </c>
+        <v>0.4475847235544422</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.4745083671062292</v>
+        <v>0.4023837496771356</v>
       </c>
       <c r="G25" t="n">
-        <v>6.226049147678223e-06</v>
+        <v>2.59782824775294e-07</v>
       </c>
     </row>
     <row r="26">
@@ -7641,22 +7439,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2195999649501632</v>
+        <v>0.2195999649501638</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.292031930469573</v>
+        <v>-0.2920319304695734</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02350418413697189</v>
+        <v>0.02350418413697243</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7325792536836516</v>
+        <v>0.7548431368315444</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4576386051280421</v>
+        <v>0.4591392012096964</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9391111627172614</v>
+        <v>0.9394330973804177</v>
       </c>
     </row>
     <row r="27">
@@ -7666,22 +7464,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1745302281355329</v>
+        <v>-0.174530228135532</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2678655849291344</v>
+        <v>0.2678655849291343</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4689638513263522</v>
+        <v>0.4689638513263525</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2046979552770045</v>
+        <v>0.276081851464125</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004938243292102828</v>
+        <v>0.004966294500505071</v>
       </c>
       <c r="G27" t="n">
-        <v>1.576148147837174e-10</v>
+        <v>3.143885888635902e-11</v>
       </c>
     </row>
     <row r="28">
@@ -7691,22 +7489,20 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.000311415318635427</v>
+        <v>0.0003114153186354135</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.004440026093761862</v>
+        <v>-0.004440026093761886</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01738698188709729</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.9544139703925074</v>
-      </c>
+        <v>-0.01738698188709728</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.367490248685551</v>
+        <v>0.2547310335774576</v>
       </c>
       <c r="G28" t="n">
-        <v>4.753646493067621e-08</v>
+        <v>6.185404675108557e-11</v>
       </c>
     </row>
     <row r="29">
@@ -7722,16 +7518,16 @@
         <v>-0.001027752997045903</v>
       </c>
       <c r="D29" t="n">
-        <v>-5.604208247712159e-06</v>
+        <v>-5.604208247712165e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>2.136015323778242e-33</v>
+        <v>1.057101528545464e-24</v>
       </c>
       <c r="F29" t="n">
-        <v>3.999002997101559e-191</v>
+        <v>9.020541828195327e-190</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0976722538163822</v>
+        <v>0.1433724292698772</v>
       </c>
     </row>
     <row r="30">
@@ -7750,13 +7546,13 @@
         <v>-2.193944317451181</v>
       </c>
       <c r="E30" t="n">
-        <v>5.292461591396841e-19</v>
+        <v>0.03532887701475372</v>
       </c>
       <c r="F30" t="n">
-        <v>7.967703686566385e-34</v>
+        <v>1.01318489776664e-28</v>
       </c>
       <c r="G30" t="n">
-        <v>4.970876657848177e-66</v>
+        <v>1.544081704567217e-44</v>
       </c>
     </row>
     <row r="31">
@@ -7766,22 +7562,20 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1227770543576295</v>
+        <v>0.1227770543576296</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.05958582695898553</v>
+        <v>-0.05958582695898588</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.03870958549894456</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.07014577046712744</v>
-      </c>
+        <v>-0.03870958549894449</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>0.2154657204336132</v>
+        <v>0.176266000111581</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3229426891603839</v>
+        <v>0.2826897481058822</v>
       </c>
     </row>
     <row r="32">
@@ -7791,22 +7585,20 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.101122542658579e-06</v>
+        <v>0.0005101122542658907</v>
       </c>
       <c r="C32" t="n">
-        <v>3.262931292125377e-05</v>
+        <v>0.003262931292125367</v>
       </c>
       <c r="D32" t="n">
-        <v>4.301479178475409e-05</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.8239879625311309</v>
-      </c>
+        <v>0.004301479178475409</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.02902544565589209</v>
+        <v>0.01372179544845264</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0006023928756715455</v>
+        <v>5.352199965672627e-08</v>
       </c>
     </row>
     <row r="33">
@@ -7816,22 +7608,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.05188983458098662</v>
+        <v>0.05188983458098637</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.004759059114763459</v>
+        <v>-0.004759059114763342</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.004712014083402859</v>
+        <v>-0.004712014083402783</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2081737004635071</v>
+        <v>0.5179777726047103</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8630797457900221</v>
+        <v>0.8605381992691989</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8286623880984576</v>
+        <v>0.8318878134181189</v>
       </c>
     </row>
     <row r="34">
@@ -7841,7 +7633,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.07640907992310621</v>
+        <v>-0.07640907992310593</v>
       </c>
       <c r="C34" t="n">
         <v>-0.1188135080192434</v>
@@ -7849,14 +7641,12 @@
       <c r="D34" t="n">
         <v>-0.1478348798360293</v>
       </c>
-      <c r="E34" t="n">
-        <v>0.0180416299850911</v>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>1.443377649862495e-07</v>
+        <v>4.262713809616869e-09</v>
       </c>
       <c r="G34" t="n">
-        <v>4.744396411157297e-17</v>
+        <v>3.468663032538491e-84</v>
       </c>
     </row>
     <row r="35">
@@ -7866,22 +7656,20 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.008940657377918382</v>
+        <v>0.008940657377918493</v>
       </c>
       <c r="C35" t="n">
-        <v>0.000990622482360339</v>
+        <v>0.0009906224823603026</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002336923312393403</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.05219336564479572</v>
-      </c>
+        <v>0.00233692331239341</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>0.7531778805530058</v>
+        <v>0.7850754107791414</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3660568595818025</v>
+        <v>0.3434969257159687</v>
       </c>
     </row>
     <row r="36">
@@ -7891,22 +7679,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.190457978484941</v>
+        <v>0.02190457978484945</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.03127050204146574</v>
+        <v>-0.0003127050204146381</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2828536334162103</v>
+        <v>-0.00282853633416207</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03930076426790993</v>
+        <v>0.3456849138437109</v>
       </c>
       <c r="F36" t="n">
-        <v>0.967089492732737</v>
+        <v>0.9672170071990681</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6317365908998458</v>
+        <v>0.648714986066144</v>
       </c>
     </row>
     <row r="37">
@@ -7916,22 +7704,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.332568088693066</v>
+        <v>-0.01332568088693068</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.01271829406925088</v>
+        <v>-0.0001271829406924913</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9423434555777325</v>
+        <v>0.009423434555777328</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1385473917601946</v>
+        <v>0.3347439112471517</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9821653110968156</v>
+        <v>0.9775555567468612</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03424557738891539</v>
+        <v>0.0004930877546995264</v>
       </c>
     </row>
   </sheetData>
